--- a/app/import_data/Data_GIS.xlsx
+++ b/app/import_data/Data_GIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gis_doan\app\import_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF766DBA-DEF8-4905-A954-3CB26A533C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38366C5E-F1AF-4E3B-AB2A-663347750988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="763">
   <si>
     <t>id</t>
   </si>
@@ -2216,157 +2216,118 @@
     <t>Đồng Nai Thượng</t>
   </si>
   <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
-    <t>627</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>629</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>633</t>
-  </si>
-  <si>
-    <t>634</t>
-  </si>
-  <si>
-    <t>635</t>
-  </si>
-  <si>
-    <t>637</t>
-  </si>
-  <si>
-    <t>638</t>
-  </si>
-  <si>
-    <t>639</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>644</t>
-  </si>
-  <si>
-    <t>645</t>
-  </si>
-  <si>
-    <t>646</t>
-  </si>
-  <si>
-    <t>647</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>649</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>652</t>
-  </si>
-  <si>
-    <t>653</t>
-  </si>
-  <si>
-    <t>654</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>657</t>
-  </si>
-  <si>
-    <t>660</t>
-  </si>
-  <si>
-    <t>661</t>
-  </si>
-  <si>
-    <t>662</t>
-  </si>
-  <si>
-    <t>663</t>
-  </si>
-  <si>
-    <t>664</t>
-  </si>
-  <si>
-    <t>665</t>
-  </si>
-  <si>
-    <t>666</t>
-  </si>
-  <si>
-    <t>667</t>
-  </si>
-  <si>
-    <t>672</t>
-  </si>
-  <si>
-    <t>673</t>
-  </si>
-  <si>
-    <t>674</t>
-  </si>
-  <si>
-    <t>675</t>
-  </si>
-  <si>
-    <t>676</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>678</t>
-  </si>
-  <si>
-    <t>679</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>681</t>
-  </si>
-  <si>
-    <t>682</t>
-  </si>
-  <si>
-    <t>683</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2419,6 +2380,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3502,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D709"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A691" workbookViewId="0">
+      <selection activeCell="I708" sqref="I708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3517,7 +3483,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3531,7 +3497,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3545,7 +3511,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3559,7 +3525,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3573,7 +3539,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3587,7 +3553,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3601,7 +3567,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3615,7 +3581,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3629,7 +3595,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3643,7 +3609,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3657,7 +3623,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3671,7 +3637,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3685,7 +3651,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3699,7 +3665,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3713,7 +3679,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3727,7 +3693,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3741,7 +3707,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3755,7 +3721,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3769,7 +3735,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3783,7 +3749,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3797,7 +3763,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3811,7 +3777,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3825,7 +3791,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3839,7 +3805,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3853,7 +3819,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3867,7 +3833,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3881,7 +3847,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -3895,7 +3861,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -3909,7 +3875,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3923,7 +3889,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3937,7 +3903,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -3951,7 +3917,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3965,7 +3931,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -3979,7 +3945,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -3993,7 +3959,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -4007,7 +3973,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -4021,7 +3987,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -4035,7 +4001,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -4049,7 +4015,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -4063,7 +4029,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -4077,7 +4043,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -4091,7 +4057,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4105,7 +4071,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -4119,7 +4085,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -4133,7 +4099,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -4147,7 +4113,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4161,7 +4127,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -4175,7 +4141,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -4189,7 +4155,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4203,7 +4169,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -4217,7 +4183,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>4</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -4231,7 +4197,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -4245,7 +4211,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="5">
         <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4259,7 +4225,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -4273,7 +4239,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="5">
         <v>5</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -4287,7 +4253,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -4301,7 +4267,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="5">
         <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -4315,7 +4281,7 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -4329,7 +4295,7 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="5">
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -4343,7 +4309,7 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5">
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -4357,7 +4323,7 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="5">
         <v>6</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -4371,7 +4337,7 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="5">
         <v>6</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -4385,7 +4351,7 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="5">
         <v>6</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -4399,7 +4365,7 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="5">
         <v>6</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -4413,7 +4379,7 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="5">
         <v>6</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -4427,7 +4393,7 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="5">
         <v>6</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -4441,7 +4407,7 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="5">
         <v>6</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -4455,7 +4421,7 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="5">
         <v>7</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -4469,7 +4435,7 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="5">
         <v>7</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -4483,7 +4449,7 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="5">
         <v>7</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -4497,7 +4463,7 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="5">
         <v>7</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -4511,7 +4477,7 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="5">
         <v>7</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -4525,7 +4491,7 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="5">
         <v>7</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -4539,7 +4505,7 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="5">
         <v>7</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -4553,7 +4519,7 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="5">
         <v>7</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -4567,7 +4533,7 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="5">
         <v>7</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -4581,7 +4547,7 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="5">
         <v>8</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -4595,7 +4561,7 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="5">
         <v>8</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -4609,7 +4575,7 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="5">
         <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -4623,7 +4589,7 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="5">
         <v>8</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -4637,7 +4603,7 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="5">
         <v>8</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -4651,7 +4617,7 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="5">
         <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -4665,7 +4631,7 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="5">
         <v>8</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -4679,7 +4645,7 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="5">
         <v>8</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -4693,7 +4659,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="5">
         <v>8</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -4707,7 +4673,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="5">
         <v>8</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -4721,7 +4687,7 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="5">
         <v>8</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -4735,7 +4701,7 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="5">
         <v>9</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -4749,7 +4715,7 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="5">
         <v>9</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -4763,7 +4729,7 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="5">
         <v>9</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -4777,7 +4743,7 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="5">
         <v>9</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -4791,7 +4757,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="5">
         <v>9</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -4805,7 +4771,7 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="5">
         <v>9</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -4819,7 +4785,7 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="5">
         <v>9</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -4833,7 +4799,7 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="5">
         <v>9</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -4847,7 +4813,7 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="5">
         <v>9</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -4861,7 +4827,7 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="5">
         <v>9</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -4875,7 +4841,7 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="5">
         <v>9</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -4889,7 +4855,7 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="5">
         <v>10</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -4903,7 +4869,7 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="5">
         <v>10</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -4917,7 +4883,7 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="5">
         <v>10</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -4931,7 +4897,7 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="5">
         <v>10</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -4945,7 +4911,7 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="5">
         <v>10</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -4959,7 +4925,7 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="5">
         <v>10</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -4973,7 +4939,7 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="5">
         <v>10</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -4987,7 +4953,7 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="5">
         <v>10</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -5001,7 +4967,7 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="5">
         <v>10</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -5015,7 +4981,7 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="5">
         <v>10</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -5029,7 +4995,7 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="5">
         <v>10</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -5043,7 +5009,7 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="5">
         <v>10</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -5057,7 +5023,7 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="5">
         <v>10</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -5071,7 +5037,7 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="5">
         <v>10</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -5085,7 +5051,7 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="5">
         <v>10</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -5099,7 +5065,7 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="5">
         <v>10</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -5113,7 +5079,7 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="5">
         <v>10</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -5127,7 +5093,7 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="5">
         <v>10</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -5141,7 +5107,7 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="5">
         <v>10</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -5155,7 +5121,7 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="5">
         <v>10</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -5169,7 +5135,7 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="5">
         <v>10</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -5183,7 +5149,7 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="5">
         <v>10</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -5197,7 +5163,7 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="5">
         <v>10</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -5211,7 +5177,7 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="7" t="s">
         <v>725</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -5225,7 +5191,7 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="7" t="s">
         <v>725</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -5239,7 +5205,7 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="7" t="s">
         <v>725</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -5253,7 +5219,7 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="7" t="s">
         <v>725</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -5267,7 +5233,7 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="7" t="s">
         <v>725</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -5281,7 +5247,7 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="7" t="s">
         <v>725</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -5295,7 +5261,7 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="7" t="s">
         <v>725</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -5309,7 +5275,7 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="7" t="s">
         <v>725</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -5323,7 +5289,7 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="7" t="s">
         <v>725</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -5337,7 +5303,7 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="7" t="s">
         <v>725</v>
       </c>
       <c r="C131" s="2" t="s">
@@ -5351,7 +5317,7 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="7" t="s">
         <v>725</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -5365,7 +5331,7 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="7" t="s">
         <v>726</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -5379,7 +5345,7 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="7" t="s">
         <v>726</v>
       </c>
       <c r="C134" s="2" t="s">
@@ -5393,7 +5359,7 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="7" t="s">
         <v>726</v>
       </c>
       <c r="C135" s="2" t="s">
@@ -5407,7 +5373,7 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="7" t="s">
         <v>726</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -5421,8 +5387,8 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>726</v>
+      <c r="B137" s="7">
+        <v>12</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>194</v>
@@ -5435,8 +5401,8 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>726</v>
+      <c r="B138" s="7">
+        <v>12</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>195</v>
@@ -5449,8 +5415,8 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>726</v>
+      <c r="B139" s="7">
+        <v>12</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>196</v>
@@ -5463,8 +5429,8 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>726</v>
+      <c r="B140" s="7">
+        <v>12</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>197</v>
@@ -5477,8 +5443,8 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>727</v>
+      <c r="B141" s="7">
+        <v>13</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>19</v>
@@ -5491,8 +5457,8 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>727</v>
+      <c r="B142" s="7">
+        <v>13</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>198</v>
@@ -5505,8 +5471,8 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>727</v>
+      <c r="B143" s="7">
+        <v>13</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>199</v>
@@ -5519,8 +5485,8 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>727</v>
+      <c r="B144" s="7">
+        <v>13</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>200</v>
@@ -5533,8 +5499,8 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>727</v>
+      <c r="B145" s="7">
+        <v>13</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>201</v>
@@ -5547,8 +5513,8 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>727</v>
+      <c r="B146" s="7">
+        <v>13</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>202</v>
@@ -5561,8 +5527,8 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>727</v>
+      <c r="B147" s="7">
+        <v>13</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>203</v>
@@ -5575,8 +5541,8 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>727</v>
+      <c r="B148" s="7">
+        <v>13</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>204</v>
@@ -5589,8 +5555,8 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>727</v>
+      <c r="B149" s="7">
+        <v>13</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>205</v>
@@ -5603,8 +5569,8 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>727</v>
+      <c r="B150" s="7">
+        <v>13</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>206</v>
@@ -5617,8 +5583,8 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>727</v>
+      <c r="B151" s="7">
+        <v>13</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>207</v>
@@ -5631,8 +5597,8 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>727</v>
+      <c r="B152" s="7">
+        <v>13</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>208</v>
@@ -5645,8 +5611,8 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>727</v>
+      <c r="B153" s="7">
+        <v>13</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>209</v>
@@ -5659,8 +5625,8 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>727</v>
+      <c r="B154" s="7">
+        <v>13</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>210</v>
@@ -5673,8 +5639,8 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>728</v>
+      <c r="B155" s="7">
+        <v>14</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>20</v>
@@ -5687,8 +5653,8 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>728</v>
+      <c r="B156" s="7">
+        <v>14</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>211</v>
@@ -5701,8 +5667,8 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>728</v>
+      <c r="B157" s="7">
+        <v>14</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>212</v>
@@ -5715,8 +5681,8 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>728</v>
+      <c r="B158" s="7">
+        <v>14</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>213</v>
@@ -5729,8 +5695,8 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>728</v>
+      <c r="B159" s="7">
+        <v>14</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>214</v>
@@ -5743,8 +5709,8 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>728</v>
+      <c r="B160" s="7">
+        <v>14</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>215</v>
@@ -5757,8 +5723,8 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>728</v>
+      <c r="B161" s="7">
+        <v>14</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>216</v>
@@ -5771,8 +5737,8 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>728</v>
+      <c r="B162" s="7">
+        <v>14</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>217</v>
@@ -5785,8 +5751,8 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>728</v>
+      <c r="B163" s="7">
+        <v>14</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>218</v>
@@ -5799,8 +5765,8 @@
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>728</v>
+      <c r="B164" s="7">
+        <v>14</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>219</v>
@@ -5813,8 +5779,8 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>728</v>
+      <c r="B165" s="7">
+        <v>14</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>220</v>
@@ -5827,8 +5793,8 @@
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>728</v>
+      <c r="B166" s="7">
+        <v>14</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>221</v>
@@ -5841,8 +5807,8 @@
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>728</v>
+      <c r="B167" s="7">
+        <v>14</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>222</v>
@@ -5855,8 +5821,8 @@
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>728</v>
+      <c r="B168" s="7">
+        <v>14</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>223</v>
@@ -5869,8 +5835,8 @@
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>728</v>
+      <c r="B169" s="7">
+        <v>14</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>224</v>
@@ -5883,8 +5849,8 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>728</v>
+      <c r="B170" s="7">
+        <v>14</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>225</v>
@@ -5897,8 +5863,8 @@
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>728</v>
+      <c r="B171" s="7">
+        <v>14</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>226</v>
@@ -5911,8 +5877,8 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>729</v>
+      <c r="B172" s="7">
+        <v>15</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>227</v>
@@ -5925,8 +5891,8 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>729</v>
+      <c r="B173" s="7">
+        <v>15</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>228</v>
@@ -5939,8 +5905,8 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>729</v>
+      <c r="B174" s="7">
+        <v>15</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>229</v>
@@ -5953,8 +5919,8 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>729</v>
+      <c r="B175" s="7">
+        <v>15</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>230</v>
@@ -5967,8 +5933,8 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>729</v>
+      <c r="B176" s="7">
+        <v>15</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>231</v>
@@ -5981,8 +5947,8 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>729</v>
+      <c r="B177" s="7">
+        <v>15</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>232</v>
@@ -5995,8 +5961,8 @@
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>729</v>
+      <c r="B178" s="7">
+        <v>15</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>233</v>
@@ -6009,8 +5975,8 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>729</v>
+      <c r="B179" s="7">
+        <v>15</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>234</v>
@@ -6023,8 +5989,8 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>729</v>
+      <c r="B180" s="7">
+        <v>15</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>235</v>
@@ -6037,8 +6003,8 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>729</v>
+      <c r="B181" s="7">
+        <v>15</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>236</v>
@@ -6051,8 +6017,8 @@
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>729</v>
+      <c r="B182" s="7">
+        <v>15</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>237</v>
@@ -6065,8 +6031,8 @@
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>729</v>
+      <c r="B183" s="7">
+        <v>15</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>238</v>
@@ -6079,8 +6045,8 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>729</v>
+      <c r="B184" s="7">
+        <v>15</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>239</v>
@@ -6093,8 +6059,8 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>729</v>
+      <c r="B185" s="7">
+        <v>15</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>240</v>
@@ -6107,8 +6073,8 @@
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>729</v>
+      <c r="B186" s="7">
+        <v>15</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>241</v>
@@ -6121,8 +6087,8 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>730</v>
+      <c r="B187" s="7">
+        <v>16</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>242</v>
@@ -6135,8 +6101,8 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>730</v>
+      <c r="B188" s="7">
+        <v>16</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>197</v>
@@ -6149,8 +6115,8 @@
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>730</v>
+      <c r="B189" s="7">
+        <v>16</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>243</v>
@@ -6163,8 +6129,8 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>730</v>
+      <c r="B190" s="7">
+        <v>16</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>244</v>
@@ -6177,8 +6143,8 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>730</v>
+      <c r="B191" s="7">
+        <v>16</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>245</v>
@@ -6191,8 +6157,8 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>730</v>
+      <c r="B192" s="7">
+        <v>16</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>246</v>
@@ -6205,8 +6171,8 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>730</v>
+      <c r="B193" s="7">
+        <v>16</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>247</v>
@@ -6219,8 +6185,8 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>730</v>
+      <c r="B194" s="7">
+        <v>16</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>248</v>
@@ -6233,8 +6199,8 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>730</v>
+      <c r="B195" s="7">
+        <v>16</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>249</v>
@@ -6247,8 +6213,8 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>730</v>
+      <c r="B196" s="7">
+        <v>16</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>250</v>
@@ -6261,8 +6227,8 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>730</v>
+      <c r="B197" s="7">
+        <v>16</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>251</v>
@@ -6275,8 +6241,8 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>730</v>
+      <c r="B198" s="7">
+        <v>16</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>252</v>
@@ -6289,8 +6255,8 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>730</v>
+      <c r="B199" s="7">
+        <v>16</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>253</v>
@@ -6303,8 +6269,8 @@
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>731</v>
+      <c r="B200" s="7">
+        <v>17</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>254</v>
@@ -6317,8 +6283,8 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>731</v>
+      <c r="B201" s="7">
+        <v>17</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>255</v>
@@ -6331,8 +6297,8 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>731</v>
+      <c r="B202" s="7">
+        <v>17</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>256</v>
@@ -6345,8 +6311,8 @@
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>731</v>
+      <c r="B203" s="7">
+        <v>17</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>257</v>
@@ -6359,8 +6325,8 @@
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>731</v>
+      <c r="B204" s="7">
+        <v>17</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>258</v>
@@ -6373,8 +6339,8 @@
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>731</v>
+      <c r="B205" s="7">
+        <v>17</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>259</v>
@@ -6387,8 +6353,8 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>731</v>
+      <c r="B206" s="7">
+        <v>17</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>260</v>
@@ -6401,8 +6367,8 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>731</v>
+      <c r="B207" s="7">
+        <v>17</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>261</v>
@@ -6415,8 +6381,8 @@
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>731</v>
+      <c r="B208" s="7">
+        <v>17</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>262</v>
@@ -6429,8 +6395,8 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>731</v>
+      <c r="B209" s="7">
+        <v>17</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>263</v>
@@ -6443,8 +6409,8 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>731</v>
+      <c r="B210" s="7">
+        <v>17</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>264</v>
@@ -6457,8 +6423,8 @@
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>731</v>
+      <c r="B211" s="7">
+        <v>17</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>265</v>
@@ -6471,8 +6437,8 @@
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>732</v>
+      <c r="B212" s="7">
+        <v>18</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>24</v>
@@ -6485,8 +6451,8 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>732</v>
+      <c r="B213" s="7">
+        <v>18</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>266</v>
@@ -6499,8 +6465,8 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>732</v>
+      <c r="B214" s="7">
+        <v>18</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>267</v>
@@ -6513,8 +6479,8 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>732</v>
+      <c r="B215" s="7">
+        <v>18</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>268</v>
@@ -6527,8 +6493,8 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>732</v>
+      <c r="B216" s="7">
+        <v>18</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>269</v>
@@ -6541,8 +6507,8 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>732</v>
+      <c r="B217" s="7">
+        <v>18</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>270</v>
@@ -6555,8 +6521,8 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>732</v>
+      <c r="B218" s="7">
+        <v>18</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>271</v>
@@ -6569,8 +6535,8 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>732</v>
+      <c r="B219" s="7">
+        <v>18</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>272</v>
@@ -6583,8 +6549,8 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>732</v>
+      <c r="B220" s="7">
+        <v>18</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>273</v>
@@ -6597,8 +6563,8 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>732</v>
+      <c r="B221" s="7">
+        <v>18</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>274</v>
@@ -6611,8 +6577,8 @@
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>732</v>
+      <c r="B222" s="7">
+        <v>18</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>275</v>
@@ -6625,8 +6591,8 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>732</v>
+      <c r="B223" s="7">
+        <v>18</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>276</v>
@@ -6639,8 +6605,8 @@
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>732</v>
+      <c r="B224" s="7">
+        <v>18</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>277</v>
@@ -6653,8 +6619,8 @@
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>732</v>
+      <c r="B225" s="7">
+        <v>18</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>278</v>
@@ -6667,8 +6633,8 @@
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>733</v>
+      <c r="B226" s="7">
+        <v>19</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>279</v>
@@ -6681,8 +6647,8 @@
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>733</v>
+      <c r="B227" s="7">
+        <v>19</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>280</v>
@@ -6695,8 +6661,8 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>733</v>
+      <c r="B228" s="7">
+        <v>19</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>281</v>
@@ -6709,8 +6675,8 @@
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>733</v>
+      <c r="B229" s="7">
+        <v>19</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>282</v>
@@ -6723,8 +6689,8 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>733</v>
+      <c r="B230" s="7">
+        <v>19</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>283</v>
@@ -6737,8 +6703,8 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>733</v>
+      <c r="B231" s="7">
+        <v>19</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>284</v>
@@ -6751,8 +6717,8 @@
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>733</v>
+      <c r="B232" s="7">
+        <v>19</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>285</v>
@@ -6765,8 +6731,8 @@
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>733</v>
+      <c r="B233" s="7">
+        <v>19</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>286</v>
@@ -6779,8 +6745,8 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>733</v>
+      <c r="B234" s="7">
+        <v>19</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>287</v>
@@ -6793,8 +6759,8 @@
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>733</v>
+      <c r="B235" s="7">
+        <v>19</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>288</v>
@@ -6807,8 +6773,8 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>734</v>
+      <c r="B236" s="7">
+        <v>20</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>26</v>
@@ -6821,8 +6787,8 @@
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>734</v>
+      <c r="B237" s="7">
+        <v>20</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>289</v>
@@ -6835,8 +6801,8 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>734</v>
+      <c r="B238" s="7">
+        <v>20</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>290</v>
@@ -6849,8 +6815,8 @@
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>734</v>
+      <c r="B239" s="7">
+        <v>20</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>291</v>
@@ -6863,8 +6829,8 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>734</v>
+      <c r="B240" s="7">
+        <v>20</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>292</v>
@@ -6877,8 +6843,8 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>734</v>
+      <c r="B241" s="7">
+        <v>20</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>293</v>
@@ -6891,8 +6857,8 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>734</v>
+      <c r="B242" s="7">
+        <v>20</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>294</v>
@@ -6905,8 +6871,8 @@
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>734</v>
+      <c r="B243" s="7">
+        <v>20</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>226</v>
@@ -6919,8 +6885,8 @@
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>734</v>
+      <c r="B244" s="7">
+        <v>20</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>295</v>
@@ -6933,8 +6899,8 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>734</v>
+      <c r="B245" s="7">
+        <v>20</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>296</v>
@@ -6947,8 +6913,8 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>734</v>
+      <c r="B246" s="7">
+        <v>20</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>250</v>
@@ -6961,8 +6927,8 @@
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>734</v>
+      <c r="B247" s="7">
+        <v>20</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>297</v>
@@ -6975,8 +6941,8 @@
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>734</v>
+      <c r="B248" s="7">
+        <v>20</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>298</v>
@@ -6989,8 +6955,8 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>734</v>
+      <c r="B249" s="7">
+        <v>20</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>299</v>
@@ -7003,8 +6969,8 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="2" t="s">
-        <v>734</v>
+      <c r="B250" s="7">
+        <v>20</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>300</v>
@@ -7017,8 +6983,8 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>734</v>
+      <c r="B251" s="7">
+        <v>20</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>301</v>
@@ -7031,8 +6997,8 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>734</v>
+      <c r="B252" s="7">
+        <v>20</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>302</v>
@@ -7045,8 +7011,8 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="2" t="s">
-        <v>734</v>
+      <c r="B253" s="7">
+        <v>20</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>303</v>
@@ -7059,8 +7025,8 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>734</v>
+      <c r="B254" s="7">
+        <v>20</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>304</v>
@@ -7073,8 +7039,8 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>734</v>
+      <c r="B255" s="7">
+        <v>20</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>305</v>
@@ -7087,8 +7053,8 @@
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>735</v>
+      <c r="B256" s="7">
+        <v>21</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>27</v>
@@ -7101,8 +7067,8 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>735</v>
+      <c r="B257" s="7">
+        <v>21</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>306</v>
@@ -7115,8 +7081,8 @@
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>735</v>
+      <c r="B258" s="7">
+        <v>21</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>307</v>
@@ -7129,8 +7095,8 @@
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>735</v>
+      <c r="B259" s="7">
+        <v>21</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>308</v>
@@ -7143,8 +7109,8 @@
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>735</v>
+      <c r="B260" s="7">
+        <v>21</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>309</v>
@@ -7157,8 +7123,8 @@
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>735</v>
+      <c r="B261" s="7">
+        <v>21</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>310</v>
@@ -7171,8 +7137,8 @@
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="2" t="s">
-        <v>735</v>
+      <c r="B262" s="7">
+        <v>21</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>311</v>
@@ -7185,8 +7151,8 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="2" t="s">
-        <v>735</v>
+      <c r="B263" s="7">
+        <v>21</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>312</v>
@@ -7199,8 +7165,8 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>735</v>
+      <c r="B264" s="7">
+        <v>21</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>255</v>
@@ -7213,8 +7179,8 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>735</v>
+      <c r="B265" s="7">
+        <v>21</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>313</v>
@@ -7227,8 +7193,8 @@
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>735</v>
+      <c r="B266" s="7">
+        <v>21</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>314</v>
@@ -7241,8 +7207,8 @@
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>735</v>
+      <c r="B267" s="7">
+        <v>21</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>315</v>
@@ -7255,8 +7221,8 @@
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>735</v>
+      <c r="B268" s="7">
+        <v>21</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>316</v>
@@ -7269,8 +7235,8 @@
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>735</v>
+      <c r="B269" s="7">
+        <v>21</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>317</v>
@@ -7283,8 +7249,8 @@
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>735</v>
+      <c r="B270" s="7">
+        <v>21</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>318</v>
@@ -7297,8 +7263,8 @@
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>736</v>
+      <c r="B271" s="7">
+        <v>22</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>319</v>
@@ -7311,8 +7277,8 @@
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>736</v>
+      <c r="B272" s="7">
+        <v>22</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>320</v>
@@ -7325,8 +7291,8 @@
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>736</v>
+      <c r="B273" s="7">
+        <v>22</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>321</v>
@@ -7339,8 +7305,8 @@
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>736</v>
+      <c r="B274" s="7">
+        <v>22</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>322</v>
@@ -7353,8 +7319,8 @@
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="2" t="s">
-        <v>736</v>
+      <c r="B275" s="7">
+        <v>22</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>323</v>
@@ -7367,8 +7333,8 @@
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>736</v>
+      <c r="B276" s="7">
+        <v>22</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>324</v>
@@ -7381,8 +7347,8 @@
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>736</v>
+      <c r="B277" s="7">
+        <v>22</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>325</v>
@@ -7395,8 +7361,8 @@
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>736</v>
+      <c r="B278" s="7">
+        <v>22</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>326</v>
@@ -7409,8 +7375,8 @@
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>737</v>
+      <c r="B279" s="7">
+        <v>23</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>327</v>
@@ -7423,8 +7389,8 @@
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" s="2" t="s">
-        <v>737</v>
+      <c r="B280" s="7">
+        <v>23</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>328</v>
@@ -7437,8 +7403,8 @@
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>737</v>
+      <c r="B281" s="7">
+        <v>23</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>329</v>
@@ -7451,8 +7417,8 @@
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" s="2" t="s">
-        <v>737</v>
+      <c r="B282" s="7">
+        <v>23</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>330</v>
@@ -7465,8 +7431,8 @@
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>737</v>
+      <c r="B283" s="7">
+        <v>23</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>331</v>
@@ -7479,8 +7445,8 @@
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>737</v>
+      <c r="B284" s="7">
+        <v>23</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>332</v>
@@ -7493,8 +7459,8 @@
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="2" t="s">
-        <v>737</v>
+      <c r="B285" s="7">
+        <v>23</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>333</v>
@@ -7507,8 +7473,8 @@
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>737</v>
+      <c r="B286" s="7">
+        <v>23</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>334</v>
@@ -7521,8 +7487,8 @@
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="2" t="s">
-        <v>737</v>
+      <c r="B287" s="7">
+        <v>23</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>335</v>
@@ -7535,8 +7501,8 @@
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" s="2" t="s">
-        <v>738</v>
+      <c r="B288" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>336</v>
@@ -7549,8 +7515,8 @@
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" s="2" t="s">
-        <v>738</v>
+      <c r="B289" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>337</v>
@@ -7563,8 +7529,8 @@
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>738</v>
+      <c r="B290" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>338</v>
@@ -7577,8 +7543,8 @@
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" s="2" t="s">
-        <v>738</v>
+      <c r="B291" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>339</v>
@@ -7591,8 +7557,8 @@
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>738</v>
+      <c r="B292" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>340</v>
@@ -7605,8 +7571,8 @@
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" s="2" t="s">
-        <v>738</v>
+      <c r="B293" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>341</v>
@@ -7619,8 +7585,8 @@
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>738</v>
+      <c r="B294" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>342</v>
@@ -7633,8 +7599,8 @@
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>738</v>
+      <c r="B295" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>343</v>
@@ -7647,8 +7613,8 @@
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>738</v>
+      <c r="B296" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>344</v>
@@ -7661,8 +7627,8 @@
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" s="2" t="s">
-        <v>738</v>
+      <c r="B297" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>345</v>
@@ -7675,8 +7641,8 @@
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" s="2" t="s">
-        <v>738</v>
+      <c r="B298" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>346</v>
@@ -7689,8 +7655,8 @@
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" s="2" t="s">
-        <v>738</v>
+      <c r="B299" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>347</v>
@@ -7703,8 +7669,8 @@
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" s="2" t="s">
-        <v>738</v>
+      <c r="B300" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>348</v>
@@ -7717,8 +7683,8 @@
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" s="2" t="s">
-        <v>738</v>
+      <c r="B301" s="7" t="s">
+        <v>727</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>40</v>
@@ -7731,8 +7697,8 @@
       <c r="A302">
         <v>301</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>739</v>
+      <c r="B302" s="7">
+        <v>25</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>31</v>
@@ -7745,8 +7711,8 @@
       <c r="A303">
         <v>302</v>
       </c>
-      <c r="B303" s="2" t="s">
-        <v>739</v>
+      <c r="B303" s="7">
+        <v>25</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>349</v>
@@ -7759,8 +7725,8 @@
       <c r="A304">
         <v>303</v>
       </c>
-      <c r="B304" s="2" t="s">
-        <v>739</v>
+      <c r="B304" s="7">
+        <v>25</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>350</v>
@@ -7773,8 +7739,8 @@
       <c r="A305">
         <v>304</v>
       </c>
-      <c r="B305" s="2" t="s">
-        <v>739</v>
+      <c r="B305" s="7">
+        <v>25</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>351</v>
@@ -7787,8 +7753,8 @@
       <c r="A306">
         <v>305</v>
       </c>
-      <c r="B306" s="2" t="s">
-        <v>739</v>
+      <c r="B306" s="7">
+        <v>25</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>352</v>
@@ -7801,8 +7767,8 @@
       <c r="A307">
         <v>306</v>
       </c>
-      <c r="B307" s="2" t="s">
-        <v>739</v>
+      <c r="B307" s="7">
+        <v>25</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>353</v>
@@ -7815,8 +7781,8 @@
       <c r="A308">
         <v>307</v>
       </c>
-      <c r="B308" s="2" t="s">
-        <v>739</v>
+      <c r="B308" s="7">
+        <v>25</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>354</v>
@@ -7829,8 +7795,8 @@
       <c r="A309">
         <v>308</v>
       </c>
-      <c r="B309" s="2" t="s">
-        <v>739</v>
+      <c r="B309" s="7">
+        <v>25</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>355</v>
@@ -7843,8 +7809,8 @@
       <c r="A310">
         <v>309</v>
       </c>
-      <c r="B310" s="2" t="s">
-        <v>739</v>
+      <c r="B310" s="7">
+        <v>25</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>356</v>
@@ -7857,8 +7823,8 @@
       <c r="A311">
         <v>310</v>
       </c>
-      <c r="B311" s="2" t="s">
-        <v>739</v>
+      <c r="B311" s="7">
+        <v>25</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>357</v>
@@ -7871,8 +7837,8 @@
       <c r="A312">
         <v>311</v>
       </c>
-      <c r="B312" s="2" t="s">
-        <v>740</v>
+      <c r="B312" s="7">
+        <v>26</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>358</v>
@@ -7885,8 +7851,8 @@
       <c r="A313">
         <v>312</v>
       </c>
-      <c r="B313" s="2" t="s">
-        <v>740</v>
+      <c r="B313" s="7">
+        <v>26</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>359</v>
@@ -7899,8 +7865,8 @@
       <c r="A314">
         <v>313</v>
       </c>
-      <c r="B314" s="2" t="s">
-        <v>740</v>
+      <c r="B314" s="7">
+        <v>26</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>360</v>
@@ -7913,8 +7879,8 @@
       <c r="A315">
         <v>314</v>
       </c>
-      <c r="B315" s="2" t="s">
-        <v>740</v>
+      <c r="B315" s="7">
+        <v>26</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>361</v>
@@ -7927,8 +7893,8 @@
       <c r="A316">
         <v>315</v>
       </c>
-      <c r="B316" s="2" t="s">
-        <v>740</v>
+      <c r="B316" s="7">
+        <v>26</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>362</v>
@@ -7941,8 +7907,8 @@
       <c r="A317">
         <v>316</v>
       </c>
-      <c r="B317" s="2" t="s">
-        <v>740</v>
+      <c r="B317" s="7">
+        <v>26</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>363</v>
@@ -7955,8 +7921,8 @@
       <c r="A318">
         <v>317</v>
       </c>
-      <c r="B318" s="2" t="s">
-        <v>740</v>
+      <c r="B318" s="7">
+        <v>26</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>364</v>
@@ -7969,8 +7935,8 @@
       <c r="A319">
         <v>318</v>
       </c>
-      <c r="B319" s="2" t="s">
-        <v>740</v>
+      <c r="B319" s="7">
+        <v>26</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>365</v>
@@ -7983,8 +7949,8 @@
       <c r="A320">
         <v>319</v>
       </c>
-      <c r="B320" s="2" t="s">
-        <v>740</v>
+      <c r="B320" s="7">
+        <v>26</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>366</v>
@@ -7997,8 +7963,8 @@
       <c r="A321">
         <v>320</v>
       </c>
-      <c r="B321" s="2" t="s">
-        <v>741</v>
+      <c r="B321" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>134</v>
@@ -8011,8 +7977,8 @@
       <c r="A322">
         <v>321</v>
       </c>
-      <c r="B322" s="2" t="s">
-        <v>741</v>
+      <c r="B322" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>367</v>
@@ -8025,8 +7991,8 @@
       <c r="A323">
         <v>322</v>
       </c>
-      <c r="B323" s="2" t="s">
-        <v>741</v>
+      <c r="B323" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>324</v>
@@ -8039,8 +8005,8 @@
       <c r="A324">
         <v>323</v>
       </c>
-      <c r="B324" s="2" t="s">
-        <v>741</v>
+      <c r="B324" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>79</v>
@@ -8053,8 +8019,8 @@
       <c r="A325">
         <v>324</v>
       </c>
-      <c r="B325" s="2" t="s">
-        <v>741</v>
+      <c r="B325" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>368</v>
@@ -8067,8 +8033,8 @@
       <c r="A326">
         <v>325</v>
       </c>
-      <c r="B326" s="2" t="s">
-        <v>741</v>
+      <c r="B326" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>77</v>
@@ -8081,8 +8047,8 @@
       <c r="A327">
         <v>326</v>
       </c>
-      <c r="B327" s="2" t="s">
-        <v>741</v>
+      <c r="B327" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>369</v>
@@ -8095,8 +8061,8 @@
       <c r="A328">
         <v>327</v>
       </c>
-      <c r="B328" s="2" t="s">
-        <v>741</v>
+      <c r="B328" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>370</v>
@@ -8109,8 +8075,8 @@
       <c r="A329">
         <v>328</v>
       </c>
-      <c r="B329" s="2" t="s">
-        <v>741</v>
+      <c r="B329" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>371</v>
@@ -8123,8 +8089,8 @@
       <c r="A330">
         <v>329</v>
       </c>
-      <c r="B330" s="2" t="s">
-        <v>741</v>
+      <c r="B330" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>372</v>
@@ -8137,8 +8103,8 @@
       <c r="A331">
         <v>330</v>
       </c>
-      <c r="B331" s="2" t="s">
-        <v>741</v>
+      <c r="B331" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>373</v>
@@ -8151,8 +8117,8 @@
       <c r="A332">
         <v>331</v>
       </c>
-      <c r="B332" s="2" t="s">
-        <v>741</v>
+      <c r="B332" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>374</v>
@@ -8165,8 +8131,8 @@
       <c r="A333">
         <v>332</v>
       </c>
-      <c r="B333" s="2" t="s">
-        <v>741</v>
+      <c r="B333" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>375</v>
@@ -8179,8 +8145,8 @@
       <c r="A334">
         <v>333</v>
       </c>
-      <c r="B334" s="2" t="s">
-        <v>741</v>
+      <c r="B334" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>376</v>
@@ -8193,8 +8159,8 @@
       <c r="A335">
         <v>334</v>
       </c>
-      <c r="B335" s="2" t="s">
-        <v>741</v>
+      <c r="B335" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>377</v>
@@ -8207,8 +8173,8 @@
       <c r="A336">
         <v>335</v>
       </c>
-      <c r="B336" s="2" t="s">
-        <v>741</v>
+      <c r="B336" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>378</v>
@@ -8221,8 +8187,8 @@
       <c r="A337">
         <v>336</v>
       </c>
-      <c r="B337" s="2" t="s">
-        <v>741</v>
+      <c r="B337" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>379</v>
@@ -8235,8 +8201,8 @@
       <c r="A338">
         <v>337</v>
       </c>
-      <c r="B338" s="2" t="s">
-        <v>741</v>
+      <c r="B338" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>380</v>
@@ -8249,8 +8215,8 @@
       <c r="A339">
         <v>338</v>
       </c>
-      <c r="B339" s="2" t="s">
-        <v>741</v>
+      <c r="B339" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>235</v>
@@ -8263,8 +8229,8 @@
       <c r="A340">
         <v>339</v>
       </c>
-      <c r="B340" s="2" t="s">
-        <v>741</v>
+      <c r="B340" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>381</v>
@@ -8277,8 +8243,8 @@
       <c r="A341">
         <v>340</v>
       </c>
-      <c r="B341" s="2" t="s">
-        <v>741</v>
+      <c r="B341" s="7" t="s">
+        <v>728</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>382</v>
@@ -8291,8 +8257,8 @@
       <c r="A342">
         <v>341</v>
       </c>
-      <c r="B342" s="2" t="s">
-        <v>742</v>
+      <c r="B342" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>383</v>
@@ -8305,8 +8271,8 @@
       <c r="A343">
         <v>342</v>
       </c>
-      <c r="B343" s="2" t="s">
-        <v>742</v>
+      <c r="B343" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>183</v>
@@ -8319,8 +8285,8 @@
       <c r="A344">
         <v>343</v>
       </c>
-      <c r="B344" s="2" t="s">
-        <v>742</v>
+      <c r="B344" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>384</v>
@@ -8333,8 +8299,8 @@
       <c r="A345">
         <v>344</v>
       </c>
-      <c r="B345" s="2" t="s">
-        <v>742</v>
+      <c r="B345" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>385</v>
@@ -8347,8 +8313,8 @@
       <c r="A346">
         <v>345</v>
       </c>
-      <c r="B346" s="2" t="s">
-        <v>742</v>
+      <c r="B346" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>90</v>
@@ -8361,8 +8327,8 @@
       <c r="A347">
         <v>346</v>
       </c>
-      <c r="B347" s="2" t="s">
-        <v>742</v>
+      <c r="B347" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>79</v>
@@ -8375,8 +8341,8 @@
       <c r="A348">
         <v>347</v>
       </c>
-      <c r="B348" s="2" t="s">
-        <v>742</v>
+      <c r="B348" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>386</v>
@@ -8389,8 +8355,8 @@
       <c r="A349">
         <v>348</v>
       </c>
-      <c r="B349" s="2" t="s">
-        <v>742</v>
+      <c r="B349" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>387</v>
@@ -8403,8 +8369,8 @@
       <c r="A350">
         <v>349</v>
       </c>
-      <c r="B350" s="2" t="s">
-        <v>742</v>
+      <c r="B350" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>388</v>
@@ -8417,8 +8383,8 @@
       <c r="A351">
         <v>350</v>
       </c>
-      <c r="B351" s="2" t="s">
-        <v>742</v>
+      <c r="B351" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>389</v>
@@ -8431,8 +8397,8 @@
       <c r="A352">
         <v>351</v>
       </c>
-      <c r="B352" s="2" t="s">
-        <v>742</v>
+      <c r="B352" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>390</v>
@@ -8445,8 +8411,8 @@
       <c r="A353">
         <v>352</v>
       </c>
-      <c r="B353" s="2" t="s">
-        <v>742</v>
+      <c r="B353" s="7" t="s">
+        <v>729</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>391</v>
@@ -8459,8 +8425,8 @@
       <c r="A354">
         <v>353</v>
       </c>
-      <c r="B354" s="2" t="s">
-        <v>743</v>
+      <c r="B354" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>392</v>
@@ -8473,8 +8439,8 @@
       <c r="A355">
         <v>354</v>
       </c>
-      <c r="B355" s="2" t="s">
-        <v>743</v>
+      <c r="B355" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>35</v>
@@ -8487,8 +8453,8 @@
       <c r="A356">
         <v>355</v>
       </c>
-      <c r="B356" s="2" t="s">
-        <v>743</v>
+      <c r="B356" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>393</v>
@@ -8501,8 +8467,8 @@
       <c r="A357">
         <v>356</v>
       </c>
-      <c r="B357" s="2" t="s">
-        <v>743</v>
+      <c r="B357" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>394</v>
@@ -8515,8 +8481,8 @@
       <c r="A358">
         <v>357</v>
       </c>
-      <c r="B358" s="2" t="s">
-        <v>743</v>
+      <c r="B358" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>395</v>
@@ -8529,8 +8495,8 @@
       <c r="A359">
         <v>358</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>743</v>
+      <c r="B359" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>396</v>
@@ -8543,8 +8509,8 @@
       <c r="A360">
         <v>359</v>
       </c>
-      <c r="B360" s="2" t="s">
-        <v>743</v>
+      <c r="B360" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>397</v>
@@ -8557,8 +8523,8 @@
       <c r="A361">
         <v>360</v>
       </c>
-      <c r="B361" s="2" t="s">
-        <v>743</v>
+      <c r="B361" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>398</v>
@@ -8571,8 +8537,8 @@
       <c r="A362">
         <v>361</v>
       </c>
-      <c r="B362" s="2" t="s">
-        <v>743</v>
+      <c r="B362" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>399</v>
@@ -8585,8 +8551,8 @@
       <c r="A363">
         <v>362</v>
       </c>
-      <c r="B363" s="2" t="s">
-        <v>743</v>
+      <c r="B363" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>400</v>
@@ -8599,8 +8565,8 @@
       <c r="A364">
         <v>363</v>
       </c>
-      <c r="B364" s="2" t="s">
-        <v>743</v>
+      <c r="B364" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>401</v>
@@ -8613,8 +8579,8 @@
       <c r="A365">
         <v>364</v>
       </c>
-      <c r="B365" s="2" t="s">
-        <v>743</v>
+      <c r="B365" s="7" t="s">
+        <v>730</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>402</v>
@@ -8627,8 +8593,8 @@
       <c r="A366">
         <v>365</v>
       </c>
-      <c r="B366" s="2" t="s">
-        <v>744</v>
+      <c r="B366" s="7" t="s">
+        <v>731</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>36</v>
@@ -8641,8 +8607,8 @@
       <c r="A367">
         <v>366</v>
       </c>
-      <c r="B367" s="2" t="s">
-        <v>744</v>
+      <c r="B367" s="7" t="s">
+        <v>731</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>403</v>
@@ -8655,8 +8621,8 @@
       <c r="A368">
         <v>367</v>
       </c>
-      <c r="B368" s="2" t="s">
-        <v>744</v>
+      <c r="B368" s="7" t="s">
+        <v>731</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>404</v>
@@ -8669,8 +8635,8 @@
       <c r="A369">
         <v>368</v>
       </c>
-      <c r="B369" s="2" t="s">
-        <v>744</v>
+      <c r="B369" s="7" t="s">
+        <v>731</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>405</v>
@@ -8683,8 +8649,8 @@
       <c r="A370">
         <v>369</v>
       </c>
-      <c r="B370" s="2" t="s">
-        <v>744</v>
+      <c r="B370" s="7" t="s">
+        <v>731</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>406</v>
@@ -8697,8 +8663,8 @@
       <c r="A371">
         <v>370</v>
       </c>
-      <c r="B371" s="2" t="s">
-        <v>744</v>
+      <c r="B371" s="7" t="s">
+        <v>731</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>407</v>
@@ -8711,8 +8677,8 @@
       <c r="A372">
         <v>371</v>
       </c>
-      <c r="B372" s="2" t="s">
-        <v>744</v>
+      <c r="B372" s="7" t="s">
+        <v>731</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>408</v>
@@ -8725,8 +8691,8 @@
       <c r="A373">
         <v>372</v>
       </c>
-      <c r="B373" s="2" t="s">
-        <v>744</v>
+      <c r="B373" s="7" t="s">
+        <v>731</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>409</v>
@@ -8739,8 +8705,8 @@
       <c r="A374">
         <v>373</v>
       </c>
-      <c r="B374" s="2" t="s">
-        <v>744</v>
+      <c r="B374" s="7" t="s">
+        <v>731</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>410</v>
@@ -8753,8 +8719,8 @@
       <c r="A375">
         <v>374</v>
       </c>
-      <c r="B375" s="2" t="s">
-        <v>744</v>
+      <c r="B375" s="7" t="s">
+        <v>731</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>411</v>
@@ -8767,8 +8733,8 @@
       <c r="A376">
         <v>375</v>
       </c>
-      <c r="B376" s="2" t="s">
-        <v>745</v>
+      <c r="B376" s="7" t="s">
+        <v>732</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>412</v>
@@ -8781,8 +8747,8 @@
       <c r="A377">
         <v>376</v>
       </c>
-      <c r="B377" s="2" t="s">
-        <v>745</v>
+      <c r="B377" s="7" t="s">
+        <v>732</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>413</v>
@@ -8795,8 +8761,8 @@
       <c r="A378">
         <v>377</v>
       </c>
-      <c r="B378" s="2" t="s">
-        <v>745</v>
+      <c r="B378" s="7" t="s">
+        <v>732</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>414</v>
@@ -8809,8 +8775,8 @@
       <c r="A379">
         <v>378</v>
       </c>
-      <c r="B379" s="2" t="s">
-        <v>745</v>
+      <c r="B379" s="7" t="s">
+        <v>732</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>367</v>
@@ -8823,8 +8789,8 @@
       <c r="A380">
         <v>379</v>
       </c>
-      <c r="B380" s="2" t="s">
-        <v>745</v>
+      <c r="B380" s="7" t="s">
+        <v>732</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>415</v>
@@ -8837,8 +8803,8 @@
       <c r="A381">
         <v>380</v>
       </c>
-      <c r="B381" s="2" t="s">
-        <v>745</v>
+      <c r="B381" s="7" t="s">
+        <v>732</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>416</v>
@@ -8851,8 +8817,8 @@
       <c r="A382">
         <v>381</v>
       </c>
-      <c r="B382" s="2" t="s">
-        <v>745</v>
+      <c r="B382" s="7" t="s">
+        <v>732</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>417</v>
@@ -8865,8 +8831,8 @@
       <c r="A383">
         <v>382</v>
       </c>
-      <c r="B383" s="2" t="s">
-        <v>746</v>
+      <c r="B383" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>418</v>
@@ -8879,8 +8845,8 @@
       <c r="A384">
         <v>383</v>
       </c>
-      <c r="B384" s="2" t="s">
-        <v>746</v>
+      <c r="B384" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>419</v>
@@ -8893,8 +8859,8 @@
       <c r="A385">
         <v>384</v>
       </c>
-      <c r="B385" s="2" t="s">
-        <v>746</v>
+      <c r="B385" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>420</v>
@@ -8907,8 +8873,8 @@
       <c r="A386">
         <v>385</v>
       </c>
-      <c r="B386" s="2" t="s">
-        <v>746</v>
+      <c r="B386" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>421</v>
@@ -8921,8 +8887,8 @@
       <c r="A387">
         <v>386</v>
       </c>
-      <c r="B387" s="2" t="s">
-        <v>746</v>
+      <c r="B387" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>422</v>
@@ -8935,8 +8901,8 @@
       <c r="A388">
         <v>387</v>
       </c>
-      <c r="B388" s="2" t="s">
-        <v>746</v>
+      <c r="B388" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>423</v>
@@ -8949,8 +8915,8 @@
       <c r="A389">
         <v>388</v>
       </c>
-      <c r="B389" s="2" t="s">
-        <v>746</v>
+      <c r="B389" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>424</v>
@@ -8963,8 +8929,8 @@
       <c r="A390">
         <v>389</v>
       </c>
-      <c r="B390" s="2" t="s">
-        <v>746</v>
+      <c r="B390" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>425</v>
@@ -8977,8 +8943,8 @@
       <c r="A391">
         <v>390</v>
       </c>
-      <c r="B391" s="2" t="s">
-        <v>746</v>
+      <c r="B391" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>426</v>
@@ -8991,8 +8957,8 @@
       <c r="A392">
         <v>391</v>
       </c>
-      <c r="B392" s="2" t="s">
-        <v>746</v>
+      <c r="B392" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>427</v>
@@ -9005,8 +8971,8 @@
       <c r="A393">
         <v>392</v>
       </c>
-      <c r="B393" s="2" t="s">
-        <v>746</v>
+      <c r="B393" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>428</v>
@@ -9019,8 +8985,8 @@
       <c r="A394">
         <v>393</v>
       </c>
-      <c r="B394" s="2" t="s">
-        <v>746</v>
+      <c r="B394" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>429</v>
@@ -9033,8 +8999,8 @@
       <c r="A395">
         <v>394</v>
       </c>
-      <c r="B395" s="2" t="s">
-        <v>746</v>
+      <c r="B395" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>38</v>
@@ -9047,8 +9013,8 @@
       <c r="A396">
         <v>395</v>
       </c>
-      <c r="B396" s="2" t="s">
-        <v>746</v>
+      <c r="B396" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>430</v>
@@ -9061,8 +9027,8 @@
       <c r="A397">
         <v>396</v>
       </c>
-      <c r="B397" s="2" t="s">
-        <v>746</v>
+      <c r="B397" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>431</v>
@@ -9075,8 +9041,8 @@
       <c r="A398">
         <v>397</v>
       </c>
-      <c r="B398" s="2" t="s">
-        <v>746</v>
+      <c r="B398" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>432</v>
@@ -9089,8 +9055,8 @@
       <c r="A399">
         <v>398</v>
       </c>
-      <c r="B399" s="2" t="s">
-        <v>746</v>
+      <c r="B399" s="7" t="s">
+        <v>733</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>433</v>
@@ -9103,8 +9069,8 @@
       <c r="A400">
         <v>399</v>
       </c>
-      <c r="B400" s="2" t="s">
-        <v>747</v>
+      <c r="B400" s="7" t="s">
+        <v>734</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>434</v>
@@ -9117,8 +9083,8 @@
       <c r="A401">
         <v>400</v>
       </c>
-      <c r="B401" s="2" t="s">
-        <v>747</v>
+      <c r="B401" s="7" t="s">
+        <v>734</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>435</v>
@@ -9131,8 +9097,8 @@
       <c r="A402">
         <v>401</v>
       </c>
-      <c r="B402" s="2" t="s">
-        <v>747</v>
+      <c r="B402" s="7" t="s">
+        <v>734</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>436</v>
@@ -9145,8 +9111,8 @@
       <c r="A403">
         <v>402</v>
       </c>
-      <c r="B403" s="2" t="s">
-        <v>747</v>
+      <c r="B403" s="7" t="s">
+        <v>734</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>437</v>
@@ -9159,8 +9125,8 @@
       <c r="A404">
         <v>403</v>
       </c>
-      <c r="B404" s="2" t="s">
-        <v>747</v>
+      <c r="B404" s="7" t="s">
+        <v>734</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>438</v>
@@ -9173,8 +9139,8 @@
       <c r="A405">
         <v>404</v>
       </c>
-      <c r="B405" s="2" t="s">
-        <v>747</v>
+      <c r="B405" s="7" t="s">
+        <v>734</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>134</v>
@@ -9187,8 +9153,8 @@
       <c r="A406">
         <v>405</v>
       </c>
-      <c r="B406" s="2" t="s">
-        <v>747</v>
+      <c r="B406" s="7" t="s">
+        <v>734</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>439</v>
@@ -9201,8 +9167,8 @@
       <c r="A407">
         <v>406</v>
       </c>
-      <c r="B407" s="2" t="s">
-        <v>748</v>
+      <c r="B407" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>40</v>
@@ -9215,8 +9181,8 @@
       <c r="A408">
         <v>407</v>
       </c>
-      <c r="B408" s="2" t="s">
-        <v>748</v>
+      <c r="B408" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>440</v>
@@ -9229,8 +9195,8 @@
       <c r="A409">
         <v>408</v>
       </c>
-      <c r="B409" s="2" t="s">
-        <v>748</v>
+      <c r="B409" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>441</v>
@@ -9243,8 +9209,8 @@
       <c r="A410">
         <v>409</v>
       </c>
-      <c r="B410" s="2" t="s">
-        <v>748</v>
+      <c r="B410" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>374</v>
@@ -9257,8 +9223,8 @@
       <c r="A411">
         <v>410</v>
       </c>
-      <c r="B411" s="2" t="s">
-        <v>748</v>
+      <c r="B411" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>442</v>
@@ -9271,8 +9237,8 @@
       <c r="A412">
         <v>411</v>
       </c>
-      <c r="B412" s="2" t="s">
-        <v>748</v>
+      <c r="B412" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>443</v>
@@ -9285,8 +9251,8 @@
       <c r="A413">
         <v>412</v>
       </c>
-      <c r="B413" s="2" t="s">
-        <v>748</v>
+      <c r="B413" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>444</v>
@@ -9299,8 +9265,8 @@
       <c r="A414">
         <v>413</v>
       </c>
-      <c r="B414" s="2" t="s">
-        <v>748</v>
+      <c r="B414" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>445</v>
@@ -9313,8 +9279,8 @@
       <c r="A415">
         <v>414</v>
       </c>
-      <c r="B415" s="2" t="s">
-        <v>748</v>
+      <c r="B415" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>446</v>
@@ -9327,8 +9293,8 @@
       <c r="A416">
         <v>415</v>
       </c>
-      <c r="B416" s="2" t="s">
-        <v>748</v>
+      <c r="B416" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>447</v>
@@ -9341,8 +9307,8 @@
       <c r="A417">
         <v>416</v>
       </c>
-      <c r="B417" s="2" t="s">
-        <v>748</v>
+      <c r="B417" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>448</v>
@@ -9355,8 +9321,8 @@
       <c r="A418">
         <v>417</v>
       </c>
-      <c r="B418" s="2" t="s">
-        <v>748</v>
+      <c r="B418" s="7" t="s">
+        <v>735</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>449</v>
@@ -9369,8 +9335,8 @@
       <c r="A419">
         <v>418</v>
       </c>
-      <c r="B419" s="2" t="s">
-        <v>749</v>
+      <c r="B419" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>41</v>
@@ -9383,8 +9349,8 @@
       <c r="A420">
         <v>419</v>
       </c>
-      <c r="B420" s="2" t="s">
-        <v>749</v>
+      <c r="B420" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>450</v>
@@ -9397,8 +9363,8 @@
       <c r="A421">
         <v>420</v>
       </c>
-      <c r="B421" s="2" t="s">
-        <v>749</v>
+      <c r="B421" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>451</v>
@@ -9411,8 +9377,8 @@
       <c r="A422">
         <v>421</v>
       </c>
-      <c r="B422" s="2" t="s">
-        <v>749</v>
+      <c r="B422" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>452</v>
@@ -9425,8 +9391,8 @@
       <c r="A423">
         <v>422</v>
       </c>
-      <c r="B423" s="2" t="s">
-        <v>749</v>
+      <c r="B423" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>453</v>
@@ -9439,8 +9405,8 @@
       <c r="A424">
         <v>423</v>
       </c>
-      <c r="B424" s="2" t="s">
-        <v>749</v>
+      <c r="B424" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>454</v>
@@ -9453,8 +9419,8 @@
       <c r="A425">
         <v>424</v>
       </c>
-      <c r="B425" s="2" t="s">
-        <v>749</v>
+      <c r="B425" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>455</v>
@@ -9467,8 +9433,8 @@
       <c r="A426">
         <v>425</v>
       </c>
-      <c r="B426" s="2" t="s">
-        <v>749</v>
+      <c r="B426" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>456</v>
@@ -9481,8 +9447,8 @@
       <c r="A427">
         <v>426</v>
       </c>
-      <c r="B427" s="2" t="s">
-        <v>749</v>
+      <c r="B427" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>457</v>
@@ -9495,8 +9461,8 @@
       <c r="A428">
         <v>427</v>
       </c>
-      <c r="B428" s="2" t="s">
-        <v>749</v>
+      <c r="B428" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>458</v>
@@ -9509,8 +9475,8 @@
       <c r="A429">
         <v>428</v>
       </c>
-      <c r="B429" s="2" t="s">
-        <v>749</v>
+      <c r="B429" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>459</v>
@@ -9523,8 +9489,8 @@
       <c r="A430">
         <v>429</v>
       </c>
-      <c r="B430" s="2" t="s">
-        <v>749</v>
+      <c r="B430" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>460</v>
@@ -9537,8 +9503,8 @@
       <c r="A431">
         <v>430</v>
       </c>
-      <c r="B431" s="2" t="s">
-        <v>749</v>
+      <c r="B431" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>461</v>
@@ -9551,8 +9517,8 @@
       <c r="A432">
         <v>431</v>
       </c>
-      <c r="B432" s="2" t="s">
-        <v>749</v>
+      <c r="B432" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>462</v>
@@ -9565,8 +9531,8 @@
       <c r="A433">
         <v>432</v>
       </c>
-      <c r="B433" s="2" t="s">
-        <v>749</v>
+      <c r="B433" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>463</v>
@@ -9579,8 +9545,8 @@
       <c r="A434">
         <v>433</v>
       </c>
-      <c r="B434" s="2" t="s">
-        <v>749</v>
+      <c r="B434" s="7" t="s">
+        <v>736</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>464</v>
@@ -9593,8 +9559,8 @@
       <c r="A435">
         <v>434</v>
       </c>
-      <c r="B435" s="2" t="s">
-        <v>750</v>
+      <c r="B435" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>42</v>
@@ -9607,8 +9573,8 @@
       <c r="A436">
         <v>435</v>
       </c>
-      <c r="B436" s="2" t="s">
-        <v>750</v>
+      <c r="B436" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>465</v>
@@ -9621,8 +9587,8 @@
       <c r="A437">
         <v>436</v>
       </c>
-      <c r="B437" s="2" t="s">
-        <v>750</v>
+      <c r="B437" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>466</v>
@@ -9635,8 +9601,8 @@
       <c r="A438">
         <v>437</v>
       </c>
-      <c r="B438" s="2" t="s">
-        <v>750</v>
+      <c r="B438" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>467</v>
@@ -9649,8 +9615,8 @@
       <c r="A439">
         <v>438</v>
       </c>
-      <c r="B439" s="2" t="s">
-        <v>750</v>
+      <c r="B439" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>468</v>
@@ -9663,8 +9629,8 @@
       <c r="A440">
         <v>439</v>
       </c>
-      <c r="B440" s="2" t="s">
-        <v>750</v>
+      <c r="B440" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>469</v>
@@ -9677,8 +9643,8 @@
       <c r="A441">
         <v>440</v>
       </c>
-      <c r="B441" s="2" t="s">
-        <v>750</v>
+      <c r="B441" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>470</v>
@@ -9691,8 +9657,8 @@
       <c r="A442">
         <v>441</v>
       </c>
-      <c r="B442" s="2" t="s">
-        <v>750</v>
+      <c r="B442" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>471</v>
@@ -9705,8 +9671,8 @@
       <c r="A443">
         <v>442</v>
       </c>
-      <c r="B443" s="2" t="s">
-        <v>750</v>
+      <c r="B443" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>472</v>
@@ -9719,8 +9685,8 @@
       <c r="A444">
         <v>443</v>
       </c>
-      <c r="B444" s="2" t="s">
-        <v>750</v>
+      <c r="B444" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>473</v>
@@ -9733,8 +9699,8 @@
       <c r="A445">
         <v>444</v>
       </c>
-      <c r="B445" s="2" t="s">
-        <v>750</v>
+      <c r="B445" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>474</v>
@@ -9747,8 +9713,8 @@
       <c r="A446">
         <v>445</v>
       </c>
-      <c r="B446" s="2" t="s">
-        <v>750</v>
+      <c r="B446" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>475</v>
@@ -9761,8 +9727,8 @@
       <c r="A447">
         <v>446</v>
       </c>
-      <c r="B447" s="2" t="s">
-        <v>750</v>
+      <c r="B447" s="7" t="s">
+        <v>737</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>476</v>
@@ -9775,8 +9741,8 @@
       <c r="A448">
         <v>447</v>
       </c>
-      <c r="B448" s="2" t="s">
-        <v>751</v>
+      <c r="B448" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>477</v>
@@ -9789,8 +9755,8 @@
       <c r="A449">
         <v>448</v>
       </c>
-      <c r="B449" s="2" t="s">
-        <v>751</v>
+      <c r="B449" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>478</v>
@@ -9803,8 +9769,8 @@
       <c r="A450">
         <v>449</v>
       </c>
-      <c r="B450" s="2" t="s">
-        <v>751</v>
+      <c r="B450" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>479</v>
@@ -9817,8 +9783,8 @@
       <c r="A451">
         <v>450</v>
       </c>
-      <c r="B451" s="2" t="s">
-        <v>751</v>
+      <c r="B451" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>480</v>
@@ -9831,8 +9797,8 @@
       <c r="A452">
         <v>451</v>
       </c>
-      <c r="B452" s="2" t="s">
-        <v>751</v>
+      <c r="B452" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>481</v>
@@ -9845,8 +9811,8 @@
       <c r="A453">
         <v>452</v>
       </c>
-      <c r="B453" s="2" t="s">
-        <v>751</v>
+      <c r="B453" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>482</v>
@@ -9859,8 +9825,8 @@
       <c r="A454">
         <v>453</v>
       </c>
-      <c r="B454" s="2" t="s">
-        <v>751</v>
+      <c r="B454" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>483</v>
@@ -9873,8 +9839,8 @@
       <c r="A455">
         <v>454</v>
       </c>
-      <c r="B455" s="2" t="s">
-        <v>751</v>
+      <c r="B455" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>484</v>
@@ -9887,8 +9853,8 @@
       <c r="A456">
         <v>455</v>
       </c>
-      <c r="B456" s="2" t="s">
-        <v>751</v>
+      <c r="B456" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>485</v>
@@ -9901,8 +9867,8 @@
       <c r="A457">
         <v>456</v>
       </c>
-      <c r="B457" s="2" t="s">
-        <v>751</v>
+      <c r="B457" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>486</v>
@@ -9915,8 +9881,8 @@
       <c r="A458">
         <v>457</v>
       </c>
-      <c r="B458" s="2" t="s">
-        <v>751</v>
+      <c r="B458" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>487</v>
@@ -9929,8 +9895,8 @@
       <c r="A459">
         <v>458</v>
       </c>
-      <c r="B459" s="2" t="s">
-        <v>751</v>
+      <c r="B459" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>488</v>
@@ -9943,8 +9909,8 @@
       <c r="A460">
         <v>459</v>
       </c>
-      <c r="B460" s="2" t="s">
-        <v>751</v>
+      <c r="B460" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>489</v>
@@ -9957,8 +9923,8 @@
       <c r="A461">
         <v>460</v>
       </c>
-      <c r="B461" s="2" t="s">
-        <v>751</v>
+      <c r="B461" s="7" t="s">
+        <v>738</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>490</v>
@@ -9971,8 +9937,8 @@
       <c r="A462">
         <v>461</v>
       </c>
-      <c r="B462" s="2" t="s">
-        <v>752</v>
+      <c r="B462" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>491</v>
@@ -9985,8 +9951,8 @@
       <c r="A463">
         <v>462</v>
       </c>
-      <c r="B463" s="2" t="s">
-        <v>752</v>
+      <c r="B463" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>39</v>
@@ -9999,8 +9965,8 @@
       <c r="A464">
         <v>463</v>
       </c>
-      <c r="B464" s="2" t="s">
-        <v>752</v>
+      <c r="B464" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>492</v>
@@ -10013,8 +9979,8 @@
       <c r="A465">
         <v>464</v>
       </c>
-      <c r="B465" s="2" t="s">
-        <v>752</v>
+      <c r="B465" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>493</v>
@@ -10027,8 +9993,8 @@
       <c r="A466">
         <v>465</v>
       </c>
-      <c r="B466" s="2" t="s">
-        <v>752</v>
+      <c r="B466" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>494</v>
@@ -10041,8 +10007,8 @@
       <c r="A467">
         <v>466</v>
       </c>
-      <c r="B467" s="2" t="s">
-        <v>752</v>
+      <c r="B467" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>495</v>
@@ -10055,8 +10021,8 @@
       <c r="A468">
         <v>467</v>
       </c>
-      <c r="B468" s="2" t="s">
-        <v>752</v>
+      <c r="B468" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>496</v>
@@ -10069,8 +10035,8 @@
       <c r="A469">
         <v>468</v>
       </c>
-      <c r="B469" s="2" t="s">
-        <v>752</v>
+      <c r="B469" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>497</v>
@@ -10083,8 +10049,8 @@
       <c r="A470">
         <v>469</v>
       </c>
-      <c r="B470" s="2" t="s">
-        <v>752</v>
+      <c r="B470" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>498</v>
@@ -10097,8 +10063,8 @@
       <c r="A471">
         <v>470</v>
       </c>
-      <c r="B471" s="2" t="s">
-        <v>752</v>
+      <c r="B471" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>499</v>
@@ -10111,8 +10077,8 @@
       <c r="A472">
         <v>471</v>
       </c>
-      <c r="B472" s="2" t="s">
-        <v>752</v>
+      <c r="B472" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>500</v>
@@ -10125,8 +10091,8 @@
       <c r="A473">
         <v>472</v>
       </c>
-      <c r="B473" s="2" t="s">
-        <v>752</v>
+      <c r="B473" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>501</v>
@@ -10139,8 +10105,8 @@
       <c r="A474">
         <v>473</v>
       </c>
-      <c r="B474" s="2" t="s">
-        <v>752</v>
+      <c r="B474" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>372</v>
@@ -10153,8 +10119,8 @@
       <c r="A475">
         <v>474</v>
       </c>
-      <c r="B475" s="2" t="s">
-        <v>752</v>
+      <c r="B475" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>502</v>
@@ -10167,8 +10133,8 @@
       <c r="A476">
         <v>475</v>
       </c>
-      <c r="B476" s="2" t="s">
-        <v>752</v>
+      <c r="B476" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>503</v>
@@ -10181,8 +10147,8 @@
       <c r="A477">
         <v>476</v>
       </c>
-      <c r="B477" s="2" t="s">
-        <v>752</v>
+      <c r="B477" s="7" t="s">
+        <v>739</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>504</v>
@@ -10195,8 +10161,8 @@
       <c r="A478">
         <v>477</v>
       </c>
-      <c r="B478" s="2" t="s">
-        <v>753</v>
+      <c r="B478" s="7" t="s">
+        <v>740</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>505</v>
@@ -10209,8 +10175,8 @@
       <c r="A479">
         <v>478</v>
       </c>
-      <c r="B479" s="2" t="s">
-        <v>753</v>
+      <c r="B479" s="7" t="s">
+        <v>740</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>506</v>
@@ -10223,8 +10189,8 @@
       <c r="A480">
         <v>479</v>
       </c>
-      <c r="B480" s="2" t="s">
-        <v>753</v>
+      <c r="B480" s="7" t="s">
+        <v>740</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>507</v>
@@ -10237,8 +10203,8 @@
       <c r="A481">
         <v>480</v>
       </c>
-      <c r="B481" s="2" t="s">
-        <v>753</v>
+      <c r="B481" s="7" t="s">
+        <v>740</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>508</v>
@@ -10251,8 +10217,8 @@
       <c r="A482">
         <v>481</v>
       </c>
-      <c r="B482" s="2" t="s">
-        <v>753</v>
+      <c r="B482" s="7" t="s">
+        <v>740</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>509</v>
@@ -10265,8 +10231,8 @@
       <c r="A483">
         <v>482</v>
       </c>
-      <c r="B483" s="2" t="s">
-        <v>753</v>
+      <c r="B483" s="7" t="s">
+        <v>740</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>510</v>
@@ -10279,8 +10245,8 @@
       <c r="A484">
         <v>483</v>
       </c>
-      <c r="B484" s="2" t="s">
-        <v>753</v>
+      <c r="B484" s="7" t="s">
+        <v>740</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>511</v>
@@ -10293,8 +10259,8 @@
       <c r="A485">
         <v>484</v>
       </c>
-      <c r="B485" s="2" t="s">
-        <v>753</v>
+      <c r="B485" s="7" t="s">
+        <v>740</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>512</v>
@@ -10307,8 +10273,8 @@
       <c r="A486">
         <v>485</v>
       </c>
-      <c r="B486" s="2" t="s">
-        <v>754</v>
+      <c r="B486" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>513</v>
@@ -10321,8 +10287,8 @@
       <c r="A487">
         <v>486</v>
       </c>
-      <c r="B487" s="2" t="s">
-        <v>754</v>
+      <c r="B487" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>514</v>
@@ -10335,8 +10301,8 @@
       <c r="A488">
         <v>487</v>
       </c>
-      <c r="B488" s="2" t="s">
-        <v>754</v>
+      <c r="B488" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>515</v>
@@ -10349,8 +10315,8 @@
       <c r="A489">
         <v>488</v>
       </c>
-      <c r="B489" s="2" t="s">
-        <v>754</v>
+      <c r="B489" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>516</v>
@@ -10363,8 +10329,8 @@
       <c r="A490">
         <v>489</v>
       </c>
-      <c r="B490" s="2" t="s">
-        <v>754</v>
+      <c r="B490" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>517</v>
@@ -10377,8 +10343,8 @@
       <c r="A491">
         <v>490</v>
       </c>
-      <c r="B491" s="2" t="s">
-        <v>754</v>
+      <c r="B491" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>518</v>
@@ -10391,8 +10357,8 @@
       <c r="A492">
         <v>491</v>
       </c>
-      <c r="B492" s="2" t="s">
-        <v>754</v>
+      <c r="B492" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>519</v>
@@ -10405,8 +10371,8 @@
       <c r="A493">
         <v>492</v>
       </c>
-      <c r="B493" s="2" t="s">
-        <v>754</v>
+      <c r="B493" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>520</v>
@@ -10419,8 +10385,8 @@
       <c r="A494">
         <v>493</v>
       </c>
-      <c r="B494" s="2" t="s">
-        <v>754</v>
+      <c r="B494" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>52</v>
@@ -10433,8 +10399,8 @@
       <c r="A495">
         <v>494</v>
       </c>
-      <c r="B495" s="2" t="s">
-        <v>754</v>
+      <c r="B495" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>521</v>
@@ -10447,8 +10413,8 @@
       <c r="A496">
         <v>495</v>
       </c>
-      <c r="B496" s="2" t="s">
-        <v>754</v>
+      <c r="B496" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>522</v>
@@ -10461,8 +10427,8 @@
       <c r="A497">
         <v>496</v>
       </c>
-      <c r="B497" s="2" t="s">
-        <v>755</v>
+      <c r="B497" s="7" t="s">
+        <v>742</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>523</v>
@@ -10475,8 +10441,8 @@
       <c r="A498">
         <v>497</v>
       </c>
-      <c r="B498" s="2" t="s">
-        <v>755</v>
+      <c r="B498" s="7" t="s">
+        <v>742</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>524</v>
@@ -10489,8 +10455,8 @@
       <c r="A499">
         <v>498</v>
       </c>
-      <c r="B499" s="2" t="s">
-        <v>755</v>
+      <c r="B499" s="7" t="s">
+        <v>742</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>525</v>
@@ -10503,8 +10469,8 @@
       <c r="A500">
         <v>499</v>
       </c>
-      <c r="B500" s="2" t="s">
-        <v>755</v>
+      <c r="B500" s="7" t="s">
+        <v>742</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>526</v>
@@ -10517,8 +10483,8 @@
       <c r="A501">
         <v>500</v>
       </c>
-      <c r="B501" s="2" t="s">
-        <v>755</v>
+      <c r="B501" s="7" t="s">
+        <v>742</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>527</v>
@@ -10531,8 +10497,8 @@
       <c r="A502">
         <v>501</v>
       </c>
-      <c r="B502" s="2" t="s">
-        <v>755</v>
+      <c r="B502" s="7" t="s">
+        <v>742</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>528</v>
@@ -10545,8 +10511,8 @@
       <c r="A503">
         <v>502</v>
       </c>
-      <c r="B503" s="2" t="s">
-        <v>755</v>
+      <c r="B503" s="7" t="s">
+        <v>742</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>529</v>
@@ -10559,8 +10525,8 @@
       <c r="A504">
         <v>503</v>
       </c>
-      <c r="B504" s="2" t="s">
-        <v>755</v>
+      <c r="B504" s="7" t="s">
+        <v>742</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>530</v>
@@ -10573,8 +10539,8 @@
       <c r="A505">
         <v>504</v>
       </c>
-      <c r="B505" s="2" t="s">
-        <v>756</v>
+      <c r="B505" s="7" t="s">
+        <v>743</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>531</v>
@@ -10587,8 +10553,8 @@
       <c r="A506">
         <v>505</v>
       </c>
-      <c r="B506" s="2" t="s">
-        <v>756</v>
+      <c r="B506" s="7" t="s">
+        <v>743</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>532</v>
@@ -10601,8 +10567,8 @@
       <c r="A507">
         <v>506</v>
       </c>
-      <c r="B507" s="2" t="s">
-        <v>756</v>
+      <c r="B507" s="7" t="s">
+        <v>743</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>533</v>
@@ -10615,8 +10581,8 @@
       <c r="A508">
         <v>507</v>
       </c>
-      <c r="B508" s="2" t="s">
-        <v>756</v>
+      <c r="B508" s="7" t="s">
+        <v>743</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>534</v>
@@ -10629,8 +10595,8 @@
       <c r="A509">
         <v>508</v>
       </c>
-      <c r="B509" s="2" t="s">
-        <v>756</v>
+      <c r="B509" s="7" t="s">
+        <v>743</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>535</v>
@@ -10643,8 +10609,8 @@
       <c r="A510">
         <v>509</v>
       </c>
-      <c r="B510" s="2" t="s">
-        <v>756</v>
+      <c r="B510" s="7" t="s">
+        <v>743</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>536</v>
@@ -10657,8 +10623,8 @@
       <c r="A511">
         <v>510</v>
       </c>
-      <c r="B511" s="2" t="s">
-        <v>756</v>
+      <c r="B511" s="7" t="s">
+        <v>743</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>537</v>
@@ -10671,8 +10637,8 @@
       <c r="A512">
         <v>511</v>
       </c>
-      <c r="B512" s="2" t="s">
-        <v>756</v>
+      <c r="B512" s="7" t="s">
+        <v>743</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>538</v>
@@ -10685,8 +10651,8 @@
       <c r="A513">
         <v>512</v>
       </c>
-      <c r="B513" s="2" t="s">
-        <v>757</v>
+      <c r="B513" s="7" t="s">
+        <v>744</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>539</v>
@@ -10699,8 +10665,8 @@
       <c r="A514">
         <v>513</v>
       </c>
-      <c r="B514" s="2" t="s">
-        <v>757</v>
+      <c r="B514" s="7" t="s">
+        <v>744</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>540</v>
@@ -10713,8 +10679,8 @@
       <c r="A515">
         <v>514</v>
       </c>
-      <c r="B515" s="2" t="s">
-        <v>757</v>
+      <c r="B515" s="7" t="s">
+        <v>744</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>541</v>
@@ -10727,8 +10693,8 @@
       <c r="A516">
         <v>515</v>
       </c>
-      <c r="B516" s="2" t="s">
-        <v>757</v>
+      <c r="B516" s="7" t="s">
+        <v>744</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>542</v>
@@ -10741,8 +10707,8 @@
       <c r="A517">
         <v>516</v>
       </c>
-      <c r="B517" s="2" t="s">
-        <v>757</v>
+      <c r="B517" s="7" t="s">
+        <v>744</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>543</v>
@@ -10755,8 +10721,8 @@
       <c r="A518">
         <v>517</v>
       </c>
-      <c r="B518" s="2" t="s">
-        <v>757</v>
+      <c r="B518" s="7" t="s">
+        <v>744</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>544</v>
@@ -10769,8 +10735,8 @@
       <c r="A519">
         <v>518</v>
       </c>
-      <c r="B519" s="2" t="s">
-        <v>757</v>
+      <c r="B519" s="7" t="s">
+        <v>744</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>545</v>
@@ -10783,8 +10749,8 @@
       <c r="A520">
         <v>519</v>
       </c>
-      <c r="B520" s="2" t="s">
-        <v>758</v>
+      <c r="B520" s="7" t="s">
+        <v>745</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>546</v>
@@ -10797,8 +10763,8 @@
       <c r="A521">
         <v>520</v>
       </c>
-      <c r="B521" s="2" t="s">
-        <v>758</v>
+      <c r="B521" s="7" t="s">
+        <v>745</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>547</v>
@@ -10811,8 +10777,8 @@
       <c r="A522">
         <v>521</v>
       </c>
-      <c r="B522" s="2" t="s">
-        <v>758</v>
+      <c r="B522" s="7" t="s">
+        <v>745</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>548</v>
@@ -10825,8 +10791,8 @@
       <c r="A523">
         <v>522</v>
       </c>
-      <c r="B523" s="2" t="s">
-        <v>758</v>
+      <c r="B523" s="7" t="s">
+        <v>745</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>549</v>
@@ -10839,8 +10805,8 @@
       <c r="A524">
         <v>523</v>
       </c>
-      <c r="B524" s="2" t="s">
-        <v>758</v>
+      <c r="B524" s="7" t="s">
+        <v>745</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>550</v>
@@ -10853,8 +10819,8 @@
       <c r="A525">
         <v>524</v>
       </c>
-      <c r="B525" s="2" t="s">
-        <v>758</v>
+      <c r="B525" s="7" t="s">
+        <v>745</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>551</v>
@@ -10867,8 +10833,8 @@
       <c r="A526">
         <v>525</v>
       </c>
-      <c r="B526" s="2" t="s">
-        <v>758</v>
+      <c r="B526" s="7" t="s">
+        <v>745</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>552</v>
@@ -10881,8 +10847,8 @@
       <c r="A527">
         <v>526</v>
       </c>
-      <c r="B527" s="2" t="s">
-        <v>758</v>
+      <c r="B527" s="7" t="s">
+        <v>745</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>553</v>
@@ -10895,8 +10861,8 @@
       <c r="A528">
         <v>527</v>
       </c>
-      <c r="B528" s="2" t="s">
-        <v>759</v>
+      <c r="B528" s="7" t="s">
+        <v>746</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>51</v>
@@ -10909,8 +10875,8 @@
       <c r="A529">
         <v>528</v>
       </c>
-      <c r="B529" s="2" t="s">
-        <v>759</v>
+      <c r="B529" s="7" t="s">
+        <v>746</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>554</v>
@@ -10923,8 +10889,8 @@
       <c r="A530">
         <v>529</v>
       </c>
-      <c r="B530" s="2" t="s">
-        <v>759</v>
+      <c r="B530" s="7" t="s">
+        <v>746</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>555</v>
@@ -10937,8 +10903,8 @@
       <c r="A531">
         <v>530</v>
       </c>
-      <c r="B531" s="2" t="s">
-        <v>759</v>
+      <c r="B531" s="7" t="s">
+        <v>746</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>556</v>
@@ -10951,8 +10917,8 @@
       <c r="A532">
         <v>531</v>
       </c>
-      <c r="B532" s="2" t="s">
-        <v>759</v>
+      <c r="B532" s="7" t="s">
+        <v>746</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>557</v>
@@ -10965,8 +10931,8 @@
       <c r="A533">
         <v>532</v>
       </c>
-      <c r="B533" s="2" t="s">
-        <v>759</v>
+      <c r="B533" s="7" t="s">
+        <v>746</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>558</v>
@@ -10979,8 +10945,8 @@
       <c r="A534">
         <v>533</v>
       </c>
-      <c r="B534" s="2" t="s">
-        <v>759</v>
+      <c r="B534" s="7" t="s">
+        <v>746</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>559</v>
@@ -10993,8 +10959,8 @@
       <c r="A535">
         <v>534</v>
       </c>
-      <c r="B535" s="2" t="s">
-        <v>759</v>
+      <c r="B535" s="7" t="s">
+        <v>746</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>560</v>
@@ -11007,8 +10973,8 @@
       <c r="A536">
         <v>535</v>
       </c>
-      <c r="B536" s="2" t="s">
-        <v>759</v>
+      <c r="B536" s="7" t="s">
+        <v>746</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>561</v>
@@ -11021,8 +10987,8 @@
       <c r="A537">
         <v>536</v>
       </c>
-      <c r="B537" s="2" t="s">
-        <v>759</v>
+      <c r="B537" s="7" t="s">
+        <v>746</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>562</v>
@@ -11035,8 +11001,8 @@
       <c r="A538">
         <v>537</v>
       </c>
-      <c r="B538" s="2" t="s">
-        <v>760</v>
+      <c r="B538" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>563</v>
@@ -11049,8 +11015,8 @@
       <c r="A539">
         <v>538</v>
       </c>
-      <c r="B539" s="2" t="s">
-        <v>760</v>
+      <c r="B539" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>564</v>
@@ -11063,8 +11029,8 @@
       <c r="A540">
         <v>539</v>
       </c>
-      <c r="B540" s="2" t="s">
-        <v>760</v>
+      <c r="B540" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>565</v>
@@ -11077,8 +11043,8 @@
       <c r="A541">
         <v>540</v>
       </c>
-      <c r="B541" s="2" t="s">
-        <v>760</v>
+      <c r="B541" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>566</v>
@@ -11091,8 +11057,8 @@
       <c r="A542">
         <v>541</v>
       </c>
-      <c r="B542" s="2" t="s">
-        <v>760</v>
+      <c r="B542" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>567</v>
@@ -11105,8 +11071,8 @@
       <c r="A543">
         <v>542</v>
       </c>
-      <c r="B543" s="2" t="s">
-        <v>760</v>
+      <c r="B543" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>371</v>
@@ -11119,8 +11085,8 @@
       <c r="A544">
         <v>543</v>
       </c>
-      <c r="B544" s="2" t="s">
-        <v>760</v>
+      <c r="B544" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>568</v>
@@ -11133,8 +11099,8 @@
       <c r="A545">
         <v>544</v>
       </c>
-      <c r="B545" s="2" t="s">
-        <v>760</v>
+      <c r="B545" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>569</v>
@@ -11147,8 +11113,8 @@
       <c r="A546">
         <v>545</v>
       </c>
-      <c r="B546" s="2" t="s">
-        <v>760</v>
+      <c r="B546" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>570</v>
@@ -11161,8 +11127,8 @@
       <c r="A547">
         <v>546</v>
       </c>
-      <c r="B547" s="2" t="s">
-        <v>760</v>
+      <c r="B547" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>571</v>
@@ -11175,8 +11141,8 @@
       <c r="A548">
         <v>547</v>
       </c>
-      <c r="B548" s="2" t="s">
-        <v>760</v>
+      <c r="B548" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>419</v>
@@ -11189,8 +11155,8 @@
       <c r="A549">
         <v>548</v>
       </c>
-      <c r="B549" s="2" t="s">
-        <v>760</v>
+      <c r="B549" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>572</v>
@@ -11203,8 +11169,8 @@
       <c r="A550">
         <v>549</v>
       </c>
-      <c r="B550" s="2" t="s">
-        <v>761</v>
+      <c r="B550" s="7" t="s">
+        <v>748</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>573</v>
@@ -11217,8 +11183,8 @@
       <c r="A551">
         <v>550</v>
       </c>
-      <c r="B551" s="2" t="s">
-        <v>761</v>
+      <c r="B551" s="7" t="s">
+        <v>748</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>574</v>
@@ -11231,8 +11197,8 @@
       <c r="A552">
         <v>551</v>
       </c>
-      <c r="B552" s="2" t="s">
-        <v>761</v>
+      <c r="B552" s="7" t="s">
+        <v>748</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>575</v>
@@ -11245,8 +11211,8 @@
       <c r="A553">
         <v>552</v>
       </c>
-      <c r="B553" s="2" t="s">
-        <v>761</v>
+      <c r="B553" s="7" t="s">
+        <v>748</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>576</v>
@@ -11259,8 +11225,8 @@
       <c r="A554">
         <v>553</v>
       </c>
-      <c r="B554" s="2" t="s">
-        <v>761</v>
+      <c r="B554" s="7" t="s">
+        <v>748</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>577</v>
@@ -11273,8 +11239,8 @@
       <c r="A555">
         <v>554</v>
       </c>
-      <c r="B555" s="2" t="s">
-        <v>761</v>
+      <c r="B555" s="7" t="s">
+        <v>748</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>578</v>
@@ -11287,8 +11253,8 @@
       <c r="A556">
         <v>555</v>
       </c>
-      <c r="B556" s="2" t="s">
-        <v>761</v>
+      <c r="B556" s="7" t="s">
+        <v>748</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>579</v>
@@ -11301,8 +11267,8 @@
       <c r="A557">
         <v>556</v>
       </c>
-      <c r="B557" s="2" t="s">
-        <v>761</v>
+      <c r="B557" s="7" t="s">
+        <v>748</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>580</v>
@@ -11315,8 +11281,8 @@
       <c r="A558">
         <v>557</v>
       </c>
-      <c r="B558" s="2" t="s">
-        <v>761</v>
+      <c r="B558" s="7" t="s">
+        <v>748</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>581</v>
@@ -11329,8 +11295,8 @@
       <c r="A559">
         <v>558</v>
       </c>
-      <c r="B559" s="2" t="s">
-        <v>762</v>
+      <c r="B559" s="7" t="s">
+        <v>749</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>582</v>
@@ -11343,8 +11309,8 @@
       <c r="A560">
         <v>559</v>
       </c>
-      <c r="B560" s="2" t="s">
-        <v>762</v>
+      <c r="B560" s="7" t="s">
+        <v>749</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>583</v>
@@ -11357,8 +11323,8 @@
       <c r="A561">
         <v>560</v>
       </c>
-      <c r="B561" s="2" t="s">
-        <v>762</v>
+      <c r="B561" s="7" t="s">
+        <v>749</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>584</v>
@@ -11371,8 +11337,8 @@
       <c r="A562">
         <v>561</v>
       </c>
-      <c r="B562" s="2" t="s">
-        <v>762</v>
+      <c r="B562" s="7" t="s">
+        <v>749</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>585</v>
@@ -11385,8 +11351,8 @@
       <c r="A563">
         <v>562</v>
       </c>
-      <c r="B563" s="2" t="s">
-        <v>762</v>
+      <c r="B563" s="7" t="s">
+        <v>749</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>586</v>
@@ -11399,8 +11365,8 @@
       <c r="A564">
         <v>563</v>
       </c>
-      <c r="B564" s="2" t="s">
-        <v>762</v>
+      <c r="B564" s="7" t="s">
+        <v>749</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>587</v>
@@ -11413,8 +11379,8 @@
       <c r="A565">
         <v>564</v>
       </c>
-      <c r="B565" s="2" t="s">
-        <v>762</v>
+      <c r="B565" s="7" t="s">
+        <v>749</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>588</v>
@@ -11427,8 +11393,8 @@
       <c r="A566">
         <v>565</v>
       </c>
-      <c r="B566" s="2" t="s">
-        <v>762</v>
+      <c r="B566" s="7" t="s">
+        <v>749</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>589</v>
@@ -11441,8 +11407,8 @@
       <c r="A567">
         <v>566</v>
       </c>
-      <c r="B567" s="2" t="s">
-        <v>762</v>
+      <c r="B567" s="7" t="s">
+        <v>749</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>590</v>
@@ -11455,8 +11421,8 @@
       <c r="A568">
         <v>567</v>
       </c>
-      <c r="B568" s="2" t="s">
-        <v>762</v>
+      <c r="B568" s="7" t="s">
+        <v>749</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>591</v>
@@ -11469,8 +11435,8 @@
       <c r="A569">
         <v>568</v>
       </c>
-      <c r="B569" s="2" t="s">
-        <v>762</v>
+      <c r="B569" s="7" t="s">
+        <v>749</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>592</v>
@@ -11483,8 +11449,8 @@
       <c r="A570">
         <v>569</v>
       </c>
-      <c r="B570" s="2" t="s">
-        <v>763</v>
+      <c r="B570" s="7" t="s">
+        <v>750</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>593</v>
@@ -11497,8 +11463,8 @@
       <c r="A571">
         <v>570</v>
       </c>
-      <c r="B571" s="2" t="s">
-        <v>763</v>
+      <c r="B571" s="7" t="s">
+        <v>750</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>594</v>
@@ -11511,8 +11477,8 @@
       <c r="A572">
         <v>571</v>
       </c>
-      <c r="B572" s="2" t="s">
-        <v>763</v>
+      <c r="B572" s="7" t="s">
+        <v>750</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>595</v>
@@ -11525,8 +11491,8 @@
       <c r="A573">
         <v>572</v>
       </c>
-      <c r="B573" s="2" t="s">
-        <v>763</v>
+      <c r="B573" s="7" t="s">
+        <v>750</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>596</v>
@@ -11539,8 +11505,8 @@
       <c r="A574">
         <v>573</v>
       </c>
-      <c r="B574" s="2" t="s">
-        <v>763</v>
+      <c r="B574" s="7" t="s">
+        <v>750</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>597</v>
@@ -11553,8 +11519,8 @@
       <c r="A575">
         <v>574</v>
       </c>
-      <c r="B575" s="2" t="s">
-        <v>763</v>
+      <c r="B575" s="7" t="s">
+        <v>750</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>598</v>
@@ -11567,8 +11533,8 @@
       <c r="A576">
         <v>575</v>
       </c>
-      <c r="B576" s="2" t="s">
-        <v>764</v>
+      <c r="B576" s="7" t="s">
+        <v>751</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>599</v>
@@ -11581,8 +11547,8 @@
       <c r="A577">
         <v>576</v>
       </c>
-      <c r="B577" s="2" t="s">
-        <v>764</v>
+      <c r="B577" s="7" t="s">
+        <v>751</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>600</v>
@@ -11595,8 +11561,8 @@
       <c r="A578">
         <v>577</v>
       </c>
-      <c r="B578" s="2" t="s">
-        <v>764</v>
+      <c r="B578" s="7" t="s">
+        <v>751</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>601</v>
@@ -11609,8 +11575,8 @@
       <c r="A579">
         <v>578</v>
       </c>
-      <c r="B579" s="2" t="s">
-        <v>764</v>
+      <c r="B579" s="7" t="s">
+        <v>751</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>602</v>
@@ -11623,8 +11589,8 @@
       <c r="A580">
         <v>579</v>
       </c>
-      <c r="B580" s="2" t="s">
-        <v>765</v>
+      <c r="B580" s="7" t="s">
+        <v>752</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>603</v>
@@ -11637,8 +11603,8 @@
       <c r="A581">
         <v>580</v>
       </c>
-      <c r="B581" s="2" t="s">
-        <v>765</v>
+      <c r="B581" s="7" t="s">
+        <v>752</v>
       </c>
       <c r="C581" s="2" t="s">
         <v>604</v>
@@ -11651,8 +11617,8 @@
       <c r="A582">
         <v>581</v>
       </c>
-      <c r="B582" s="2" t="s">
-        <v>765</v>
+      <c r="B582" s="7" t="s">
+        <v>752</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>605</v>
@@ -11665,8 +11631,8 @@
       <c r="A583">
         <v>582</v>
       </c>
-      <c r="B583" s="2" t="s">
-        <v>765</v>
+      <c r="B583" s="7" t="s">
+        <v>752</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>606</v>
@@ -11679,8 +11645,8 @@
       <c r="A584">
         <v>583</v>
       </c>
-      <c r="B584" s="2" t="s">
-        <v>765</v>
+      <c r="B584" s="7" t="s">
+        <v>752</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>607</v>
@@ -11693,8 +11659,8 @@
       <c r="A585">
         <v>584</v>
       </c>
-      <c r="B585" s="2" t="s">
-        <v>765</v>
+      <c r="B585" s="7" t="s">
+        <v>752</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>608</v>
@@ -11707,8 +11673,8 @@
       <c r="A586">
         <v>585</v>
       </c>
-      <c r="B586" s="2" t="s">
-        <v>765</v>
+      <c r="B586" s="7" t="s">
+        <v>752</v>
       </c>
       <c r="C586" s="2" t="s">
         <v>609</v>
@@ -11721,8 +11687,8 @@
       <c r="A587">
         <v>586</v>
       </c>
-      <c r="B587" s="2" t="s">
-        <v>765</v>
+      <c r="B587" s="7" t="s">
+        <v>752</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>610</v>
@@ -11735,8 +11701,8 @@
       <c r="A588">
         <v>587</v>
       </c>
-      <c r="B588" s="2" t="s">
-        <v>765</v>
+      <c r="B588" s="7" t="s">
+        <v>752</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>611</v>
@@ -11749,8 +11715,8 @@
       <c r="A589">
         <v>588</v>
       </c>
-      <c r="B589" s="2" t="s">
-        <v>766</v>
+      <c r="B589" s="7" t="s">
+        <v>753</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>612</v>
@@ -11763,8 +11729,8 @@
       <c r="A590">
         <v>589</v>
       </c>
-      <c r="B590" s="2" t="s">
-        <v>766</v>
+      <c r="B590" s="7" t="s">
+        <v>753</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>613</v>
@@ -11777,8 +11743,8 @@
       <c r="A591">
         <v>590</v>
       </c>
-      <c r="B591" s="2" t="s">
-        <v>766</v>
+      <c r="B591" s="7" t="s">
+        <v>753</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>614</v>
@@ -11791,8 +11757,8 @@
       <c r="A592">
         <v>591</v>
       </c>
-      <c r="B592" s="2" t="s">
-        <v>766</v>
+      <c r="B592" s="7" t="s">
+        <v>753</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>615</v>
@@ -11805,8 +11771,8 @@
       <c r="A593">
         <v>592</v>
       </c>
-      <c r="B593" s="2" t="s">
-        <v>766</v>
+      <c r="B593" s="7" t="s">
+        <v>753</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>616</v>
@@ -11819,8 +11785,8 @@
       <c r="A594">
         <v>593</v>
       </c>
-      <c r="B594" s="2" t="s">
-        <v>766</v>
+      <c r="B594" s="7" t="s">
+        <v>753</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>617</v>
@@ -11833,8 +11799,8 @@
       <c r="A595">
         <v>594</v>
       </c>
-      <c r="B595" s="2" t="s">
-        <v>766</v>
+      <c r="B595" s="7" t="s">
+        <v>753</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>618</v>
@@ -11847,8 +11813,8 @@
       <c r="A596">
         <v>595</v>
       </c>
-      <c r="B596" s="2" t="s">
-        <v>766</v>
+      <c r="B596" s="7" t="s">
+        <v>753</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>619</v>
@@ -11861,8 +11827,8 @@
       <c r="A597">
         <v>596</v>
       </c>
-      <c r="B597" s="2" t="s">
-        <v>767</v>
+      <c r="B597" s="7" t="s">
+        <v>754</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>59</v>
@@ -11875,8 +11841,8 @@
       <c r="A598">
         <v>597</v>
       </c>
-      <c r="B598" s="2" t="s">
-        <v>767</v>
+      <c r="B598" s="7" t="s">
+        <v>754</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>620</v>
@@ -11889,8 +11855,8 @@
       <c r="A599">
         <v>598</v>
       </c>
-      <c r="B599" s="2" t="s">
-        <v>767</v>
+      <c r="B599" s="7" t="s">
+        <v>754</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>621</v>
@@ -11903,8 +11869,8 @@
       <c r="A600">
         <v>599</v>
       </c>
-      <c r="B600" s="2" t="s">
-        <v>767</v>
+      <c r="B600" s="7" t="s">
+        <v>754</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>622</v>
@@ -11917,8 +11883,8 @@
       <c r="A601">
         <v>600</v>
       </c>
-      <c r="B601" s="2" t="s">
-        <v>767</v>
+      <c r="B601" s="7" t="s">
+        <v>754</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>623</v>
@@ -11931,8 +11897,8 @@
       <c r="A602">
         <v>601</v>
       </c>
-      <c r="B602" s="2" t="s">
-        <v>767</v>
+      <c r="B602" s="7" t="s">
+        <v>754</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>624</v>
@@ -11945,8 +11911,8 @@
       <c r="A603">
         <v>602</v>
       </c>
-      <c r="B603" s="2" t="s">
-        <v>768</v>
+      <c r="B603" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>625</v>
@@ -11959,8 +11925,8 @@
       <c r="A604">
         <v>603</v>
       </c>
-      <c r="B604" s="2" t="s">
-        <v>768</v>
+      <c r="B604" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>626</v>
@@ -11973,8 +11939,8 @@
       <c r="A605">
         <v>604</v>
       </c>
-      <c r="B605" s="2" t="s">
-        <v>768</v>
+      <c r="B605" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>627</v>
@@ -11987,8 +11953,8 @@
       <c r="A606">
         <v>605</v>
       </c>
-      <c r="B606" s="2" t="s">
-        <v>768</v>
+      <c r="B606" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>628</v>
@@ -12001,8 +11967,8 @@
       <c r="A607">
         <v>606</v>
       </c>
-      <c r="B607" s="2" t="s">
-        <v>768</v>
+      <c r="B607" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>629</v>
@@ -12015,8 +11981,8 @@
       <c r="A608">
         <v>607</v>
       </c>
-      <c r="B608" s="2" t="s">
-        <v>768</v>
+      <c r="B608" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>630</v>
@@ -12029,8 +11995,8 @@
       <c r="A609">
         <v>608</v>
       </c>
-      <c r="B609" s="2" t="s">
-        <v>768</v>
+      <c r="B609" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>631</v>
@@ -12043,8 +12009,8 @@
       <c r="A610">
         <v>609</v>
       </c>
-      <c r="B610" s="2" t="s">
-        <v>768</v>
+      <c r="B610" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>632</v>
@@ -12057,8 +12023,8 @@
       <c r="A611">
         <v>610</v>
       </c>
-      <c r="B611" s="2" t="s">
-        <v>768</v>
+      <c r="B611" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>633</v>
@@ -12071,8 +12037,8 @@
       <c r="A612">
         <v>611</v>
       </c>
-      <c r="B612" s="2" t="s">
-        <v>768</v>
+      <c r="B612" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>634</v>
@@ -12085,8 +12051,8 @@
       <c r="A613">
         <v>612</v>
       </c>
-      <c r="B613" s="2" t="s">
-        <v>768</v>
+      <c r="B613" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>635</v>
@@ -12099,8 +12065,8 @@
       <c r="A614">
         <v>613</v>
       </c>
-      <c r="B614" s="2" t="s">
-        <v>768</v>
+      <c r="B614" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>636</v>
@@ -12113,8 +12079,8 @@
       <c r="A615">
         <v>614</v>
       </c>
-      <c r="B615" s="2" t="s">
-        <v>768</v>
+      <c r="B615" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>637</v>
@@ -12127,8 +12093,8 @@
       <c r="A616">
         <v>615</v>
       </c>
-      <c r="B616" s="2" t="s">
-        <v>768</v>
+      <c r="B616" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>638</v>
@@ -12141,8 +12107,8 @@
       <c r="A617">
         <v>616</v>
       </c>
-      <c r="B617" s="2" t="s">
-        <v>768</v>
+      <c r="B617" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>639</v>
@@ -12155,8 +12121,8 @@
       <c r="A618">
         <v>617</v>
       </c>
-      <c r="B618" s="2" t="s">
-        <v>768</v>
+      <c r="B618" s="7" t="s">
+        <v>755</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>640</v>
@@ -12169,8 +12135,8 @@
       <c r="A619">
         <v>618</v>
       </c>
-      <c r="B619" s="2" t="s">
-        <v>769</v>
+      <c r="B619" s="7" t="s">
+        <v>756</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>641</v>
@@ -12183,8 +12149,8 @@
       <c r="A620">
         <v>619</v>
       </c>
-      <c r="B620" s="2" t="s">
-        <v>769</v>
+      <c r="B620" s="7" t="s">
+        <v>756</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>642</v>
@@ -12197,8 +12163,8 @@
       <c r="A621">
         <v>620</v>
       </c>
-      <c r="B621" s="2" t="s">
-        <v>769</v>
+      <c r="B621" s="7" t="s">
+        <v>756</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>643</v>
@@ -12211,8 +12177,8 @@
       <c r="A622">
         <v>621</v>
       </c>
-      <c r="B622" s="2" t="s">
-        <v>769</v>
+      <c r="B622" s="7" t="s">
+        <v>756</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>644</v>
@@ -12225,8 +12191,8 @@
       <c r="A623">
         <v>622</v>
       </c>
-      <c r="B623" s="2" t="s">
-        <v>769</v>
+      <c r="B623" s="7" t="s">
+        <v>756</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>645</v>
@@ -12239,8 +12205,8 @@
       <c r="A624">
         <v>623</v>
       </c>
-      <c r="B624" s="2" t="s">
-        <v>769</v>
+      <c r="B624" s="7" t="s">
+        <v>756</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>646</v>
@@ -12253,8 +12219,8 @@
       <c r="A625">
         <v>624</v>
       </c>
-      <c r="B625" s="2" t="s">
-        <v>769</v>
+      <c r="B625" s="7" t="s">
+        <v>756</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>647</v>
@@ -12267,8 +12233,8 @@
       <c r="A626">
         <v>625</v>
       </c>
-      <c r="B626" s="2" t="s">
-        <v>769</v>
+      <c r="B626" s="7" t="s">
+        <v>756</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>648</v>
@@ -12281,8 +12247,8 @@
       <c r="A627">
         <v>626</v>
       </c>
-      <c r="B627" s="2" t="s">
-        <v>769</v>
+      <c r="B627" s="7" t="s">
+        <v>756</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>649</v>
@@ -12295,8 +12261,8 @@
       <c r="A628">
         <v>627</v>
       </c>
-      <c r="B628" s="2" t="s">
-        <v>769</v>
+      <c r="B628" s="7" t="s">
+        <v>756</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>650</v>
@@ -12309,8 +12275,8 @@
       <c r="A629">
         <v>628</v>
       </c>
-      <c r="B629" s="2" t="s">
-        <v>770</v>
+      <c r="B629" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>651</v>
@@ -12323,8 +12289,8 @@
       <c r="A630">
         <v>629</v>
       </c>
-      <c r="B630" s="2" t="s">
-        <v>770</v>
+      <c r="B630" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>652</v>
@@ -12337,8 +12303,8 @@
       <c r="A631">
         <v>630</v>
       </c>
-      <c r="B631" s="2" t="s">
-        <v>770</v>
+      <c r="B631" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>653</v>
@@ -12351,8 +12317,8 @@
       <c r="A632">
         <v>631</v>
       </c>
-      <c r="B632" s="2" t="s">
-        <v>770</v>
+      <c r="B632" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>654</v>
@@ -12365,8 +12331,8 @@
       <c r="A633">
         <v>632</v>
       </c>
-      <c r="B633" s="2" t="s">
-        <v>770</v>
+      <c r="B633" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>655</v>
@@ -12379,8 +12345,8 @@
       <c r="A634">
         <v>633</v>
       </c>
-      <c r="B634" s="2" t="s">
-        <v>770</v>
+      <c r="B634" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>656</v>
@@ -12393,8 +12359,8 @@
       <c r="A635">
         <v>634</v>
       </c>
-      <c r="B635" s="2" t="s">
-        <v>770</v>
+      <c r="B635" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>657</v>
@@ -12407,8 +12373,8 @@
       <c r="A636">
         <v>635</v>
       </c>
-      <c r="B636" s="2" t="s">
-        <v>770</v>
+      <c r="B636" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>371</v>
@@ -12421,8 +12387,8 @@
       <c r="A637">
         <v>636</v>
       </c>
-      <c r="B637" s="2" t="s">
-        <v>770</v>
+      <c r="B637" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>658</v>
@@ -12435,8 +12401,8 @@
       <c r="A638">
         <v>637</v>
       </c>
-      <c r="B638" s="2" t="s">
-        <v>770</v>
+      <c r="B638" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>659</v>
@@ -12449,8 +12415,8 @@
       <c r="A639">
         <v>638</v>
       </c>
-      <c r="B639" s="2" t="s">
-        <v>770</v>
+      <c r="B639" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>660</v>
@@ -12463,8 +12429,8 @@
       <c r="A640">
         <v>639</v>
       </c>
-      <c r="B640" s="2" t="s">
-        <v>770</v>
+      <c r="B640" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>661</v>
@@ -12477,8 +12443,8 @@
       <c r="A641">
         <v>640</v>
       </c>
-      <c r="B641" s="2" t="s">
-        <v>770</v>
+      <c r="B641" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>662</v>
@@ -12491,8 +12457,8 @@
       <c r="A642">
         <v>641</v>
       </c>
-      <c r="B642" s="2" t="s">
-        <v>770</v>
+      <c r="B642" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>663</v>
@@ -12505,8 +12471,8 @@
       <c r="A643">
         <v>642</v>
       </c>
-      <c r="B643" s="2" t="s">
-        <v>770</v>
+      <c r="B643" s="7" t="s">
+        <v>757</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>664</v>
@@ -12519,8 +12485,8 @@
       <c r="A644">
         <v>643</v>
       </c>
-      <c r="B644" s="2" t="s">
-        <v>771</v>
+      <c r="B644" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>63</v>
@@ -12533,8 +12499,8 @@
       <c r="A645">
         <v>644</v>
       </c>
-      <c r="B645" s="2" t="s">
-        <v>771</v>
+      <c r="B645" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>665</v>
@@ -12547,8 +12513,8 @@
       <c r="A646">
         <v>645</v>
       </c>
-      <c r="B646" s="2" t="s">
-        <v>771</v>
+      <c r="B646" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>666</v>
@@ -12561,8 +12527,8 @@
       <c r="A647">
         <v>646</v>
       </c>
-      <c r="B647" s="2" t="s">
-        <v>771</v>
+      <c r="B647" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>667</v>
@@ -12575,8 +12541,8 @@
       <c r="A648">
         <v>647</v>
       </c>
-      <c r="B648" s="2" t="s">
-        <v>771</v>
+      <c r="B648" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>668</v>
@@ -12589,8 +12555,8 @@
       <c r="A649">
         <v>648</v>
       </c>
-      <c r="B649" s="2" t="s">
-        <v>771</v>
+      <c r="B649" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>669</v>
@@ -12603,8 +12569,8 @@
       <c r="A650">
         <v>649</v>
       </c>
-      <c r="B650" s="2" t="s">
-        <v>771</v>
+      <c r="B650" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>670</v>
@@ -12617,8 +12583,8 @@
       <c r="A651">
         <v>650</v>
       </c>
-      <c r="B651" s="2" t="s">
-        <v>771</v>
+      <c r="B651" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>671</v>
@@ -12631,8 +12597,8 @@
       <c r="A652">
         <v>651</v>
       </c>
-      <c r="B652" s="2" t="s">
-        <v>771</v>
+      <c r="B652" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>672</v>
@@ -12645,8 +12611,8 @@
       <c r="A653">
         <v>652</v>
       </c>
-      <c r="B653" s="2" t="s">
-        <v>771</v>
+      <c r="B653" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>673</v>
@@ -12659,8 +12625,8 @@
       <c r="A654">
         <v>653</v>
       </c>
-      <c r="B654" s="2" t="s">
-        <v>771</v>
+      <c r="B654" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>674</v>
@@ -12673,8 +12639,8 @@
       <c r="A655">
         <v>654</v>
       </c>
-      <c r="B655" s="2" t="s">
-        <v>771</v>
+      <c r="B655" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>675</v>
@@ -12687,8 +12653,8 @@
       <c r="A656">
         <v>655</v>
       </c>
-      <c r="B656" s="2" t="s">
-        <v>771</v>
+      <c r="B656" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>676</v>
@@ -12701,8 +12667,8 @@
       <c r="A657">
         <v>656</v>
       </c>
-      <c r="B657" s="2" t="s">
-        <v>771</v>
+      <c r="B657" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>677</v>
@@ -12715,8 +12681,8 @@
       <c r="A658">
         <v>657</v>
       </c>
-      <c r="B658" s="2" t="s">
-        <v>771</v>
+      <c r="B658" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>678</v>
@@ -12729,8 +12695,8 @@
       <c r="A659">
         <v>658</v>
       </c>
-      <c r="B659" s="2" t="s">
-        <v>771</v>
+      <c r="B659" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>679</v>
@@ -12743,8 +12709,8 @@
       <c r="A660">
         <v>659</v>
       </c>
-      <c r="B660" s="2" t="s">
-        <v>771</v>
+      <c r="B660" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>680</v>
@@ -12757,8 +12723,8 @@
       <c r="A661">
         <v>660</v>
       </c>
-      <c r="B661" s="2" t="s">
-        <v>771</v>
+      <c r="B661" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>681</v>
@@ -12771,8 +12737,8 @@
       <c r="A662">
         <v>661</v>
       </c>
-      <c r="B662" s="2" t="s">
-        <v>771</v>
+      <c r="B662" s="7" t="s">
+        <v>758</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>682</v>
@@ -12785,8 +12751,8 @@
       <c r="A663">
         <v>662</v>
       </c>
-      <c r="B663" s="2" t="s">
-        <v>772</v>
+      <c r="B663" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>683</v>
@@ -12799,8 +12765,8 @@
       <c r="A664">
         <v>663</v>
       </c>
-      <c r="B664" s="2" t="s">
-        <v>772</v>
+      <c r="B664" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>684</v>
@@ -12813,8 +12779,8 @@
       <c r="A665">
         <v>664</v>
       </c>
-      <c r="B665" s="2" t="s">
-        <v>772</v>
+      <c r="B665" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>685</v>
@@ -12827,8 +12793,8 @@
       <c r="A666">
         <v>665</v>
       </c>
-      <c r="B666" s="2" t="s">
-        <v>772</v>
+      <c r="B666" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>686</v>
@@ -12841,8 +12807,8 @@
       <c r="A667">
         <v>666</v>
       </c>
-      <c r="B667" s="2" t="s">
-        <v>772</v>
+      <c r="B667" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>687</v>
@@ -12855,8 +12821,8 @@
       <c r="A668">
         <v>667</v>
       </c>
-      <c r="B668" s="2" t="s">
-        <v>772</v>
+      <c r="B668" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>688</v>
@@ -12869,8 +12835,8 @@
       <c r="A669">
         <v>668</v>
       </c>
-      <c r="B669" s="2" t="s">
-        <v>772</v>
+      <c r="B669" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>689</v>
@@ -12883,8 +12849,8 @@
       <c r="A670">
         <v>669</v>
       </c>
-      <c r="B670" s="2" t="s">
-        <v>772</v>
+      <c r="B670" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>690</v>
@@ -12897,8 +12863,8 @@
       <c r="A671">
         <v>670</v>
       </c>
-      <c r="B671" s="2" t="s">
-        <v>772</v>
+      <c r="B671" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>691</v>
@@ -12911,8 +12877,8 @@
       <c r="A672">
         <v>671</v>
       </c>
-      <c r="B672" s="2" t="s">
-        <v>772</v>
+      <c r="B672" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>692</v>
@@ -12925,8 +12891,8 @@
       <c r="A673">
         <v>672</v>
       </c>
-      <c r="B673" s="2" t="s">
-        <v>772</v>
+      <c r="B673" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>693</v>
@@ -12939,8 +12905,8 @@
       <c r="A674">
         <v>673</v>
       </c>
-      <c r="B674" s="2" t="s">
-        <v>772</v>
+      <c r="B674" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>694</v>
@@ -12953,8 +12919,8 @@
       <c r="A675">
         <v>674</v>
       </c>
-      <c r="B675" s="2" t="s">
-        <v>772</v>
+      <c r="B675" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>695</v>
@@ -12967,8 +12933,8 @@
       <c r="A676">
         <v>675</v>
       </c>
-      <c r="B676" s="2" t="s">
-        <v>772</v>
+      <c r="B676" s="7" t="s">
+        <v>759</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>696</v>
@@ -12981,8 +12947,8 @@
       <c r="A677">
         <v>676</v>
       </c>
-      <c r="B677" s="2" t="s">
-        <v>773</v>
+      <c r="B677" s="7" t="s">
+        <v>760</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>697</v>
@@ -12995,8 +12961,8 @@
       <c r="A678">
         <v>677</v>
       </c>
-      <c r="B678" s="2" t="s">
-        <v>773</v>
+      <c r="B678" s="7" t="s">
+        <v>760</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>698</v>
@@ -13009,8 +12975,8 @@
       <c r="A679">
         <v>678</v>
       </c>
-      <c r="B679" s="2" t="s">
-        <v>773</v>
+      <c r="B679" s="7" t="s">
+        <v>760</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>697</v>
@@ -13023,8 +12989,8 @@
       <c r="A680">
         <v>679</v>
       </c>
-      <c r="B680" s="2" t="s">
-        <v>773</v>
+      <c r="B680" s="7" t="s">
+        <v>760</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>699</v>
@@ -13037,8 +13003,8 @@
       <c r="A681">
         <v>680</v>
       </c>
-      <c r="B681" s="2" t="s">
-        <v>773</v>
+      <c r="B681" s="7" t="s">
+        <v>760</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>700</v>
@@ -13051,8 +13017,8 @@
       <c r="A682">
         <v>681</v>
       </c>
-      <c r="B682" s="2" t="s">
-        <v>773</v>
+      <c r="B682" s="7" t="s">
+        <v>760</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>701</v>
@@ -13065,8 +13031,8 @@
       <c r="A683">
         <v>682</v>
       </c>
-      <c r="B683" s="2" t="s">
-        <v>773</v>
+      <c r="B683" s="7" t="s">
+        <v>760</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>702</v>
@@ -13079,8 +13045,8 @@
       <c r="A684">
         <v>683</v>
       </c>
-      <c r="B684" s="2" t="s">
-        <v>773</v>
+      <c r="B684" s="7" t="s">
+        <v>760</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>698</v>
@@ -13093,8 +13059,8 @@
       <c r="A685">
         <v>684</v>
       </c>
-      <c r="B685" s="2" t="s">
-        <v>773</v>
+      <c r="B685" s="7" t="s">
+        <v>760</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>90</v>
@@ -13107,8 +13073,8 @@
       <c r="A686">
         <v>685</v>
       </c>
-      <c r="B686" s="2" t="s">
-        <v>773</v>
+      <c r="B686" s="7" t="s">
+        <v>760</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>703</v>
@@ -13121,8 +13087,8 @@
       <c r="A687">
         <v>686</v>
       </c>
-      <c r="B687" s="2" t="s">
-        <v>774</v>
+      <c r="B687" s="7" t="s">
+        <v>761</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>66</v>
@@ -13135,8 +13101,8 @@
       <c r="A688">
         <v>687</v>
       </c>
-      <c r="B688" s="2" t="s">
-        <v>774</v>
+      <c r="B688" s="7" t="s">
+        <v>761</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>704</v>
@@ -13149,8 +13115,8 @@
       <c r="A689">
         <v>688</v>
       </c>
-      <c r="B689" s="2" t="s">
-        <v>774</v>
+      <c r="B689" s="7" t="s">
+        <v>761</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>705</v>
@@ -13163,8 +13129,8 @@
       <c r="A690">
         <v>689</v>
       </c>
-      <c r="B690" s="2" t="s">
-        <v>774</v>
+      <c r="B690" s="7" t="s">
+        <v>761</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>706</v>
@@ -13177,8 +13143,8 @@
       <c r="A691">
         <v>690</v>
       </c>
-      <c r="B691" s="2" t="s">
-        <v>774</v>
+      <c r="B691" s="7" t="s">
+        <v>761</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>707</v>
@@ -13191,8 +13157,8 @@
       <c r="A692">
         <v>691</v>
       </c>
-      <c r="B692" s="2" t="s">
-        <v>774</v>
+      <c r="B692" s="7" t="s">
+        <v>761</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>708</v>
@@ -13205,8 +13171,8 @@
       <c r="A693">
         <v>692</v>
       </c>
-      <c r="B693" s="2" t="s">
-        <v>774</v>
+      <c r="B693" s="7" t="s">
+        <v>761</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>709</v>
@@ -13219,8 +13185,8 @@
       <c r="A694">
         <v>693</v>
       </c>
-      <c r="B694" s="2" t="s">
-        <v>774</v>
+      <c r="B694" s="7" t="s">
+        <v>761</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>710</v>
@@ -13233,8 +13199,8 @@
       <c r="A695">
         <v>694</v>
       </c>
-      <c r="B695" s="2" t="s">
-        <v>774</v>
+      <c r="B695" s="7" t="s">
+        <v>761</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>211</v>
@@ -13247,8 +13213,8 @@
       <c r="A696">
         <v>695</v>
       </c>
-      <c r="B696" s="2" t="s">
-        <v>774</v>
+      <c r="B696" s="7" t="s">
+        <v>761</v>
       </c>
       <c r="C696" s="2" t="s">
         <v>711</v>
@@ -13261,8 +13227,8 @@
       <c r="A697">
         <v>696</v>
       </c>
-      <c r="B697" s="2" t="s">
-        <v>774</v>
+      <c r="B697" s="7" t="s">
+        <v>761</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>712</v>
@@ -13275,8 +13241,8 @@
       <c r="A698">
         <v>697</v>
       </c>
-      <c r="B698" s="2" t="s">
-        <v>775</v>
+      <c r="B698" s="7" t="s">
+        <v>762</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>713</v>
@@ -13289,8 +13255,8 @@
       <c r="A699">
         <v>698</v>
       </c>
-      <c r="B699" s="2" t="s">
-        <v>775</v>
+      <c r="B699" s="7" t="s">
+        <v>762</v>
       </c>
       <c r="C699" s="2" t="s">
         <v>714</v>
@@ -13303,8 +13269,8 @@
       <c r="A700">
         <v>699</v>
       </c>
-      <c r="B700" s="2" t="s">
-        <v>775</v>
+      <c r="B700" s="7" t="s">
+        <v>762</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>715</v>
@@ -13317,8 +13283,8 @@
       <c r="A701">
         <v>700</v>
       </c>
-      <c r="B701" s="2" t="s">
-        <v>775</v>
+      <c r="B701" s="7" t="s">
+        <v>762</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>716</v>
@@ -13331,8 +13297,8 @@
       <c r="A702">
         <v>701</v>
       </c>
-      <c r="B702" s="2" t="s">
-        <v>775</v>
+      <c r="B702" s="7" t="s">
+        <v>762</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>717</v>
@@ -13345,8 +13311,8 @@
       <c r="A703">
         <v>702</v>
       </c>
-      <c r="B703" s="2" t="s">
-        <v>775</v>
+      <c r="B703" s="7" t="s">
+        <v>762</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>718</v>
@@ -13359,8 +13325,8 @@
       <c r="A704">
         <v>703</v>
       </c>
-      <c r="B704" s="2" t="s">
-        <v>775</v>
+      <c r="B704" s="7" t="s">
+        <v>762</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>719</v>
@@ -13373,8 +13339,8 @@
       <c r="A705">
         <v>704</v>
       </c>
-      <c r="B705" s="2" t="s">
-        <v>775</v>
+      <c r="B705" s="7" t="s">
+        <v>762</v>
       </c>
       <c r="C705" s="2" t="s">
         <v>720</v>
@@ -13387,8 +13353,8 @@
       <c r="A706">
         <v>705</v>
       </c>
-      <c r="B706" s="2" t="s">
-        <v>775</v>
+      <c r="B706" s="7" t="s">
+        <v>762</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>721</v>
@@ -13401,8 +13367,8 @@
       <c r="A707">
         <v>706</v>
       </c>
-      <c r="B707" s="2" t="s">
-        <v>775</v>
+      <c r="B707" s="7" t="s">
+        <v>762</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>722</v>
@@ -13415,8 +13381,8 @@
       <c r="A708">
         <v>707</v>
       </c>
-      <c r="B708" s="2" t="s">
-        <v>775</v>
+      <c r="B708" s="7" t="s">
+        <v>762</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>723</v>
@@ -13429,8 +13395,8 @@
       <c r="A709">
         <v>708</v>
       </c>
-      <c r="B709" s="2" t="s">
-        <v>775</v>
+      <c r="B709" s="7" t="s">
+        <v>762</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>724</v>
@@ -13449,8 +13415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A646" workbookViewId="0">
-      <selection activeCell="D660" sqref="D660"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23385,32 +23351,10 @@
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A710">
-        <v>709</v>
-      </c>
-      <c r="B710">
-        <v>709</v>
-      </c>
-      <c r="C710">
-        <v>2019</v>
-      </c>
-      <c r="D710" s="3">
-        <v>9136</v>
-      </c>
+      <c r="D710" s="3"/>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A711">
-        <v>710</v>
-      </c>
-      <c r="B711">
-        <v>710</v>
-      </c>
-      <c r="C711">
-        <v>2019</v>
-      </c>
-      <c r="D711" s="3">
-        <v>12768</v>
-      </c>
+      <c r="D711" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/import_data/Data_GIS.xlsx
+++ b/app/import_data/Data_GIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gis_doan\app\import_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B8B858-E12D-4626-A09C-A09366B66EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B378400E-6495-437B-BB8A-1F526A19A1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Province" sheetId="1" r:id="rId1"/>
@@ -3480,7 +3480,7 @@
   <dimension ref="A1:D709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13424,10 +13424,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D711"/>
+  <dimension ref="A1:D751"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A713" workbookViewId="0">
+      <selection activeCell="B731" sqref="B731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13464,7 +13464,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3">
@@ -13478,7 +13478,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4">
@@ -13492,7 +13492,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5">
@@ -13506,7 +13506,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6">
@@ -13520,7 +13520,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7">
@@ -13534,7 +13534,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8">
@@ -13548,7 +13548,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9">
@@ -13562,7 +13562,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10">
@@ -13576,7 +13576,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11">
@@ -13590,7 +13590,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12">
@@ -13604,7 +13604,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13">
@@ -13618,7 +13618,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14">
@@ -13632,7 +13632,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15">
@@ -13646,7 +13646,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16">
@@ -13660,7 +13660,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17">
@@ -13674,7 +13674,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18">
@@ -13688,7 +13688,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19">
@@ -13702,7 +13702,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20">
@@ -13716,7 +13716,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21">
@@ -13730,7 +13730,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22">
@@ -13744,7 +13744,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23">
@@ -13758,7 +13758,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24">
@@ -13772,7 +13772,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25">
@@ -13786,7 +13786,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26">
@@ -13800,7 +13800,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27">
@@ -13814,7 +13814,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28">
@@ -13828,7 +13828,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29">
@@ -13842,7 +13842,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30">
@@ -13856,7 +13856,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31">
@@ -13870,7 +13870,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32">
@@ -13884,7 +13884,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33">
@@ -13898,7 +13898,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34">
@@ -13912,7 +13912,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35">
@@ -13926,7 +13926,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36">
@@ -13940,7 +13940,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37">
@@ -13954,7 +13954,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38">
@@ -13968,7 +13968,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39">
@@ -13982,7 +13982,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40">
@@ -13996,7 +13996,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41">
@@ -14010,7 +14010,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42">
@@ -14024,7 +14024,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43">
@@ -14038,7 +14038,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44">
@@ -14052,7 +14052,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45">
@@ -14066,7 +14066,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46">
@@ -14080,7 +14080,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47">
@@ -14094,7 +14094,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48">
@@ -14108,7 +14108,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49">
@@ -14122,7 +14122,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50">
@@ -14136,7 +14136,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51">
@@ -14150,7 +14150,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52">
@@ -14164,7 +14164,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53">
@@ -14178,7 +14178,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54">
@@ -14192,7 +14192,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55">
@@ -14206,7 +14206,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56">
@@ -14220,7 +14220,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57">
@@ -14234,7 +14234,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58">
@@ -14248,7 +14248,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59">
@@ -14262,7 +14262,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60">
@@ -14276,7 +14276,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61">
@@ -14290,7 +14290,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62">
@@ -14304,7 +14304,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63">
@@ -14318,7 +14318,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64">
@@ -14332,7 +14332,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65">
@@ -14346,7 +14346,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66">
@@ -14360,7 +14360,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67">
@@ -14374,7 +14374,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68">
@@ -14388,7 +14388,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69">
@@ -14402,7 +14402,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70">
@@ -14416,7 +14416,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71">
@@ -14430,7 +14430,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72">
@@ -14444,7 +14444,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73">
@@ -14458,7 +14458,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74">
@@ -14472,7 +14472,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75">
@@ -14486,7 +14486,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76">
@@ -14500,7 +14500,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77">
@@ -14514,7 +14514,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78">
@@ -14528,7 +14528,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79">
@@ -14542,7 +14542,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80">
@@ -14556,7 +14556,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81">
@@ -14570,7 +14570,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82">
@@ -14584,7 +14584,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83">
@@ -14598,7 +14598,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84">
@@ -14612,7 +14612,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85">
@@ -14626,7 +14626,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86">
@@ -14640,7 +14640,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
       <c r="B87">
@@ -14654,7 +14654,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
       <c r="B88">
@@ -14668,7 +14668,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
       <c r="B89">
@@ -14682,7 +14682,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
       <c r="B90">
@@ -14696,7 +14696,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91">
@@ -14710,7 +14710,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
       <c r="B92">
@@ -14724,7 +14724,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
       <c r="B93">
@@ -14738,7 +14738,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
       <c r="B94">
@@ -14752,7 +14752,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
       <c r="B95">
@@ -14766,7 +14766,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
       <c r="B96">
@@ -14780,7 +14780,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
       <c r="B97">
@@ -14794,7 +14794,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
       <c r="B98">
@@ -14808,7 +14808,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
       <c r="B99">
@@ -14822,7 +14822,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
       <c r="B100">
@@ -14836,7 +14836,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
       <c r="B101">
@@ -14850,7 +14850,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
       <c r="B102">
@@ -14864,7 +14864,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
       <c r="B103">
@@ -14878,7 +14878,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
       <c r="B104">
@@ -14892,7 +14892,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="A105" s="5">
         <v>104</v>
       </c>
       <c r="B105">
@@ -14906,7 +14906,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="A106" s="5">
         <v>105</v>
       </c>
       <c r="B106">
@@ -14920,7 +14920,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="A107" s="5">
         <v>106</v>
       </c>
       <c r="B107">
@@ -14934,7 +14934,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="A108" s="5">
         <v>107</v>
       </c>
       <c r="B108">
@@ -14948,7 +14948,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="A109" s="5">
         <v>108</v>
       </c>
       <c r="B109">
@@ -14962,7 +14962,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="A110" s="5">
         <v>109</v>
       </c>
       <c r="B110">
@@ -14976,7 +14976,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="A111" s="5">
         <v>110</v>
       </c>
       <c r="B111">
@@ -14990,7 +14990,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="A112" s="5">
         <v>111</v>
       </c>
       <c r="B112">
@@ -15004,7 +15004,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="A113" s="5">
         <v>112</v>
       </c>
       <c r="B113">
@@ -15018,7 +15018,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="A114" s="5">
         <v>113</v>
       </c>
       <c r="B114">
@@ -15032,7 +15032,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="A115" s="5">
         <v>114</v>
       </c>
       <c r="B115">
@@ -15046,7 +15046,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="A116" s="5">
         <v>115</v>
       </c>
       <c r="B116">
@@ -15060,7 +15060,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="A117" s="5">
         <v>116</v>
       </c>
       <c r="B117">
@@ -15074,7 +15074,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="A118" s="5">
         <v>117</v>
       </c>
       <c r="B118">
@@ -15088,7 +15088,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="A119" s="5">
         <v>118</v>
       </c>
       <c r="B119">
@@ -15102,7 +15102,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="A120" s="5">
         <v>119</v>
       </c>
       <c r="B120">
@@ -15116,7 +15116,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="A121" s="5">
         <v>120</v>
       </c>
       <c r="B121">
@@ -15130,7 +15130,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="A122" s="5">
         <v>121</v>
       </c>
       <c r="B122">
@@ -15144,7 +15144,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="A123" s="5">
         <v>122</v>
       </c>
       <c r="B123">
@@ -15158,7 +15158,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124">
+      <c r="A124" s="5">
         <v>123</v>
       </c>
       <c r="B124">
@@ -15172,7 +15172,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125">
+      <c r="A125" s="5">
         <v>124</v>
       </c>
       <c r="B125">
@@ -15186,7 +15186,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="A126" s="5">
         <v>125</v>
       </c>
       <c r="B126">
@@ -15200,7 +15200,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="A127" s="5">
         <v>126</v>
       </c>
       <c r="B127">
@@ -15214,7 +15214,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="A128" s="5">
         <v>127</v>
       </c>
       <c r="B128">
@@ -15228,7 +15228,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="A129" s="5">
         <v>128</v>
       </c>
       <c r="B129">
@@ -15242,7 +15242,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="A130" s="5">
         <v>129</v>
       </c>
       <c r="B130">
@@ -15256,7 +15256,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="A131" s="5">
         <v>130</v>
       </c>
       <c r="B131">
@@ -15270,7 +15270,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="A132" s="5">
         <v>131</v>
       </c>
       <c r="B132">
@@ -15284,7 +15284,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="A133" s="5">
         <v>132</v>
       </c>
       <c r="B133">
@@ -15298,7 +15298,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134">
+      <c r="A134" s="5">
         <v>133</v>
       </c>
       <c r="B134">
@@ -15312,7 +15312,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="A135" s="5">
         <v>134</v>
       </c>
       <c r="B135">
@@ -15326,7 +15326,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="A136" s="5">
         <v>135</v>
       </c>
       <c r="B136">
@@ -15340,7 +15340,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="A137" s="5">
         <v>136</v>
       </c>
       <c r="B137">
@@ -15354,7 +15354,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="A138" s="5">
         <v>137</v>
       </c>
       <c r="B138">
@@ -15368,7 +15368,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="A139" s="5">
         <v>138</v>
       </c>
       <c r="B139">
@@ -15382,7 +15382,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="A140" s="5">
         <v>139</v>
       </c>
       <c r="B140">
@@ -15396,7 +15396,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="A141" s="5">
         <v>140</v>
       </c>
       <c r="B141">
@@ -15410,7 +15410,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="A142" s="5">
         <v>141</v>
       </c>
       <c r="B142">
@@ -15424,7 +15424,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="A143" s="5">
         <v>142</v>
       </c>
       <c r="B143">
@@ -15438,7 +15438,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144">
+      <c r="A144" s="5">
         <v>143</v>
       </c>
       <c r="B144">
@@ -15452,7 +15452,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="A145" s="5">
         <v>144</v>
       </c>
       <c r="B145">
@@ -15466,7 +15466,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146">
+      <c r="A146" s="5">
         <v>145</v>
       </c>
       <c r="B146">
@@ -15480,7 +15480,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147">
+      <c r="A147" s="5">
         <v>146</v>
       </c>
       <c r="B147">
@@ -15494,7 +15494,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="A148" s="5">
         <v>147</v>
       </c>
       <c r="B148">
@@ -15508,7 +15508,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149">
+      <c r="A149" s="5">
         <v>148</v>
       </c>
       <c r="B149">
@@ -15522,7 +15522,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150">
+      <c r="A150" s="5">
         <v>149</v>
       </c>
       <c r="B150">
@@ -15536,7 +15536,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151">
+      <c r="A151" s="5">
         <v>150</v>
       </c>
       <c r="B151">
@@ -15550,7 +15550,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="A152" s="5">
         <v>151</v>
       </c>
       <c r="B152">
@@ -15564,7 +15564,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153">
+      <c r="A153" s="5">
         <v>152</v>
       </c>
       <c r="B153">
@@ -15578,7 +15578,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154">
+      <c r="A154" s="5">
         <v>153</v>
       </c>
       <c r="B154">
@@ -15592,7 +15592,7 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155">
+      <c r="A155" s="5">
         <v>154</v>
       </c>
       <c r="B155">
@@ -15606,7 +15606,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156">
+      <c r="A156" s="5">
         <v>155</v>
       </c>
       <c r="B156">
@@ -15620,7 +15620,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157">
+      <c r="A157" s="5">
         <v>156</v>
       </c>
       <c r="B157">
@@ -15634,7 +15634,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158">
+      <c r="A158" s="5">
         <v>157</v>
       </c>
       <c r="B158">
@@ -15648,7 +15648,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159">
+      <c r="A159" s="5">
         <v>158</v>
       </c>
       <c r="B159">
@@ -15662,7 +15662,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160">
+      <c r="A160" s="5">
         <v>159</v>
       </c>
       <c r="B160">
@@ -15676,7 +15676,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161">
+      <c r="A161" s="5">
         <v>160</v>
       </c>
       <c r="B161">
@@ -15690,7 +15690,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162">
+      <c r="A162" s="5">
         <v>161</v>
       </c>
       <c r="B162">
@@ -15704,7 +15704,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163">
+      <c r="A163" s="5">
         <v>162</v>
       </c>
       <c r="B163">
@@ -15718,7 +15718,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164">
+      <c r="A164" s="5">
         <v>163</v>
       </c>
       <c r="B164">
@@ -15732,7 +15732,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165">
+      <c r="A165" s="5">
         <v>164</v>
       </c>
       <c r="B165">
@@ -15746,7 +15746,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166">
+      <c r="A166" s="5">
         <v>165</v>
       </c>
       <c r="B166">
@@ -15760,7 +15760,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167">
+      <c r="A167" s="5">
         <v>166</v>
       </c>
       <c r="B167">
@@ -15774,7 +15774,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168">
+      <c r="A168" s="5">
         <v>167</v>
       </c>
       <c r="B168">
@@ -15788,7 +15788,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169">
+      <c r="A169" s="5">
         <v>168</v>
       </c>
       <c r="B169">
@@ -15802,7 +15802,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170">
+      <c r="A170" s="5">
         <v>169</v>
       </c>
       <c r="B170">
@@ -15816,7 +15816,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171">
+      <c r="A171" s="5">
         <v>170</v>
       </c>
       <c r="B171">
@@ -15830,7 +15830,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172">
+      <c r="A172" s="5">
         <v>171</v>
       </c>
       <c r="B172">
@@ -15844,7 +15844,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173">
+      <c r="A173" s="5">
         <v>172</v>
       </c>
       <c r="B173">
@@ -15858,7 +15858,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174">
+      <c r="A174" s="5">
         <v>173</v>
       </c>
       <c r="B174">
@@ -15872,7 +15872,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175">
+      <c r="A175" s="5">
         <v>174</v>
       </c>
       <c r="B175">
@@ -15886,7 +15886,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176">
+      <c r="A176" s="5">
         <v>175</v>
       </c>
       <c r="B176">
@@ -15900,7 +15900,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177">
+      <c r="A177" s="5">
         <v>176</v>
       </c>
       <c r="B177">
@@ -15914,7 +15914,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178">
+      <c r="A178" s="5">
         <v>177</v>
       </c>
       <c r="B178">
@@ -15928,7 +15928,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179">
+      <c r="A179" s="5">
         <v>178</v>
       </c>
       <c r="B179">
@@ -15942,7 +15942,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180">
+      <c r="A180" s="5">
         <v>179</v>
       </c>
       <c r="B180">
@@ -15956,7 +15956,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181">
+      <c r="A181" s="5">
         <v>180</v>
       </c>
       <c r="B181">
@@ -15970,7 +15970,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182">
+      <c r="A182" s="5">
         <v>181</v>
       </c>
       <c r="B182">
@@ -15984,7 +15984,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183">
+      <c r="A183" s="5">
         <v>182</v>
       </c>
       <c r="B183">
@@ -15998,7 +15998,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184">
+      <c r="A184" s="5">
         <v>183</v>
       </c>
       <c r="B184">
@@ -16012,7 +16012,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185">
+      <c r="A185" s="5">
         <v>184</v>
       </c>
       <c r="B185">
@@ -16026,7 +16026,7 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186">
+      <c r="A186" s="5">
         <v>185</v>
       </c>
       <c r="B186">
@@ -16040,7 +16040,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187">
+      <c r="A187" s="5">
         <v>186</v>
       </c>
       <c r="B187">
@@ -16054,7 +16054,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188">
+      <c r="A188" s="5">
         <v>187</v>
       </c>
       <c r="B188">
@@ -16068,7 +16068,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189">
+      <c r="A189" s="5">
         <v>188</v>
       </c>
       <c r="B189">
@@ -16082,7 +16082,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190">
+      <c r="A190" s="5">
         <v>189</v>
       </c>
       <c r="B190">
@@ -16096,7 +16096,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191">
+      <c r="A191" s="5">
         <v>190</v>
       </c>
       <c r="B191">
@@ -16110,7 +16110,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192">
+      <c r="A192" s="5">
         <v>191</v>
       </c>
       <c r="B192">
@@ -16124,7 +16124,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193">
+      <c r="A193" s="5">
         <v>192</v>
       </c>
       <c r="B193">
@@ -16138,7 +16138,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194">
+      <c r="A194" s="5">
         <v>193</v>
       </c>
       <c r="B194">
@@ -16152,7 +16152,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195">
+      <c r="A195" s="5">
         <v>194</v>
       </c>
       <c r="B195">
@@ -16166,7 +16166,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196">
+      <c r="A196" s="5">
         <v>195</v>
       </c>
       <c r="B196">
@@ -16180,7 +16180,7 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197">
+      <c r="A197" s="5">
         <v>196</v>
       </c>
       <c r="B197">
@@ -16194,7 +16194,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198">
+      <c r="A198" s="5">
         <v>197</v>
       </c>
       <c r="B198">
@@ -16208,7 +16208,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199">
+      <c r="A199" s="5">
         <v>198</v>
       </c>
       <c r="B199">
@@ -16222,7 +16222,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200">
+      <c r="A200" s="5">
         <v>199</v>
       </c>
       <c r="B200">
@@ -16236,7 +16236,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201">
+      <c r="A201" s="5">
         <v>200</v>
       </c>
       <c r="B201">
@@ -16250,7 +16250,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202">
+      <c r="A202" s="5">
         <v>201</v>
       </c>
       <c r="B202">
@@ -16264,7 +16264,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203">
+      <c r="A203" s="5">
         <v>202</v>
       </c>
       <c r="B203">
@@ -16278,7 +16278,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A204">
+      <c r="A204" s="5">
         <v>203</v>
       </c>
       <c r="B204">
@@ -16292,7 +16292,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A205">
+      <c r="A205" s="5">
         <v>204</v>
       </c>
       <c r="B205">
@@ -16306,7 +16306,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206">
+      <c r="A206" s="5">
         <v>205</v>
       </c>
       <c r="B206">
@@ -16320,7 +16320,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A207">
+      <c r="A207" s="5">
         <v>206</v>
       </c>
       <c r="B207">
@@ -16334,7 +16334,7 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A208">
+      <c r="A208" s="5">
         <v>207</v>
       </c>
       <c r="B208">
@@ -16348,7 +16348,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A209">
+      <c r="A209" s="5">
         <v>208</v>
       </c>
       <c r="B209">
@@ -16362,7 +16362,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A210">
+      <c r="A210" s="5">
         <v>209</v>
       </c>
       <c r="B210">
@@ -16376,7 +16376,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211">
+      <c r="A211" s="5">
         <v>210</v>
       </c>
       <c r="B211">
@@ -16390,7 +16390,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212">
+      <c r="A212" s="5">
         <v>211</v>
       </c>
       <c r="B212">
@@ -16404,7 +16404,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A213">
+      <c r="A213" s="5">
         <v>212</v>
       </c>
       <c r="B213">
@@ -16418,7 +16418,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A214">
+      <c r="A214" s="5">
         <v>213</v>
       </c>
       <c r="B214">
@@ -16432,7 +16432,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A215">
+      <c r="A215" s="5">
         <v>214</v>
       </c>
       <c r="B215">
@@ -16446,7 +16446,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A216">
+      <c r="A216" s="5">
         <v>215</v>
       </c>
       <c r="B216">
@@ -16460,7 +16460,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A217">
+      <c r="A217" s="5">
         <v>216</v>
       </c>
       <c r="B217">
@@ -16474,7 +16474,7 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A218">
+      <c r="A218" s="5">
         <v>217</v>
       </c>
       <c r="B218">
@@ -16488,7 +16488,7 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A219">
+      <c r="A219" s="5">
         <v>218</v>
       </c>
       <c r="B219">
@@ -16502,7 +16502,7 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A220">
+      <c r="A220" s="5">
         <v>219</v>
       </c>
       <c r="B220">
@@ -16516,7 +16516,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A221">
+      <c r="A221" s="5">
         <v>220</v>
       </c>
       <c r="B221">
@@ -16530,7 +16530,7 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A222">
+      <c r="A222" s="5">
         <v>221</v>
       </c>
       <c r="B222">
@@ -16544,7 +16544,7 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A223">
+      <c r="A223" s="5">
         <v>222</v>
       </c>
       <c r="B223">
@@ -16558,7 +16558,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A224">
+      <c r="A224" s="5">
         <v>223</v>
       </c>
       <c r="B224">
@@ -16572,7 +16572,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A225">
+      <c r="A225" s="5">
         <v>224</v>
       </c>
       <c r="B225">
@@ -16586,7 +16586,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A226">
+      <c r="A226" s="5">
         <v>225</v>
       </c>
       <c r="B226">
@@ -16600,7 +16600,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227">
+      <c r="A227" s="5">
         <v>226</v>
       </c>
       <c r="B227">
@@ -16614,7 +16614,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228">
+      <c r="A228" s="5">
         <v>227</v>
       </c>
       <c r="B228">
@@ -16628,7 +16628,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229">
+      <c r="A229" s="5">
         <v>228</v>
       </c>
       <c r="B229">
@@ -16642,7 +16642,7 @@
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230">
+      <c r="A230" s="5">
         <v>229</v>
       </c>
       <c r="B230">
@@ -16656,7 +16656,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A231">
+      <c r="A231" s="5">
         <v>230</v>
       </c>
       <c r="B231">
@@ -16670,7 +16670,7 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A232">
+      <c r="A232" s="5">
         <v>231</v>
       </c>
       <c r="B232">
@@ -16684,7 +16684,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A233">
+      <c r="A233" s="5">
         <v>232</v>
       </c>
       <c r="B233">
@@ -16698,7 +16698,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A234">
+      <c r="A234" s="5">
         <v>233</v>
       </c>
       <c r="B234">
@@ -16712,7 +16712,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A235">
+      <c r="A235" s="5">
         <v>234</v>
       </c>
       <c r="B235">
@@ -16726,7 +16726,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A236">
+      <c r="A236" s="5">
         <v>235</v>
       </c>
       <c r="B236">
@@ -16740,7 +16740,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A237">
+      <c r="A237" s="5">
         <v>236</v>
       </c>
       <c r="B237">
@@ -16754,7 +16754,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A238">
+      <c r="A238" s="5">
         <v>237</v>
       </c>
       <c r="B238">
@@ -16768,7 +16768,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A239">
+      <c r="A239" s="5">
         <v>238</v>
       </c>
       <c r="B239">
@@ -16782,7 +16782,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A240">
+      <c r="A240" s="5">
         <v>239</v>
       </c>
       <c r="B240">
@@ -16796,7 +16796,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241">
+      <c r="A241" s="5">
         <v>240</v>
       </c>
       <c r="B241">
@@ -16810,7 +16810,7 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242">
+      <c r="A242" s="5">
         <v>241</v>
       </c>
       <c r="B242">
@@ -16824,7 +16824,7 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243">
+      <c r="A243" s="5">
         <v>242</v>
       </c>
       <c r="B243">
@@ -16838,7 +16838,7 @@
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244">
+      <c r="A244" s="5">
         <v>243</v>
       </c>
       <c r="B244">
@@ -16852,7 +16852,7 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245">
+      <c r="A245" s="5">
         <v>244</v>
       </c>
       <c r="B245">
@@ -16866,7 +16866,7 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246">
+      <c r="A246" s="5">
         <v>245</v>
       </c>
       <c r="B246">
@@ -16880,7 +16880,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247">
+      <c r="A247" s="5">
         <v>246</v>
       </c>
       <c r="B247">
@@ -16894,7 +16894,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248">
+      <c r="A248" s="5">
         <v>247</v>
       </c>
       <c r="B248">
@@ -16908,7 +16908,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249">
+      <c r="A249" s="5">
         <v>248</v>
       </c>
       <c r="B249">
@@ -16922,7 +16922,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250">
+      <c r="A250" s="5">
         <v>249</v>
       </c>
       <c r="B250">
@@ -16936,7 +16936,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251">
+      <c r="A251" s="5">
         <v>250</v>
       </c>
       <c r="B251">
@@ -16950,7 +16950,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252">
+      <c r="A252" s="5">
         <v>251</v>
       </c>
       <c r="B252">
@@ -16964,7 +16964,7 @@
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253">
+      <c r="A253" s="5">
         <v>252</v>
       </c>
       <c r="B253">
@@ -16978,7 +16978,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254">
+      <c r="A254" s="5">
         <v>253</v>
       </c>
       <c r="B254">
@@ -16992,7 +16992,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255">
+      <c r="A255" s="5">
         <v>254</v>
       </c>
       <c r="B255">
@@ -17006,7 +17006,7 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256">
+      <c r="A256" s="5">
         <v>255</v>
       </c>
       <c r="B256">
@@ -17020,7 +17020,7 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257">
+      <c r="A257" s="5">
         <v>256</v>
       </c>
       <c r="B257">
@@ -17034,7 +17034,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258">
+      <c r="A258" s="5">
         <v>257</v>
       </c>
       <c r="B258">
@@ -17048,7 +17048,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259">
+      <c r="A259" s="5">
         <v>258</v>
       </c>
       <c r="B259">
@@ -17062,7 +17062,7 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260">
+      <c r="A260" s="5">
         <v>259</v>
       </c>
       <c r="B260">
@@ -17076,7 +17076,7 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261">
+      <c r="A261" s="5">
         <v>260</v>
       </c>
       <c r="B261">
@@ -17090,7 +17090,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262">
+      <c r="A262" s="5">
         <v>261</v>
       </c>
       <c r="B262">
@@ -17104,7 +17104,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263">
+      <c r="A263" s="5">
         <v>262</v>
       </c>
       <c r="B263">
@@ -17118,7 +17118,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264">
+      <c r="A264" s="5">
         <v>263</v>
       </c>
       <c r="B264">
@@ -17132,7 +17132,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265">
+      <c r="A265" s="5">
         <v>264</v>
       </c>
       <c r="B265">
@@ -17146,7 +17146,7 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266">
+      <c r="A266" s="5">
         <v>265</v>
       </c>
       <c r="B266">
@@ -17160,7 +17160,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267">
+      <c r="A267" s="5">
         <v>266</v>
       </c>
       <c r="B267">
@@ -17174,7 +17174,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268">
+      <c r="A268" s="5">
         <v>267</v>
       </c>
       <c r="B268">
@@ -17188,7 +17188,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269">
+      <c r="A269" s="5">
         <v>268</v>
       </c>
       <c r="B269">
@@ -17202,7 +17202,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270">
+      <c r="A270" s="5">
         <v>269</v>
       </c>
       <c r="B270">
@@ -17216,7 +17216,7 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271">
+      <c r="A271" s="5">
         <v>270</v>
       </c>
       <c r="B271">
@@ -17230,7 +17230,7 @@
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272">
+      <c r="A272" s="5">
         <v>271</v>
       </c>
       <c r="B272">
@@ -17244,7 +17244,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273">
+      <c r="A273" s="5">
         <v>272</v>
       </c>
       <c r="B273">
@@ -17258,7 +17258,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274">
+      <c r="A274" s="5">
         <v>273</v>
       </c>
       <c r="B274">
@@ -17272,7 +17272,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275">
+      <c r="A275" s="5">
         <v>274</v>
       </c>
       <c r="B275">
@@ -17286,7 +17286,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276">
+      <c r="A276" s="5">
         <v>275</v>
       </c>
       <c r="B276">
@@ -17300,7 +17300,7 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277">
+      <c r="A277" s="5">
         <v>276</v>
       </c>
       <c r="B277">
@@ -17314,7 +17314,7 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278">
+      <c r="A278" s="5">
         <v>277</v>
       </c>
       <c r="B278">
@@ -17328,7 +17328,7 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279">
+      <c r="A279" s="5">
         <v>278</v>
       </c>
       <c r="B279">
@@ -17342,7 +17342,7 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280">
+      <c r="A280" s="5">
         <v>279</v>
       </c>
       <c r="B280">
@@ -17356,7 +17356,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281">
+      <c r="A281" s="5">
         <v>280</v>
       </c>
       <c r="B281">
@@ -17370,7 +17370,7 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282">
+      <c r="A282" s="5">
         <v>281</v>
       </c>
       <c r="B282">
@@ -17384,7 +17384,7 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283">
+      <c r="A283" s="5">
         <v>282</v>
       </c>
       <c r="B283">
@@ -17398,7 +17398,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284">
+      <c r="A284" s="5">
         <v>283</v>
       </c>
       <c r="B284">
@@ -17412,7 +17412,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A285">
+      <c r="A285" s="5">
         <v>284</v>
       </c>
       <c r="B285">
@@ -17426,7 +17426,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A286">
+      <c r="A286" s="5">
         <v>285</v>
       </c>
       <c r="B286">
@@ -17440,7 +17440,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287">
+      <c r="A287" s="5">
         <v>286</v>
       </c>
       <c r="B287">
@@ -17454,7 +17454,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288">
+      <c r="A288" s="5">
         <v>287</v>
       </c>
       <c r="B288">
@@ -17468,7 +17468,7 @@
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289">
+      <c r="A289" s="5">
         <v>288</v>
       </c>
       <c r="B289">
@@ -17482,7 +17482,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290">
+      <c r="A290" s="5">
         <v>289</v>
       </c>
       <c r="B290">
@@ -17496,7 +17496,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291">
+      <c r="A291" s="5">
         <v>290</v>
       </c>
       <c r="B291">
@@ -17510,7 +17510,7 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292">
+      <c r="A292" s="5">
         <v>291</v>
       </c>
       <c r="B292">
@@ -17524,7 +17524,7 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293">
+      <c r="A293" s="5">
         <v>292</v>
       </c>
       <c r="B293">
@@ -17538,7 +17538,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294">
+      <c r="A294" s="5">
         <v>293</v>
       </c>
       <c r="B294">
@@ -17552,7 +17552,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295">
+      <c r="A295" s="5">
         <v>294</v>
       </c>
       <c r="B295">
@@ -17566,7 +17566,7 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296">
+      <c r="A296" s="5">
         <v>295</v>
       </c>
       <c r="B296">
@@ -17580,7 +17580,7 @@
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297">
+      <c r="A297" s="5">
         <v>296</v>
       </c>
       <c r="B297">
@@ -17594,7 +17594,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298">
+      <c r="A298" s="5">
         <v>297</v>
       </c>
       <c r="B298">
@@ -17608,7 +17608,7 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299">
+      <c r="A299" s="5">
         <v>298</v>
       </c>
       <c r="B299">
@@ -17622,7 +17622,7 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300">
+      <c r="A300" s="5">
         <v>299</v>
       </c>
       <c r="B300">
@@ -17636,7 +17636,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301">
+      <c r="A301" s="5">
         <v>300</v>
       </c>
       <c r="B301">
@@ -17650,7 +17650,7 @@
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302">
+      <c r="A302" s="5">
         <v>301</v>
       </c>
       <c r="B302">
@@ -17664,7 +17664,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303">
+      <c r="A303" s="5">
         <v>302</v>
       </c>
       <c r="B303">
@@ -17678,7 +17678,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304">
+      <c r="A304" s="5">
         <v>303</v>
       </c>
       <c r="B304">
@@ -17692,7 +17692,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305">
+      <c r="A305" s="5">
         <v>304</v>
       </c>
       <c r="B305">
@@ -17706,7 +17706,7 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306">
+      <c r="A306" s="5">
         <v>305</v>
       </c>
       <c r="B306">
@@ -17720,7 +17720,7 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307">
+      <c r="A307" s="5">
         <v>306</v>
       </c>
       <c r="B307">
@@ -17734,7 +17734,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308">
+      <c r="A308" s="5">
         <v>307</v>
       </c>
       <c r="B308">
@@ -17748,7 +17748,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309">
+      <c r="A309" s="5">
         <v>308</v>
       </c>
       <c r="B309">
@@ -17762,7 +17762,7 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310">
+      <c r="A310" s="5">
         <v>309</v>
       </c>
       <c r="B310">
@@ -17776,7 +17776,7 @@
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311">
+      <c r="A311" s="5">
         <v>310</v>
       </c>
       <c r="B311">
@@ -17790,7 +17790,7 @@
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312">
+      <c r="A312" s="5">
         <v>311</v>
       </c>
       <c r="B312">
@@ -17804,7 +17804,7 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313">
+      <c r="A313" s="5">
         <v>312</v>
       </c>
       <c r="B313">
@@ -17818,7 +17818,7 @@
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314">
+      <c r="A314" s="5">
         <v>313</v>
       </c>
       <c r="B314">
@@ -17832,7 +17832,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315">
+      <c r="A315" s="5">
         <v>314</v>
       </c>
       <c r="B315">
@@ -17846,7 +17846,7 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316">
+      <c r="A316" s="5">
         <v>315</v>
       </c>
       <c r="B316">
@@ -17860,7 +17860,7 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317">
+      <c r="A317" s="5">
         <v>316</v>
       </c>
       <c r="B317">
@@ -17874,7 +17874,7 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318">
+      <c r="A318" s="5">
         <v>317</v>
       </c>
       <c r="B318">
@@ -17888,7 +17888,7 @@
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319">
+      <c r="A319" s="5">
         <v>318</v>
       </c>
       <c r="B319">
@@ -17902,7 +17902,7 @@
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320">
+      <c r="A320" s="5">
         <v>319</v>
       </c>
       <c r="B320">
@@ -17916,7 +17916,7 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321">
+      <c r="A321" s="5">
         <v>320</v>
       </c>
       <c r="B321">
@@ -17930,7 +17930,7 @@
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322">
+      <c r="A322" s="5">
         <v>321</v>
       </c>
       <c r="B322">
@@ -17944,7 +17944,7 @@
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323">
+      <c r="A323" s="5">
         <v>322</v>
       </c>
       <c r="B323">
@@ -17958,7 +17958,7 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324">
+      <c r="A324" s="5">
         <v>323</v>
       </c>
       <c r="B324">
@@ -17972,7 +17972,7 @@
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325">
+      <c r="A325" s="5">
         <v>324</v>
       </c>
       <c r="B325">
@@ -17986,7 +17986,7 @@
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326">
+      <c r="A326" s="5">
         <v>325</v>
       </c>
       <c r="B326">
@@ -18000,7 +18000,7 @@
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327">
+      <c r="A327" s="5">
         <v>326</v>
       </c>
       <c r="B327">
@@ -18014,7 +18014,7 @@
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A328">
+      <c r="A328" s="5">
         <v>327</v>
       </c>
       <c r="B328">
@@ -18028,7 +18028,7 @@
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A329">
+      <c r="A329" s="5">
         <v>328</v>
       </c>
       <c r="B329">
@@ -18042,7 +18042,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A330">
+      <c r="A330" s="5">
         <v>329</v>
       </c>
       <c r="B330">
@@ -18056,7 +18056,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A331">
+      <c r="A331" s="5">
         <v>330</v>
       </c>
       <c r="B331">
@@ -18070,7 +18070,7 @@
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332">
+      <c r="A332" s="5">
         <v>331</v>
       </c>
       <c r="B332">
@@ -18084,7 +18084,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A333">
+      <c r="A333" s="5">
         <v>332</v>
       </c>
       <c r="B333">
@@ -18098,7 +18098,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A334">
+      <c r="A334" s="5">
         <v>333</v>
       </c>
       <c r="B334">
@@ -18112,7 +18112,7 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A335">
+      <c r="A335" s="5">
         <v>334</v>
       </c>
       <c r="B335">
@@ -18126,7 +18126,7 @@
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A336">
+      <c r="A336" s="5">
         <v>335</v>
       </c>
       <c r="B336">
@@ -18140,7 +18140,7 @@
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A337">
+      <c r="A337" s="5">
         <v>336</v>
       </c>
       <c r="B337">
@@ -18154,7 +18154,7 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A338">
+      <c r="A338" s="5">
         <v>337</v>
       </c>
       <c r="B338">
@@ -18168,7 +18168,7 @@
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A339">
+      <c r="A339" s="5">
         <v>338</v>
       </c>
       <c r="B339">
@@ -18182,7 +18182,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A340">
+      <c r="A340" s="5">
         <v>339</v>
       </c>
       <c r="B340">
@@ -18196,7 +18196,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A341">
+      <c r="A341" s="5">
         <v>340</v>
       </c>
       <c r="B341">
@@ -18210,7 +18210,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A342">
+      <c r="A342" s="5">
         <v>341</v>
       </c>
       <c r="B342">
@@ -18224,7 +18224,7 @@
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A343">
+      <c r="A343" s="5">
         <v>342</v>
       </c>
       <c r="B343">
@@ -18238,7 +18238,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A344">
+      <c r="A344" s="5">
         <v>343</v>
       </c>
       <c r="B344">
@@ -18252,7 +18252,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A345">
+      <c r="A345" s="5">
         <v>344</v>
       </c>
       <c r="B345">
@@ -18266,7 +18266,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A346">
+      <c r="A346" s="5">
         <v>345</v>
       </c>
       <c r="B346">
@@ -18280,7 +18280,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A347">
+      <c r="A347" s="5">
         <v>346</v>
       </c>
       <c r="B347">
@@ -18294,7 +18294,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A348">
+      <c r="A348" s="5">
         <v>347</v>
       </c>
       <c r="B348">
@@ -18308,7 +18308,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A349">
+      <c r="A349" s="5">
         <v>348</v>
       </c>
       <c r="B349">
@@ -18322,7 +18322,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A350">
+      <c r="A350" s="5">
         <v>349</v>
       </c>
       <c r="B350">
@@ -18336,7 +18336,7 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A351">
+      <c r="A351" s="5">
         <v>350</v>
       </c>
       <c r="B351">
@@ -18350,7 +18350,7 @@
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A352">
+      <c r="A352" s="5">
         <v>351</v>
       </c>
       <c r="B352">
@@ -18364,7 +18364,7 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A353">
+      <c r="A353" s="5">
         <v>352</v>
       </c>
       <c r="B353">
@@ -18378,7 +18378,7 @@
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A354">
+      <c r="A354" s="5">
         <v>353</v>
       </c>
       <c r="B354">
@@ -18392,7 +18392,7 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A355">
+      <c r="A355" s="5">
         <v>354</v>
       </c>
       <c r="B355">
@@ -18406,7 +18406,7 @@
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356">
+      <c r="A356" s="5">
         <v>355</v>
       </c>
       <c r="B356">
@@ -18420,7 +18420,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A357">
+      <c r="A357" s="5">
         <v>356</v>
       </c>
       <c r="B357">
@@ -18434,7 +18434,7 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A358">
+      <c r="A358" s="5">
         <v>357</v>
       </c>
       <c r="B358">
@@ -18448,7 +18448,7 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A359">
+      <c r="A359" s="5">
         <v>358</v>
       </c>
       <c r="B359">
@@ -18462,7 +18462,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A360">
+      <c r="A360" s="5">
         <v>359</v>
       </c>
       <c r="B360">
@@ -18476,7 +18476,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A361">
+      <c r="A361" s="5">
         <v>360</v>
       </c>
       <c r="B361">
@@ -18490,7 +18490,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A362">
+      <c r="A362" s="5">
         <v>361</v>
       </c>
       <c r="B362">
@@ -18504,7 +18504,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A363">
+      <c r="A363" s="5">
         <v>362</v>
       </c>
       <c r="B363">
@@ -18518,7 +18518,7 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A364">
+      <c r="A364" s="5">
         <v>363</v>
       </c>
       <c r="B364">
@@ -18532,7 +18532,7 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A365">
+      <c r="A365" s="5">
         <v>364</v>
       </c>
       <c r="B365">
@@ -18546,7 +18546,7 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A366">
+      <c r="A366" s="5">
         <v>365</v>
       </c>
       <c r="B366">
@@ -18560,7 +18560,7 @@
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A367">
+      <c r="A367" s="5">
         <v>366</v>
       </c>
       <c r="B367">
@@ -18574,7 +18574,7 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A368">
+      <c r="A368" s="5">
         <v>367</v>
       </c>
       <c r="B368">
@@ -18588,7 +18588,7 @@
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A369">
+      <c r="A369" s="5">
         <v>368</v>
       </c>
       <c r="B369">
@@ -18602,7 +18602,7 @@
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A370">
+      <c r="A370" s="5">
         <v>369</v>
       </c>
       <c r="B370">
@@ -18616,7 +18616,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A371">
+      <c r="A371" s="5">
         <v>370</v>
       </c>
       <c r="B371">
@@ -18630,7 +18630,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A372">
+      <c r="A372" s="5">
         <v>371</v>
       </c>
       <c r="B372">
@@ -18644,7 +18644,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A373">
+      <c r="A373" s="5">
         <v>372</v>
       </c>
       <c r="B373">
@@ -18658,7 +18658,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A374">
+      <c r="A374" s="5">
         <v>373</v>
       </c>
       <c r="B374">
@@ -18672,7 +18672,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A375">
+      <c r="A375" s="5">
         <v>374</v>
       </c>
       <c r="B375">
@@ -18686,7 +18686,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A376">
+      <c r="A376" s="5">
         <v>375</v>
       </c>
       <c r="B376">
@@ -18700,7 +18700,7 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A377">
+      <c r="A377" s="5">
         <v>376</v>
       </c>
       <c r="B377">
@@ -18714,7 +18714,7 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A378">
+      <c r="A378" s="5">
         <v>377</v>
       </c>
       <c r="B378">
@@ -18728,7 +18728,7 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A379">
+      <c r="A379" s="5">
         <v>378</v>
       </c>
       <c r="B379">
@@ -18742,7 +18742,7 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A380">
+      <c r="A380" s="5">
         <v>379</v>
       </c>
       <c r="B380">
@@ -18756,7 +18756,7 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A381">
+      <c r="A381" s="5">
         <v>380</v>
       </c>
       <c r="B381">
@@ -18770,7 +18770,7 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A382">
+      <c r="A382" s="5">
         <v>381</v>
       </c>
       <c r="B382">
@@ -18784,7 +18784,7 @@
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A383">
+      <c r="A383" s="5">
         <v>382</v>
       </c>
       <c r="B383">
@@ -18798,7 +18798,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A384">
+      <c r="A384" s="5">
         <v>383</v>
       </c>
       <c r="B384">
@@ -18812,7 +18812,7 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A385">
+      <c r="A385" s="5">
         <v>384</v>
       </c>
       <c r="B385">
@@ -18826,7 +18826,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A386">
+      <c r="A386" s="5">
         <v>385</v>
       </c>
       <c r="B386">
@@ -18840,7 +18840,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A387">
+      <c r="A387" s="5">
         <v>386</v>
       </c>
       <c r="B387">
@@ -18854,7 +18854,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A388">
+      <c r="A388" s="5">
         <v>387</v>
       </c>
       <c r="B388">
@@ -18868,7 +18868,7 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A389">
+      <c r="A389" s="5">
         <v>388</v>
       </c>
       <c r="B389">
@@ -18882,7 +18882,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A390">
+      <c r="A390" s="5">
         <v>389</v>
       </c>
       <c r="B390">
@@ -18896,7 +18896,7 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A391">
+      <c r="A391" s="5">
         <v>390</v>
       </c>
       <c r="B391">
@@ -18910,7 +18910,7 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A392">
+      <c r="A392" s="5">
         <v>391</v>
       </c>
       <c r="B392">
@@ -18924,7 +18924,7 @@
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A393">
+      <c r="A393" s="5">
         <v>392</v>
       </c>
       <c r="B393">
@@ -18938,7 +18938,7 @@
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A394">
+      <c r="A394" s="5">
         <v>393</v>
       </c>
       <c r="B394">
@@ -18952,7 +18952,7 @@
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A395">
+      <c r="A395" s="5">
         <v>394</v>
       </c>
       <c r="B395">
@@ -18966,7 +18966,7 @@
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A396">
+      <c r="A396" s="5">
         <v>395</v>
       </c>
       <c r="B396">
@@ -18980,7 +18980,7 @@
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A397">
+      <c r="A397" s="5">
         <v>396</v>
       </c>
       <c r="B397">
@@ -18994,7 +18994,7 @@
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A398">
+      <c r="A398" s="5">
         <v>397</v>
       </c>
       <c r="B398">
@@ -19008,7 +19008,7 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A399">
+      <c r="A399" s="5">
         <v>398</v>
       </c>
       <c r="B399">
@@ -19022,7 +19022,7 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A400">
+      <c r="A400" s="5">
         <v>399</v>
       </c>
       <c r="B400">
@@ -19036,7 +19036,7 @@
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A401">
+      <c r="A401" s="5">
         <v>400</v>
       </c>
       <c r="B401">
@@ -19050,7 +19050,7 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A402">
+      <c r="A402" s="5">
         <v>401</v>
       </c>
       <c r="B402">
@@ -19064,7 +19064,7 @@
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A403">
+      <c r="A403" s="5">
         <v>402</v>
       </c>
       <c r="B403">
@@ -19078,7 +19078,7 @@
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A404">
+      <c r="A404" s="5">
         <v>403</v>
       </c>
       <c r="B404">
@@ -19092,7 +19092,7 @@
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A405">
+      <c r="A405" s="5">
         <v>404</v>
       </c>
       <c r="B405">
@@ -19106,7 +19106,7 @@
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A406">
+      <c r="A406" s="5">
         <v>405</v>
       </c>
       <c r="B406">
@@ -19120,7 +19120,7 @@
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A407">
+      <c r="A407" s="5">
         <v>406</v>
       </c>
       <c r="B407">
@@ -19134,7 +19134,7 @@
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A408">
+      <c r="A408" s="5">
         <v>407</v>
       </c>
       <c r="B408">
@@ -19148,7 +19148,7 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A409">
+      <c r="A409" s="5">
         <v>408</v>
       </c>
       <c r="B409">
@@ -19162,7 +19162,7 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A410">
+      <c r="A410" s="5">
         <v>409</v>
       </c>
       <c r="B410">
@@ -19176,7 +19176,7 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A411">
+      <c r="A411" s="5">
         <v>410</v>
       </c>
       <c r="B411">
@@ -19190,7 +19190,7 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A412">
+      <c r="A412" s="5">
         <v>411</v>
       </c>
       <c r="B412">
@@ -19204,7 +19204,7 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A413">
+      <c r="A413" s="5">
         <v>412</v>
       </c>
       <c r="B413">
@@ -19218,7 +19218,7 @@
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A414">
+      <c r="A414" s="5">
         <v>413</v>
       </c>
       <c r="B414">
@@ -19232,7 +19232,7 @@
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A415">
+      <c r="A415" s="5">
         <v>414</v>
       </c>
       <c r="B415">
@@ -19246,7 +19246,7 @@
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A416">
+      <c r="A416" s="5">
         <v>415</v>
       </c>
       <c r="B416">
@@ -19260,7 +19260,7 @@
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A417">
+      <c r="A417" s="5">
         <v>416</v>
       </c>
       <c r="B417">
@@ -19274,7 +19274,7 @@
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A418">
+      <c r="A418" s="5">
         <v>417</v>
       </c>
       <c r="B418">
@@ -19288,7 +19288,7 @@
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A419">
+      <c r="A419" s="5">
         <v>418</v>
       </c>
       <c r="B419">
@@ -19302,7 +19302,7 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A420">
+      <c r="A420" s="5">
         <v>419</v>
       </c>
       <c r="B420">
@@ -19316,7 +19316,7 @@
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A421">
+      <c r="A421" s="5">
         <v>420</v>
       </c>
       <c r="B421">
@@ -19330,7 +19330,7 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A422">
+      <c r="A422" s="5">
         <v>421</v>
       </c>
       <c r="B422">
@@ -19344,7 +19344,7 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A423">
+      <c r="A423" s="5">
         <v>422</v>
       </c>
       <c r="B423">
@@ -19358,7 +19358,7 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A424">
+      <c r="A424" s="5">
         <v>423</v>
       </c>
       <c r="B424">
@@ -19372,7 +19372,7 @@
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A425">
+      <c r="A425" s="5">
         <v>424</v>
       </c>
       <c r="B425">
@@ -19386,7 +19386,7 @@
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A426">
+      <c r="A426" s="5">
         <v>425</v>
       </c>
       <c r="B426">
@@ -19400,7 +19400,7 @@
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A427">
+      <c r="A427" s="5">
         <v>426</v>
       </c>
       <c r="B427">
@@ -19414,7 +19414,7 @@
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A428">
+      <c r="A428" s="5">
         <v>427</v>
       </c>
       <c r="B428">
@@ -19428,7 +19428,7 @@
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A429">
+      <c r="A429" s="5">
         <v>428</v>
       </c>
       <c r="B429">
@@ -19442,7 +19442,7 @@
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A430">
+      <c r="A430" s="5">
         <v>429</v>
       </c>
       <c r="B430">
@@ -19456,7 +19456,7 @@
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A431">
+      <c r="A431" s="5">
         <v>430</v>
       </c>
       <c r="B431">
@@ -19470,7 +19470,7 @@
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A432">
+      <c r="A432" s="5">
         <v>431</v>
       </c>
       <c r="B432">
@@ -19484,7 +19484,7 @@
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A433">
+      <c r="A433" s="5">
         <v>432</v>
       </c>
       <c r="B433">
@@ -19498,7 +19498,7 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A434">
+      <c r="A434" s="5">
         <v>433</v>
       </c>
       <c r="B434">
@@ -19512,7 +19512,7 @@
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A435">
+      <c r="A435" s="5">
         <v>434</v>
       </c>
       <c r="B435">
@@ -19526,7 +19526,7 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A436">
+      <c r="A436" s="5">
         <v>435</v>
       </c>
       <c r="B436">
@@ -19540,7 +19540,7 @@
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A437">
+      <c r="A437" s="5">
         <v>436</v>
       </c>
       <c r="B437">
@@ -19554,7 +19554,7 @@
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A438">
+      <c r="A438" s="5">
         <v>437</v>
       </c>
       <c r="B438">
@@ -19568,7 +19568,7 @@
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A439">
+      <c r="A439" s="5">
         <v>438</v>
       </c>
       <c r="B439">
@@ -19582,7 +19582,7 @@
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A440">
+      <c r="A440" s="5">
         <v>439</v>
       </c>
       <c r="B440">
@@ -19596,7 +19596,7 @@
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A441">
+      <c r="A441" s="5">
         <v>440</v>
       </c>
       <c r="B441">
@@ -19610,7 +19610,7 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A442">
+      <c r="A442" s="5">
         <v>441</v>
       </c>
       <c r="B442">
@@ -19624,7 +19624,7 @@
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A443">
+      <c r="A443" s="5">
         <v>442</v>
       </c>
       <c r="B443">
@@ -19638,7 +19638,7 @@
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A444">
+      <c r="A444" s="5">
         <v>443</v>
       </c>
       <c r="B444">
@@ -19652,7 +19652,7 @@
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A445">
+      <c r="A445" s="5">
         <v>444</v>
       </c>
       <c r="B445">
@@ -19666,7 +19666,7 @@
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A446">
+      <c r="A446" s="5">
         <v>445</v>
       </c>
       <c r="B446">
@@ -19680,7 +19680,7 @@
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A447">
+      <c r="A447" s="5">
         <v>446</v>
       </c>
       <c r="B447">
@@ -19694,7 +19694,7 @@
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A448">
+      <c r="A448" s="5">
         <v>447</v>
       </c>
       <c r="B448">
@@ -19708,7 +19708,7 @@
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A449">
+      <c r="A449" s="5">
         <v>448</v>
       </c>
       <c r="B449">
@@ -19722,7 +19722,7 @@
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A450">
+      <c r="A450" s="5">
         <v>449</v>
       </c>
       <c r="B450">
@@ -19736,7 +19736,7 @@
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A451">
+      <c r="A451" s="5">
         <v>450</v>
       </c>
       <c r="B451">
@@ -19750,7 +19750,7 @@
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A452">
+      <c r="A452" s="5">
         <v>451</v>
       </c>
       <c r="B452">
@@ -19764,7 +19764,7 @@
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A453">
+      <c r="A453" s="5">
         <v>452</v>
       </c>
       <c r="B453">
@@ -19778,7 +19778,7 @@
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A454">
+      <c r="A454" s="5">
         <v>453</v>
       </c>
       <c r="B454">
@@ -19792,7 +19792,7 @@
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A455">
+      <c r="A455" s="5">
         <v>454</v>
       </c>
       <c r="B455">
@@ -19806,7 +19806,7 @@
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A456">
+      <c r="A456" s="5">
         <v>455</v>
       </c>
       <c r="B456">
@@ -19820,7 +19820,7 @@
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A457">
+      <c r="A457" s="5">
         <v>456</v>
       </c>
       <c r="B457">
@@ -19834,7 +19834,7 @@
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A458">
+      <c r="A458" s="5">
         <v>457</v>
       </c>
       <c r="B458">
@@ -19848,7 +19848,7 @@
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A459">
+      <c r="A459" s="5">
         <v>458</v>
       </c>
       <c r="B459">
@@ -19862,7 +19862,7 @@
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A460">
+      <c r="A460" s="5">
         <v>459</v>
       </c>
       <c r="B460">
@@ -19876,7 +19876,7 @@
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A461">
+      <c r="A461" s="5">
         <v>460</v>
       </c>
       <c r="B461">
@@ -19890,7 +19890,7 @@
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A462">
+      <c r="A462" s="5">
         <v>461</v>
       </c>
       <c r="B462">
@@ -19904,7 +19904,7 @@
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A463">
+      <c r="A463" s="5">
         <v>462</v>
       </c>
       <c r="B463">
@@ -19918,7 +19918,7 @@
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A464">
+      <c r="A464" s="5">
         <v>463</v>
       </c>
       <c r="B464">
@@ -19932,7 +19932,7 @@
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A465">
+      <c r="A465" s="5">
         <v>464</v>
       </c>
       <c r="B465">
@@ -19946,7 +19946,7 @@
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A466">
+      <c r="A466" s="5">
         <v>465</v>
       </c>
       <c r="B466">
@@ -19960,7 +19960,7 @@
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A467">
+      <c r="A467" s="5">
         <v>466</v>
       </c>
       <c r="B467">
@@ -19974,7 +19974,7 @@
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A468">
+      <c r="A468" s="5">
         <v>467</v>
       </c>
       <c r="B468">
@@ -19988,7 +19988,7 @@
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A469">
+      <c r="A469" s="5">
         <v>468</v>
       </c>
       <c r="B469">
@@ -20002,7 +20002,7 @@
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A470">
+      <c r="A470" s="5">
         <v>469</v>
       </c>
       <c r="B470">
@@ -20016,7 +20016,7 @@
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A471">
+      <c r="A471" s="5">
         <v>470</v>
       </c>
       <c r="B471">
@@ -20030,7 +20030,7 @@
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A472">
+      <c r="A472" s="5">
         <v>471</v>
       </c>
       <c r="B472">
@@ -20044,7 +20044,7 @@
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A473">
+      <c r="A473" s="5">
         <v>472</v>
       </c>
       <c r="B473">
@@ -20058,7 +20058,7 @@
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A474">
+      <c r="A474" s="5">
         <v>473</v>
       </c>
       <c r="B474">
@@ -20072,7 +20072,7 @@
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A475">
+      <c r="A475" s="5">
         <v>474</v>
       </c>
       <c r="B475">
@@ -20086,7 +20086,7 @@
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A476">
+      <c r="A476" s="5">
         <v>475</v>
       </c>
       <c r="B476">
@@ -20100,7 +20100,7 @@
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A477">
+      <c r="A477" s="5">
         <v>476</v>
       </c>
       <c r="B477">
@@ -20114,7 +20114,7 @@
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A478">
+      <c r="A478" s="5">
         <v>477</v>
       </c>
       <c r="B478">
@@ -20128,7 +20128,7 @@
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A479">
+      <c r="A479" s="5">
         <v>478</v>
       </c>
       <c r="B479">
@@ -20142,7 +20142,7 @@
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A480">
+      <c r="A480" s="5">
         <v>479</v>
       </c>
       <c r="B480">
@@ -20156,7 +20156,7 @@
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A481">
+      <c r="A481" s="5">
         <v>480</v>
       </c>
       <c r="B481">
@@ -20170,7 +20170,7 @@
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A482">
+      <c r="A482" s="5">
         <v>481</v>
       </c>
       <c r="B482">
@@ -20184,7 +20184,7 @@
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A483">
+      <c r="A483" s="5">
         <v>482</v>
       </c>
       <c r="B483">
@@ -20198,7 +20198,7 @@
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A484">
+      <c r="A484" s="5">
         <v>483</v>
       </c>
       <c r="B484">
@@ -20212,7 +20212,7 @@
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A485">
+      <c r="A485" s="5">
         <v>484</v>
       </c>
       <c r="B485">
@@ -20226,7 +20226,7 @@
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A486">
+      <c r="A486" s="5">
         <v>485</v>
       </c>
       <c r="B486">
@@ -20240,7 +20240,7 @@
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A487">
+      <c r="A487" s="5">
         <v>486</v>
       </c>
       <c r="B487">
@@ -20254,7 +20254,7 @@
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A488">
+      <c r="A488" s="5">
         <v>487</v>
       </c>
       <c r="B488">
@@ -20268,7 +20268,7 @@
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A489">
+      <c r="A489" s="5">
         <v>488</v>
       </c>
       <c r="B489">
@@ -20282,7 +20282,7 @@
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A490">
+      <c r="A490" s="5">
         <v>489</v>
       </c>
       <c r="B490">
@@ -20296,7 +20296,7 @@
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A491">
+      <c r="A491" s="5">
         <v>490</v>
       </c>
       <c r="B491">
@@ -20310,7 +20310,7 @@
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A492">
+      <c r="A492" s="5">
         <v>491</v>
       </c>
       <c r="B492">
@@ -20324,7 +20324,7 @@
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A493">
+      <c r="A493" s="5">
         <v>492</v>
       </c>
       <c r="B493">
@@ -20338,7 +20338,7 @@
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A494">
+      <c r="A494" s="5">
         <v>493</v>
       </c>
       <c r="B494">
@@ -20352,7 +20352,7 @@
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A495">
+      <c r="A495" s="5">
         <v>494</v>
       </c>
       <c r="B495">
@@ -20366,7 +20366,7 @@
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A496">
+      <c r="A496" s="5">
         <v>495</v>
       </c>
       <c r="B496">
@@ -20380,7 +20380,7 @@
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A497">
+      <c r="A497" s="5">
         <v>496</v>
       </c>
       <c r="B497">
@@ -20394,7 +20394,7 @@
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A498">
+      <c r="A498" s="5">
         <v>497</v>
       </c>
       <c r="B498">
@@ -20408,7 +20408,7 @@
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A499">
+      <c r="A499" s="5">
         <v>498</v>
       </c>
       <c r="B499">
@@ -20422,7 +20422,7 @@
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A500">
+      <c r="A500" s="5">
         <v>499</v>
       </c>
       <c r="B500">
@@ -20436,7 +20436,7 @@
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A501">
+      <c r="A501" s="5">
         <v>500</v>
       </c>
       <c r="B501">
@@ -20450,7 +20450,7 @@
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A502">
+      <c r="A502" s="5">
         <v>501</v>
       </c>
       <c r="B502">
@@ -20464,7 +20464,7 @@
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A503">
+      <c r="A503" s="5">
         <v>502</v>
       </c>
       <c r="B503">
@@ -20478,7 +20478,7 @@
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A504">
+      <c r="A504" s="5">
         <v>503</v>
       </c>
       <c r="B504">
@@ -20492,7 +20492,7 @@
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A505">
+      <c r="A505" s="5">
         <v>504</v>
       </c>
       <c r="B505">
@@ -20506,7 +20506,7 @@
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A506">
+      <c r="A506" s="5">
         <v>505</v>
       </c>
       <c r="B506">
@@ -20520,7 +20520,7 @@
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A507">
+      <c r="A507" s="5">
         <v>506</v>
       </c>
       <c r="B507">
@@ -20534,7 +20534,7 @@
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A508">
+      <c r="A508" s="5">
         <v>507</v>
       </c>
       <c r="B508">
@@ -20548,7 +20548,7 @@
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A509">
+      <c r="A509" s="5">
         <v>508</v>
       </c>
       <c r="B509">
@@ -20562,7 +20562,7 @@
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A510">
+      <c r="A510" s="5">
         <v>509</v>
       </c>
       <c r="B510">
@@ -20576,7 +20576,7 @@
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A511">
+      <c r="A511" s="5">
         <v>510</v>
       </c>
       <c r="B511">
@@ -20590,7 +20590,7 @@
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A512">
+      <c r="A512" s="5">
         <v>511</v>
       </c>
       <c r="B512">
@@ -20604,7 +20604,7 @@
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A513">
+      <c r="A513" s="5">
         <v>512</v>
       </c>
       <c r="B513">
@@ -20618,7 +20618,7 @@
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A514">
+      <c r="A514" s="5">
         <v>513</v>
       </c>
       <c r="B514">
@@ -20632,7 +20632,7 @@
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A515">
+      <c r="A515" s="5">
         <v>514</v>
       </c>
       <c r="B515">
@@ -20646,7 +20646,7 @@
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A516">
+      <c r="A516" s="5">
         <v>515</v>
       </c>
       <c r="B516">
@@ -20660,7 +20660,7 @@
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A517">
+      <c r="A517" s="5">
         <v>516</v>
       </c>
       <c r="B517">
@@ -20674,7 +20674,7 @@
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A518">
+      <c r="A518" s="5">
         <v>517</v>
       </c>
       <c r="B518">
@@ -20688,7 +20688,7 @@
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A519">
+      <c r="A519" s="5">
         <v>518</v>
       </c>
       <c r="B519">
@@ -20702,7 +20702,7 @@
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A520">
+      <c r="A520" s="5">
         <v>519</v>
       </c>
       <c r="B520">
@@ -20716,7 +20716,7 @@
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A521">
+      <c r="A521" s="5">
         <v>520</v>
       </c>
       <c r="B521">
@@ -20730,7 +20730,7 @@
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A522">
+      <c r="A522" s="5">
         <v>521</v>
       </c>
       <c r="B522">
@@ -20744,7 +20744,7 @@
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A523">
+      <c r="A523" s="5">
         <v>522</v>
       </c>
       <c r="B523">
@@ -20758,7 +20758,7 @@
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A524">
+      <c r="A524" s="5">
         <v>523</v>
       </c>
       <c r="B524">
@@ -20772,7 +20772,7 @@
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A525">
+      <c r="A525" s="5">
         <v>524</v>
       </c>
       <c r="B525">
@@ -20786,7 +20786,7 @@
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A526">
+      <c r="A526" s="5">
         <v>525</v>
       </c>
       <c r="B526">
@@ -20800,7 +20800,7 @@
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A527">
+      <c r="A527" s="5">
         <v>526</v>
       </c>
       <c r="B527">
@@ -20814,7 +20814,7 @@
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A528">
+      <c r="A528" s="5">
         <v>527</v>
       </c>
       <c r="B528">
@@ -20828,7 +20828,7 @@
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A529">
+      <c r="A529" s="5">
         <v>528</v>
       </c>
       <c r="B529">
@@ -20842,7 +20842,7 @@
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A530">
+      <c r="A530" s="5">
         <v>529</v>
       </c>
       <c r="B530">
@@ -20856,7 +20856,7 @@
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A531">
+      <c r="A531" s="5">
         <v>530</v>
       </c>
       <c r="B531">
@@ -20870,7 +20870,7 @@
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A532">
+      <c r="A532" s="5">
         <v>531</v>
       </c>
       <c r="B532">
@@ -20884,7 +20884,7 @@
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A533">
+      <c r="A533" s="5">
         <v>532</v>
       </c>
       <c r="B533">
@@ -20898,7 +20898,7 @@
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A534">
+      <c r="A534" s="5">
         <v>533</v>
       </c>
       <c r="B534">
@@ -20912,7 +20912,7 @@
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A535">
+      <c r="A535" s="5">
         <v>534</v>
       </c>
       <c r="B535">
@@ -20926,7 +20926,7 @@
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A536">
+      <c r="A536" s="5">
         <v>535</v>
       </c>
       <c r="B536">
@@ -20940,7 +20940,7 @@
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A537">
+      <c r="A537" s="5">
         <v>536</v>
       </c>
       <c r="B537">
@@ -20954,7 +20954,7 @@
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A538">
+      <c r="A538" s="5">
         <v>537</v>
       </c>
       <c r="B538">
@@ -20968,7 +20968,7 @@
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A539">
+      <c r="A539" s="5">
         <v>538</v>
       </c>
       <c r="B539">
@@ -20982,7 +20982,7 @@
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A540">
+      <c r="A540" s="5">
         <v>539</v>
       </c>
       <c r="B540">
@@ -20996,7 +20996,7 @@
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A541">
+      <c r="A541" s="5">
         <v>540</v>
       </c>
       <c r="B541">
@@ -21010,7 +21010,7 @@
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A542">
+      <c r="A542" s="5">
         <v>541</v>
       </c>
       <c r="B542">
@@ -21024,7 +21024,7 @@
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A543">
+      <c r="A543" s="5">
         <v>542</v>
       </c>
       <c r="B543">
@@ -21038,7 +21038,7 @@
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A544">
+      <c r="A544" s="5">
         <v>543</v>
       </c>
       <c r="B544">
@@ -21052,7 +21052,7 @@
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A545">
+      <c r="A545" s="5">
         <v>544</v>
       </c>
       <c r="B545">
@@ -21066,7 +21066,7 @@
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A546">
+      <c r="A546" s="5">
         <v>545</v>
       </c>
       <c r="B546">
@@ -21080,7 +21080,7 @@
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A547">
+      <c r="A547" s="5">
         <v>546</v>
       </c>
       <c r="B547">
@@ -21094,7 +21094,7 @@
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A548">
+      <c r="A548" s="5">
         <v>547</v>
       </c>
       <c r="B548">
@@ -21108,7 +21108,7 @@
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A549">
+      <c r="A549" s="5">
         <v>548</v>
       </c>
       <c r="B549">
@@ -21122,7 +21122,7 @@
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A550">
+      <c r="A550" s="5">
         <v>549</v>
       </c>
       <c r="B550">
@@ -21136,7 +21136,7 @@
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A551">
+      <c r="A551" s="5">
         <v>550</v>
       </c>
       <c r="B551">
@@ -21150,7 +21150,7 @@
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A552">
+      <c r="A552" s="5">
         <v>551</v>
       </c>
       <c r="B552">
@@ -21164,7 +21164,7 @@
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A553">
+      <c r="A553" s="5">
         <v>552</v>
       </c>
       <c r="B553">
@@ -21178,7 +21178,7 @@
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A554">
+      <c r="A554" s="5">
         <v>553</v>
       </c>
       <c r="B554">
@@ -21192,7 +21192,7 @@
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A555">
+      <c r="A555" s="5">
         <v>554</v>
       </c>
       <c r="B555">
@@ -21206,7 +21206,7 @@
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A556">
+      <c r="A556" s="5">
         <v>555</v>
       </c>
       <c r="B556">
@@ -21220,7 +21220,7 @@
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A557">
+      <c r="A557" s="5">
         <v>556</v>
       </c>
       <c r="B557">
@@ -21234,7 +21234,7 @@
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A558">
+      <c r="A558" s="5">
         <v>557</v>
       </c>
       <c r="B558">
@@ -21248,7 +21248,7 @@
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A559">
+      <c r="A559" s="5">
         <v>558</v>
       </c>
       <c r="B559">
@@ -21262,7 +21262,7 @@
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A560">
+      <c r="A560" s="5">
         <v>559</v>
       </c>
       <c r="B560">
@@ -21276,7 +21276,7 @@
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A561">
+      <c r="A561" s="5">
         <v>560</v>
       </c>
       <c r="B561">
@@ -21290,7 +21290,7 @@
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A562">
+      <c r="A562" s="5">
         <v>561</v>
       </c>
       <c r="B562">
@@ -21304,7 +21304,7 @@
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A563">
+      <c r="A563" s="5">
         <v>562</v>
       </c>
       <c r="B563">
@@ -21318,7 +21318,7 @@
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A564">
+      <c r="A564" s="5">
         <v>563</v>
       </c>
       <c r="B564">
@@ -21332,7 +21332,7 @@
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A565">
+      <c r="A565" s="5">
         <v>564</v>
       </c>
       <c r="B565">
@@ -21346,7 +21346,7 @@
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A566">
+      <c r="A566" s="5">
         <v>565</v>
       </c>
       <c r="B566">
@@ -21360,7 +21360,7 @@
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A567">
+      <c r="A567" s="5">
         <v>566</v>
       </c>
       <c r="B567">
@@ -21374,7 +21374,7 @@
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A568">
+      <c r="A568" s="5">
         <v>567</v>
       </c>
       <c r="B568">
@@ -21388,7 +21388,7 @@
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A569">
+      <c r="A569" s="5">
         <v>568</v>
       </c>
       <c r="B569">
@@ -21402,7 +21402,7 @@
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A570">
+      <c r="A570" s="5">
         <v>569</v>
       </c>
       <c r="B570">
@@ -21416,7 +21416,7 @@
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A571">
+      <c r="A571" s="5">
         <v>570</v>
       </c>
       <c r="B571">
@@ -21430,7 +21430,7 @@
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A572">
+      <c r="A572" s="5">
         <v>571</v>
       </c>
       <c r="B572">
@@ -21444,7 +21444,7 @@
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A573">
+      <c r="A573" s="5">
         <v>572</v>
       </c>
       <c r="B573">
@@ -21458,7 +21458,7 @@
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A574">
+      <c r="A574" s="5">
         <v>573</v>
       </c>
       <c r="B574">
@@ -21472,7 +21472,7 @@
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A575">
+      <c r="A575" s="5">
         <v>574</v>
       </c>
       <c r="B575">
@@ -21486,7 +21486,7 @@
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A576">
+      <c r="A576" s="5">
         <v>575</v>
       </c>
       <c r="B576">
@@ -21500,7 +21500,7 @@
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A577">
+      <c r="A577" s="5">
         <v>576</v>
       </c>
       <c r="B577">
@@ -21514,7 +21514,7 @@
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A578">
+      <c r="A578" s="5">
         <v>577</v>
       </c>
       <c r="B578">
@@ -21528,7 +21528,7 @@
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A579">
+      <c r="A579" s="5">
         <v>578</v>
       </c>
       <c r="B579">
@@ -21542,7 +21542,7 @@
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A580">
+      <c r="A580" s="5">
         <v>579</v>
       </c>
       <c r="B580">
@@ -21556,7 +21556,7 @@
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A581">
+      <c r="A581" s="5">
         <v>580</v>
       </c>
       <c r="B581">
@@ -21570,7 +21570,7 @@
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A582">
+      <c r="A582" s="5">
         <v>581</v>
       </c>
       <c r="B582">
@@ -21584,7 +21584,7 @@
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A583">
+      <c r="A583" s="5">
         <v>582</v>
       </c>
       <c r="B583">
@@ -21598,7 +21598,7 @@
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A584">
+      <c r="A584" s="5">
         <v>583</v>
       </c>
       <c r="B584">
@@ -21612,7 +21612,7 @@
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A585">
+      <c r="A585" s="5">
         <v>584</v>
       </c>
       <c r="B585">
@@ -21626,7 +21626,7 @@
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A586">
+      <c r="A586" s="5">
         <v>585</v>
       </c>
       <c r="B586">
@@ -21640,7 +21640,7 @@
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A587">
+      <c r="A587" s="5">
         <v>586</v>
       </c>
       <c r="B587">
@@ -21654,7 +21654,7 @@
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A588">
+      <c r="A588" s="5">
         <v>587</v>
       </c>
       <c r="B588">
@@ -21668,7 +21668,7 @@
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A589">
+      <c r="A589" s="5">
         <v>588</v>
       </c>
       <c r="B589">
@@ -21682,7 +21682,7 @@
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A590">
+      <c r="A590" s="5">
         <v>589</v>
       </c>
       <c r="B590">
@@ -21696,7 +21696,7 @@
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A591">
+      <c r="A591" s="5">
         <v>590</v>
       </c>
       <c r="B591">
@@ -21710,7 +21710,7 @@
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A592">
+      <c r="A592" s="5">
         <v>591</v>
       </c>
       <c r="B592">
@@ -21724,7 +21724,7 @@
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A593">
+      <c r="A593" s="5">
         <v>592</v>
       </c>
       <c r="B593">
@@ -21738,7 +21738,7 @@
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A594">
+      <c r="A594" s="5">
         <v>593</v>
       </c>
       <c r="B594">
@@ -21752,7 +21752,7 @@
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A595">
+      <c r="A595" s="5">
         <v>594</v>
       </c>
       <c r="B595">
@@ -21766,7 +21766,7 @@
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A596">
+      <c r="A596" s="5">
         <v>595</v>
       </c>
       <c r="B596">
@@ -21780,7 +21780,7 @@
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A597">
+      <c r="A597" s="5">
         <v>596</v>
       </c>
       <c r="B597">
@@ -21794,7 +21794,7 @@
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A598">
+      <c r="A598" s="5">
         <v>597</v>
       </c>
       <c r="B598">
@@ -21808,7 +21808,7 @@
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A599">
+      <c r="A599" s="5">
         <v>598</v>
       </c>
       <c r="B599">
@@ -21822,7 +21822,7 @@
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A600">
+      <c r="A600" s="5">
         <v>599</v>
       </c>
       <c r="B600">
@@ -21836,7 +21836,7 @@
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A601">
+      <c r="A601" s="5">
         <v>600</v>
       </c>
       <c r="B601">
@@ -21850,7 +21850,7 @@
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A602">
+      <c r="A602" s="5">
         <v>601</v>
       </c>
       <c r="B602">
@@ -21864,7 +21864,7 @@
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A603">
+      <c r="A603" s="5">
         <v>602</v>
       </c>
       <c r="B603">
@@ -21878,7 +21878,7 @@
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A604">
+      <c r="A604" s="5">
         <v>603</v>
       </c>
       <c r="B604">
@@ -21892,7 +21892,7 @@
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A605">
+      <c r="A605" s="5">
         <v>604</v>
       </c>
       <c r="B605">
@@ -21906,7 +21906,7 @@
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A606">
+      <c r="A606" s="5">
         <v>605</v>
       </c>
       <c r="B606">
@@ -21920,7 +21920,7 @@
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A607">
+      <c r="A607" s="5">
         <v>606</v>
       </c>
       <c r="B607">
@@ -21934,7 +21934,7 @@
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A608">
+      <c r="A608" s="5">
         <v>607</v>
       </c>
       <c r="B608">
@@ -21948,7 +21948,7 @@
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A609">
+      <c r="A609" s="5">
         <v>608</v>
       </c>
       <c r="B609">
@@ -21962,7 +21962,7 @@
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A610">
+      <c r="A610" s="5">
         <v>609</v>
       </c>
       <c r="B610">
@@ -21976,7 +21976,7 @@
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A611">
+      <c r="A611" s="5">
         <v>610</v>
       </c>
       <c r="B611">
@@ -21990,7 +21990,7 @@
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A612">
+      <c r="A612" s="5">
         <v>611</v>
       </c>
       <c r="B612">
@@ -22004,7 +22004,7 @@
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A613">
+      <c r="A613" s="5">
         <v>612</v>
       </c>
       <c r="B613">
@@ -22018,7 +22018,7 @@
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A614">
+      <c r="A614" s="5">
         <v>613</v>
       </c>
       <c r="B614">
@@ -22032,7 +22032,7 @@
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A615">
+      <c r="A615" s="5">
         <v>614</v>
       </c>
       <c r="B615">
@@ -22046,7 +22046,7 @@
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A616">
+      <c r="A616" s="5">
         <v>615</v>
       </c>
       <c r="B616">
@@ -22060,7 +22060,7 @@
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A617">
+      <c r="A617" s="5">
         <v>616</v>
       </c>
       <c r="B617">
@@ -22074,7 +22074,7 @@
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A618">
+      <c r="A618" s="5">
         <v>617</v>
       </c>
       <c r="B618">
@@ -22088,7 +22088,7 @@
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A619">
+      <c r="A619" s="5">
         <v>618</v>
       </c>
       <c r="B619">
@@ -22102,7 +22102,7 @@
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A620">
+      <c r="A620" s="5">
         <v>619</v>
       </c>
       <c r="B620">
@@ -22116,7 +22116,7 @@
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A621">
+      <c r="A621" s="5">
         <v>620</v>
       </c>
       <c r="B621">
@@ -22130,7 +22130,7 @@
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A622">
+      <c r="A622" s="5">
         <v>621</v>
       </c>
       <c r="B622">
@@ -22144,7 +22144,7 @@
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A623">
+      <c r="A623" s="5">
         <v>622</v>
       </c>
       <c r="B623">
@@ -22158,7 +22158,7 @@
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A624">
+      <c r="A624" s="5">
         <v>623</v>
       </c>
       <c r="B624">
@@ -22172,7 +22172,7 @@
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A625">
+      <c r="A625" s="5">
         <v>624</v>
       </c>
       <c r="B625">
@@ -22186,7 +22186,7 @@
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A626">
+      <c r="A626" s="5">
         <v>625</v>
       </c>
       <c r="B626">
@@ -22200,7 +22200,7 @@
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A627">
+      <c r="A627" s="5">
         <v>626</v>
       </c>
       <c r="B627">
@@ -22214,7 +22214,7 @@
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A628">
+      <c r="A628" s="5">
         <v>627</v>
       </c>
       <c r="B628">
@@ -22228,7 +22228,7 @@
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A629">
+      <c r="A629" s="5">
         <v>628</v>
       </c>
       <c r="B629">
@@ -22242,7 +22242,7 @@
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A630">
+      <c r="A630" s="5">
         <v>629</v>
       </c>
       <c r="B630">
@@ -22256,7 +22256,7 @@
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A631">
+      <c r="A631" s="5">
         <v>630</v>
       </c>
       <c r="B631">
@@ -22270,7 +22270,7 @@
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A632">
+      <c r="A632" s="5">
         <v>631</v>
       </c>
       <c r="B632">
@@ -22284,7 +22284,7 @@
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A633">
+      <c r="A633" s="5">
         <v>632</v>
       </c>
       <c r="B633">
@@ -22298,7 +22298,7 @@
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A634">
+      <c r="A634" s="5">
         <v>633</v>
       </c>
       <c r="B634">
@@ -22312,7 +22312,7 @@
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A635">
+      <c r="A635" s="5">
         <v>634</v>
       </c>
       <c r="B635">
@@ -22326,7 +22326,7 @@
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A636">
+      <c r="A636" s="5">
         <v>635</v>
       </c>
       <c r="B636">
@@ -22340,7 +22340,7 @@
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A637">
+      <c r="A637" s="5">
         <v>636</v>
       </c>
       <c r="B637">
@@ -22354,7 +22354,7 @@
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A638">
+      <c r="A638" s="5">
         <v>637</v>
       </c>
       <c r="B638">
@@ -22368,7 +22368,7 @@
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A639">
+      <c r="A639" s="5">
         <v>638</v>
       </c>
       <c r="B639">
@@ -22382,7 +22382,7 @@
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A640">
+      <c r="A640" s="5">
         <v>639</v>
       </c>
       <c r="B640">
@@ -22396,7 +22396,7 @@
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A641">
+      <c r="A641" s="5">
         <v>640</v>
       </c>
       <c r="B641">
@@ -22410,7 +22410,7 @@
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A642">
+      <c r="A642" s="5">
         <v>641</v>
       </c>
       <c r="B642">
@@ -22424,7 +22424,7 @@
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A643">
+      <c r="A643" s="5">
         <v>642</v>
       </c>
       <c r="B643">
@@ -22438,7 +22438,7 @@
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A644">
+      <c r="A644" s="5">
         <v>643</v>
       </c>
       <c r="B644">
@@ -22452,7 +22452,7 @@
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A645">
+      <c r="A645" s="5">
         <v>644</v>
       </c>
       <c r="B645">
@@ -22466,7 +22466,7 @@
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A646">
+      <c r="A646" s="5">
         <v>645</v>
       </c>
       <c r="B646">
@@ -22480,7 +22480,7 @@
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A647">
+      <c r="A647" s="5">
         <v>646</v>
       </c>
       <c r="B647">
@@ -22494,7 +22494,7 @@
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A648">
+      <c r="A648" s="5">
         <v>647</v>
       </c>
       <c r="B648">
@@ -22508,7 +22508,7 @@
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A649">
+      <c r="A649" s="5">
         <v>648</v>
       </c>
       <c r="B649">
@@ -22522,7 +22522,7 @@
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A650">
+      <c r="A650" s="5">
         <v>649</v>
       </c>
       <c r="B650">
@@ -22536,7 +22536,7 @@
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A651">
+      <c r="A651" s="5">
         <v>650</v>
       </c>
       <c r="B651">
@@ -22550,7 +22550,7 @@
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A652">
+      <c r="A652" s="5">
         <v>651</v>
       </c>
       <c r="B652">
@@ -22564,7 +22564,7 @@
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A653">
+      <c r="A653" s="5">
         <v>652</v>
       </c>
       <c r="B653">
@@ -22578,7 +22578,7 @@
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A654">
+      <c r="A654" s="5">
         <v>653</v>
       </c>
       <c r="B654">
@@ -22592,7 +22592,7 @@
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A655">
+      <c r="A655" s="5">
         <v>654</v>
       </c>
       <c r="B655">
@@ -22606,7 +22606,7 @@
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A656">
+      <c r="A656" s="5">
         <v>655</v>
       </c>
       <c r="B656">
@@ -22620,7 +22620,7 @@
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A657">
+      <c r="A657" s="5">
         <v>656</v>
       </c>
       <c r="B657">
@@ -22634,7 +22634,7 @@
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A658">
+      <c r="A658" s="5">
         <v>657</v>
       </c>
       <c r="B658">
@@ -22648,7 +22648,7 @@
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A659">
+      <c r="A659" s="5">
         <v>658</v>
       </c>
       <c r="B659">
@@ -22662,7 +22662,7 @@
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A660">
+      <c r="A660" s="5">
         <v>659</v>
       </c>
       <c r="B660">
@@ -22676,7 +22676,7 @@
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A661">
+      <c r="A661" s="5">
         <v>660</v>
       </c>
       <c r="B661">
@@ -22690,7 +22690,7 @@
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A662">
+      <c r="A662" s="5">
         <v>661</v>
       </c>
       <c r="B662">
@@ -22704,7 +22704,7 @@
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A663">
+      <c r="A663" s="5">
         <v>662</v>
       </c>
       <c r="B663">
@@ -22718,7 +22718,7 @@
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A664">
+      <c r="A664" s="5">
         <v>663</v>
       </c>
       <c r="B664">
@@ -22732,7 +22732,7 @@
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A665">
+      <c r="A665" s="5">
         <v>664</v>
       </c>
       <c r="B665">
@@ -22746,7 +22746,7 @@
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A666">
+      <c r="A666" s="5">
         <v>665</v>
       </c>
       <c r="B666">
@@ -22760,7 +22760,7 @@
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A667">
+      <c r="A667" s="5">
         <v>666</v>
       </c>
       <c r="B667">
@@ -22774,7 +22774,7 @@
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A668">
+      <c r="A668" s="5">
         <v>667</v>
       </c>
       <c r="B668">
@@ -22788,7 +22788,7 @@
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A669">
+      <c r="A669" s="5">
         <v>668</v>
       </c>
       <c r="B669">
@@ -22802,7 +22802,7 @@
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A670">
+      <c r="A670" s="5">
         <v>669</v>
       </c>
       <c r="B670">
@@ -22816,7 +22816,7 @@
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A671">
+      <c r="A671" s="5">
         <v>670</v>
       </c>
       <c r="B671">
@@ -22830,7 +22830,7 @@
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A672">
+      <c r="A672" s="5">
         <v>671</v>
       </c>
       <c r="B672">
@@ -22844,7 +22844,7 @@
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A673">
+      <c r="A673" s="5">
         <v>672</v>
       </c>
       <c r="B673">
@@ -22858,7 +22858,7 @@
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A674">
+      <c r="A674" s="5">
         <v>673</v>
       </c>
       <c r="B674">
@@ -22872,7 +22872,7 @@
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A675">
+      <c r="A675" s="5">
         <v>674</v>
       </c>
       <c r="B675">
@@ -22886,7 +22886,7 @@
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A676">
+      <c r="A676" s="5">
         <v>675</v>
       </c>
       <c r="B676">
@@ -22900,7 +22900,7 @@
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A677">
+      <c r="A677" s="5">
         <v>676</v>
       </c>
       <c r="B677">
@@ -22914,7 +22914,7 @@
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A678">
+      <c r="A678" s="5">
         <v>677</v>
       </c>
       <c r="B678">
@@ -22928,7 +22928,7 @@
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A679">
+      <c r="A679" s="5">
         <v>678</v>
       </c>
       <c r="B679">
@@ -22942,7 +22942,7 @@
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A680">
+      <c r="A680" s="5">
         <v>679</v>
       </c>
       <c r="B680">
@@ -22956,7 +22956,7 @@
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A681">
+      <c r="A681" s="5">
         <v>680</v>
       </c>
       <c r="B681">
@@ -22970,7 +22970,7 @@
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A682">
+      <c r="A682" s="5">
         <v>681</v>
       </c>
       <c r="B682">
@@ -22984,7 +22984,7 @@
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A683">
+      <c r="A683" s="5">
         <v>682</v>
       </c>
       <c r="B683">
@@ -22998,7 +22998,7 @@
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A684">
+      <c r="A684" s="5">
         <v>683</v>
       </c>
       <c r="B684">
@@ -23012,7 +23012,7 @@
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A685">
+      <c r="A685" s="5">
         <v>684</v>
       </c>
       <c r="B685">
@@ -23026,7 +23026,7 @@
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A686">
+      <c r="A686" s="5">
         <v>685</v>
       </c>
       <c r="B686">
@@ -23040,7 +23040,7 @@
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A687">
+      <c r="A687" s="5">
         <v>686</v>
       </c>
       <c r="B687">
@@ -23054,7 +23054,7 @@
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A688">
+      <c r="A688" s="5">
         <v>687</v>
       </c>
       <c r="B688">
@@ -23068,7 +23068,7 @@
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A689">
+      <c r="A689" s="5">
         <v>688</v>
       </c>
       <c r="B689">
@@ -23082,7 +23082,7 @@
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A690">
+      <c r="A690" s="5">
         <v>689</v>
       </c>
       <c r="B690">
@@ -23096,7 +23096,7 @@
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A691">
+      <c r="A691" s="5">
         <v>690</v>
       </c>
       <c r="B691">
@@ -23110,7 +23110,7 @@
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A692">
+      <c r="A692" s="5">
         <v>691</v>
       </c>
       <c r="B692">
@@ -23124,7 +23124,7 @@
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A693">
+      <c r="A693" s="5">
         <v>692</v>
       </c>
       <c r="B693">
@@ -23138,7 +23138,7 @@
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A694">
+      <c r="A694" s="5">
         <v>693</v>
       </c>
       <c r="B694">
@@ -23152,7 +23152,7 @@
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A695">
+      <c r="A695" s="5">
         <v>694</v>
       </c>
       <c r="B695">
@@ -23166,7 +23166,7 @@
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A696">
+      <c r="A696" s="5">
         <v>695</v>
       </c>
       <c r="B696">
@@ -23180,7 +23180,7 @@
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A697">
+      <c r="A697" s="5">
         <v>696</v>
       </c>
       <c r="B697">
@@ -23194,7 +23194,7 @@
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A698">
+      <c r="A698" s="5">
         <v>697</v>
       </c>
       <c r="B698">
@@ -23208,7 +23208,7 @@
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A699">
+      <c r="A699" s="5">
         <v>698</v>
       </c>
       <c r="B699">
@@ -23222,7 +23222,7 @@
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A700">
+      <c r="A700" s="5">
         <v>699</v>
       </c>
       <c r="B700">
@@ -23236,7 +23236,7 @@
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A701">
+      <c r="A701" s="5">
         <v>700</v>
       </c>
       <c r="B701">
@@ -23250,7 +23250,7 @@
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A702">
+      <c r="A702" s="5">
         <v>701</v>
       </c>
       <c r="B702">
@@ -23264,7 +23264,7 @@
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A703">
+      <c r="A703" s="5">
         <v>702</v>
       </c>
       <c r="B703">
@@ -23278,7 +23278,7 @@
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A704">
+      <c r="A704" s="5">
         <v>703</v>
       </c>
       <c r="B704">
@@ -23292,7 +23292,7 @@
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A705">
+      <c r="A705" s="5">
         <v>704</v>
       </c>
       <c r="B705">
@@ -23306,7 +23306,7 @@
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A706">
+      <c r="A706" s="5">
         <v>705</v>
       </c>
       <c r="B706">
@@ -23320,7 +23320,7 @@
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A707">
+      <c r="A707" s="5">
         <v>706</v>
       </c>
       <c r="B707">
@@ -23334,7 +23334,7 @@
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A708">
+      <c r="A708" s="5">
         <v>707</v>
       </c>
       <c r="B708">
@@ -23348,7 +23348,7 @@
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A709">
+      <c r="A709" s="5">
         <v>708</v>
       </c>
       <c r="B709">
@@ -23362,10 +23362,592 @@
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D710" s="3"/>
+      <c r="A710" s="5">
+        <v>709</v>
+      </c>
+      <c r="B710" s="5">
+        <v>1</v>
+      </c>
+      <c r="C710" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D710" s="3">
+        <v>19312</v>
+      </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D711" s="3"/>
+      <c r="A711" s="5">
+        <v>710</v>
+      </c>
+      <c r="B711" s="5">
+        <v>2</v>
+      </c>
+      <c r="C711" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D711" s="3">
+        <v>15564</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A712" s="5">
+        <v>711</v>
+      </c>
+      <c r="B712" s="5">
+        <v>3</v>
+      </c>
+      <c r="C712" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D712" s="3">
+        <v>9247</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A713" s="5">
+        <v>712</v>
+      </c>
+      <c r="B713" s="5">
+        <v>4</v>
+      </c>
+      <c r="C713" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D713" s="3">
+        <v>11120</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A714" s="5">
+        <v>713</v>
+      </c>
+      <c r="B714" s="5">
+        <v>5</v>
+      </c>
+      <c r="C714" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D714" s="3">
+        <v>13543</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A715" s="5">
+        <v>714</v>
+      </c>
+      <c r="B715" s="5">
+        <v>6</v>
+      </c>
+      <c r="C715" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D715" s="3">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A716" s="5">
+        <v>715</v>
+      </c>
+      <c r="B716" s="5">
+        <v>7</v>
+      </c>
+      <c r="C716" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D716" s="3">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A717" s="5">
+        <v>716</v>
+      </c>
+      <c r="B717" s="5">
+        <v>8</v>
+      </c>
+      <c r="C717" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D717" s="3">
+        <v>7522</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A718" s="5">
+        <v>717</v>
+      </c>
+      <c r="B718" s="5">
+        <v>9</v>
+      </c>
+      <c r="C718" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D718" s="3">
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A719" s="5">
+        <v>718</v>
+      </c>
+      <c r="B719" s="5">
+        <v>10</v>
+      </c>
+      <c r="C719" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D719" s="3">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A720" s="5">
+        <v>719</v>
+      </c>
+      <c r="B720" s="5">
+        <v>11</v>
+      </c>
+      <c r="C720" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D720" s="3">
+        <v>6849</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A721" s="5">
+        <v>720</v>
+      </c>
+      <c r="B721" s="5">
+        <v>12</v>
+      </c>
+      <c r="C721" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D721" s="3">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A722" s="5">
+        <v>721</v>
+      </c>
+      <c r="B722" s="5">
+        <v>13</v>
+      </c>
+      <c r="C722" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D722" s="3">
+        <v>5914</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A723" s="5">
+        <v>722</v>
+      </c>
+      <c r="B723" s="5">
+        <v>14</v>
+      </c>
+      <c r="C723" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D723" s="3">
+        <v>11459</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A724" s="5">
+        <v>723</v>
+      </c>
+      <c r="B724" s="5">
+        <v>15</v>
+      </c>
+      <c r="C724" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D724" s="3">
+        <v>7260</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A725" s="5">
+        <v>724</v>
+      </c>
+      <c r="B725" s="5">
+        <v>16</v>
+      </c>
+      <c r="C725" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D725" s="3">
+        <v>10541</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A726" s="5">
+        <v>725</v>
+      </c>
+      <c r="B726" s="5">
+        <v>17</v>
+      </c>
+      <c r="C726" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D726" s="3">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A727" s="5">
+        <v>726</v>
+      </c>
+      <c r="B727" s="5">
+        <v>18</v>
+      </c>
+      <c r="C727" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D727" s="3">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A728" s="5">
+        <v>727</v>
+      </c>
+      <c r="B728" s="5">
+        <v>19</v>
+      </c>
+      <c r="C728" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D728" s="3">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A729" s="5">
+        <v>728</v>
+      </c>
+      <c r="B729" s="5">
+        <v>20</v>
+      </c>
+      <c r="C729" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D729" s="3">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A730" s="5">
+        <v>729</v>
+      </c>
+      <c r="B730" s="5">
+        <v>21</v>
+      </c>
+      <c r="C730" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D730" s="3">
+        <v>8677</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A731" s="5">
+        <v>730</v>
+      </c>
+      <c r="B731" s="5">
+        <v>1</v>
+      </c>
+      <c r="C731" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D731" s="3">
+        <v>19963</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A732" s="5">
+        <v>731</v>
+      </c>
+      <c r="B732" s="5">
+        <v>2</v>
+      </c>
+      <c r="C732" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D732" s="3">
+        <v>16214</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A733" s="5">
+        <v>732</v>
+      </c>
+      <c r="B733" s="5">
+        <v>3</v>
+      </c>
+      <c r="C733" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D733" s="3">
+        <v>8447</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A734" s="5">
+        <v>733</v>
+      </c>
+      <c r="B734" s="5">
+        <v>4</v>
+      </c>
+      <c r="C734" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D734" s="3">
+        <v>11150</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A735" s="5">
+        <v>734</v>
+      </c>
+      <c r="B735" s="5">
+        <v>5</v>
+      </c>
+      <c r="C735" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D735" s="3">
+        <v>12543</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A736" s="5">
+        <v>735</v>
+      </c>
+      <c r="B736" s="5">
+        <v>6</v>
+      </c>
+      <c r="C736" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D736" s="3">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A737" s="5">
+        <v>736</v>
+      </c>
+      <c r="B737" s="5">
+        <v>7</v>
+      </c>
+      <c r="C737" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D737" s="3">
+        <v>11035</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A738" s="5">
+        <v>737</v>
+      </c>
+      <c r="B738" s="5">
+        <v>8</v>
+      </c>
+      <c r="C738" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D738" s="3">
+        <v>7882</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A739" s="5">
+        <v>738</v>
+      </c>
+      <c r="B739" s="5">
+        <v>9</v>
+      </c>
+      <c r="C739" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D739" s="3">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A740" s="5">
+        <v>739</v>
+      </c>
+      <c r="B740" s="5">
+        <v>10</v>
+      </c>
+      <c r="C740" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D740" s="3">
+        <v>7669</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A741" s="5">
+        <v>740</v>
+      </c>
+      <c r="B741" s="5">
+        <v>11</v>
+      </c>
+      <c r="C741" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D741" s="3">
+        <v>5849</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A742" s="5">
+        <v>741</v>
+      </c>
+      <c r="B742" s="5">
+        <v>12</v>
+      </c>
+      <c r="C742" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D742" s="3">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A743" s="5">
+        <v>742</v>
+      </c>
+      <c r="B743" s="5">
+        <v>13</v>
+      </c>
+      <c r="C743" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D743" s="3">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A744" s="5">
+        <v>743</v>
+      </c>
+      <c r="B744" s="5">
+        <v>14</v>
+      </c>
+      <c r="C744" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D744" s="3">
+        <v>11259</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A745" s="5">
+        <v>744</v>
+      </c>
+      <c r="B745" s="5">
+        <v>15</v>
+      </c>
+      <c r="C745" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D745" s="3">
+        <v>8160</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A746" s="5">
+        <v>745</v>
+      </c>
+      <c r="B746" s="5">
+        <v>16</v>
+      </c>
+      <c r="C746" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D746" s="3">
+        <v>10341</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A747" s="5">
+        <v>746</v>
+      </c>
+      <c r="B747" s="5">
+        <v>17</v>
+      </c>
+      <c r="C747" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D747" s="3">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A748" s="5">
+        <v>747</v>
+      </c>
+      <c r="B748" s="5">
+        <v>18</v>
+      </c>
+      <c r="C748" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D748" s="3">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A749" s="5">
+        <v>748</v>
+      </c>
+      <c r="B749" s="5">
+        <v>19</v>
+      </c>
+      <c r="C749" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D749" s="3">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A750" s="5">
+        <v>749</v>
+      </c>
+      <c r="B750" s="5">
+        <v>20</v>
+      </c>
+      <c r="C750" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D750" s="3">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A751" s="5">
+        <v>750</v>
+      </c>
+      <c r="B751" s="5">
+        <v>21</v>
+      </c>
+      <c r="C751" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D751" s="3">
+        <v>6577</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23482,7 +24064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D1228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1220" workbookViewId="0">
+    <sheetView topLeftCell="A289" workbookViewId="0">
       <selection activeCell="C1232" sqref="C1232"/>
     </sheetView>
   </sheetViews>
